--- a/recipeData/CombineRecipes.xlsx
+++ b/recipeData/CombineRecipes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="793">
   <si>
     <t>Name</t>
   </si>
@@ -410,9 +410,6 @@
     <t>Chinese Pepper Steak</t>
   </si>
   <si>
-    <t>chinese</t>
-  </si>
-  <si>
     <t>stir frying</t>
   </si>
   <si>
@@ -668,9 +665,6 @@
     <t>Caramel apple upside down cake recipe</t>
   </si>
   <si>
-    <t>Desserts</t>
-  </si>
-  <si>
     <t>Boiling / Double Boiling</t>
   </si>
   <si>
@@ -776,17 +770,6 @@
     <t>full english breakfast</t>
   </si>
   <si>
-    <t>unsmoked back bacon
-portabello mushroom
-cherry tomatoes
-olive oil
-wholegrain bread
-pork sausage
-egg
-cider vinegar
-orangeblueberries</t>
-  </si>
-  <si>
     <t>http://www.bbcgoodfood.com/recipes/5820/the-ultimate-makeover-full-english-breakfast</t>
   </si>
   <si>
@@ -799,11 +782,6 @@
     <t>eggs</t>
   </si>
   <si>
-    <t>egg
-full cream milk
-butter</t>
-  </si>
-  <si>
     <t>2 large free range eggs</t>
   </si>
   <si>
@@ -819,32 +797,12 @@
     <t>pancakes</t>
   </si>
   <si>
-    <t>self-raising flour
-baking powder
-egg
-milk
-butter
-blueberry
-sunflower oil
-maple syrup</t>
-  </si>
-  <si>
     <t>http://www.bbcgoodfood.com/recipes/4915/american-blueberry-pancakes</t>
   </si>
   <si>
     <t>egg-in-a-hole smoke salmon and toastie</t>
   </si>
   <si>
-    <t>butter
-white bread
-avocado
-lemon
-wedge
-watercress
-egg
-smoked salmon</t>
-  </si>
-  <si>
     <t>http://www.bbcgoodfood.com/recipes/egg-hole-smoked-salmon-avocado-toastie</t>
   </si>
   <si>
@@ -854,42 +812,12 @@
     <t>main</t>
   </si>
   <si>
-    <t>potatoes
-sunflower oil
-beef steaks
-butter
-parsley leaves
-garlic
-lemon juice</t>
-  </si>
-  <si>
     <t>http://www.bbcgoodfood.com/recipes/1661644/steak-and-chips</t>
   </si>
   <si>
     <t>beef wellington</t>
   </si>
   <si>
-    <t>beef fillet 
-olive oil
-prosciutto
-puff pastry
-egg
-porcini mushrooms
-chestnut
-button mushroom
-fresh thyme leaf
-butter
-shallot
-Worcestershire sauce
-Parmesan
-thyme
-bay leaf
-plain flour
-brandy
-red wine
-beef cube</t>
-  </si>
-  <si>
     <t>http://www.bbcgoodfood.com/recipes/2793662/beef-wellington-</t>
   </si>
   <si>
@@ -905,17 +833,6 @@
     <t>chicken</t>
   </si>
   <si>
-    <t>unsifted flour
-salt
-black pepper
-chicken breasts
-butter
-Lemon juice
-sugar
-mushrooms
-rice</t>
-  </si>
-  <si>
     <t>http://www.food.com/recipe/the-infamous-lemon-chicken-recipe-185893</t>
   </si>
   <si>
@@ -925,15 +842,6 @@
     <t>grill</t>
   </si>
   <si>
-    <t>ground ginger
-garlic powder
-soy sauce
-orange juice
-honey
-green onion
-salmon fillets</t>
-  </si>
-  <si>
     <t>http://www.food.com/recipe/honey-ginger-grilled-salmon-13982</t>
   </si>
   <si>
@@ -943,39 +851,12 @@
     <t>pork</t>
   </si>
   <si>
-    <t xml:space="preserve">salt
-chili powder
-dark brown sugar
-paprika
-garlic powder
-ground mustard
-ground black pepper
-pork ribs 
-ketchup
-molasses
-cider vinegar
-Worcestershire sauce
-</t>
-  </si>
-  <si>
     <t>http://www.chowhound.com/recipes/easy-bbq-baby-back-pork-ribs-30741</t>
   </si>
   <si>
     <t>pork chop with brown rice</t>
   </si>
   <si>
-    <t>pork chops
-soy sauce
-rice wine
-sugar
-salt
-Chinese five-spice powder
-garlic
-egg
-cornstarch
-Canola oil</t>
-  </si>
-  <si>
     <t>1 large egg</t>
   </si>
   <si>
@@ -988,23 +869,6 @@
     <t>turkey</t>
   </si>
   <si>
-    <t>Vegetable oil
-breadcrumbs
-milk
-oregano
-fennel seeds
-red pepper flakes
-ricotta cheese
-egg
-parsley
-salt
-ground black pepper
-turkey
-tomatoes
-olive oil
-Parmesan cheese</t>
-  </si>
-  <si>
     <t>1 pound ground dark-meat turkey</t>
   </si>
   <si>
@@ -1014,18 +878,6 @@
     <t>linguine with smoke clams</t>
   </si>
   <si>
-    <t>clams
-cherry tomatoes
-salt
-linguine
-olive oil
-yellow onion
-garlic
-anchovy fillets
-ground black pepper
-Italian parsley</t>
-  </si>
-  <si>
     <t>http://www.chowhound.com/recipes/linguine-with-smoked-clams-and-cherry-tomatoes-31091</t>
   </si>
   <si>
@@ -1035,41 +887,12 @@
     <t>boil</t>
   </si>
   <si>
-    <t>olive oil
-garlic
-tomatoes
-salt
-ground black pepper
-yellow onion 
-thyme leaves
-zucchini
-eggplant
-pasta
-zest
-lemon juice
-basil leaves
-cheese</t>
-  </si>
-  <si>
     <t>http://www.chowhound.com/recipes/ratatouille-pasta-31477</t>
   </si>
   <si>
     <t>pan-seared salmon with ginger lime sauce</t>
   </si>
   <si>
-    <t>vegetable oil
-salmon
-garlic
-cucumbers
-Asian basil
-peanuts
-Thai bird chiles
-sugar
-ginger
-fish sauce
-lime juice</t>
-  </si>
-  <si>
     <t>http://www.foodnetwork.com/recipes/pan-seared-salmon-with-ginger-lime-sauce-and-peanuts-recipe.html</t>
   </si>
   <si>
@@ -1082,19 +905,6 @@
     <t>bake</t>
   </si>
   <si>
-    <t>salmon fillet
-salt
-ground black pepper
-Almond Parsley Salsa
-squash
-shallot
-red wine vinegar
-capers
-parsley
-toasted almonds
-olive oil</t>
-  </si>
-  <si>
     <t>12 ounce salmon fillet, cut into 4 pieces</t>
   </si>
   <si>
@@ -1110,14 +920,6 @@
     <t>pasta</t>
   </si>
   <si>
-    <t>pasta
-cucumbers
-onion
-cherry tomatoes
-olive
-salad dressing</t>
-  </si>
-  <si>
     <t>4 ounces uncooked rotini pasta</t>
   </si>
   <si>
@@ -1127,14 +929,6 @@
     <t>pasta with caramelized tomatoes and salad</t>
   </si>
   <si>
-    <t>Italian sausage
-grape
-cherry tomatoes
-pasta
-red pepper flakes
-Pecorino Romano cheese</t>
-  </si>
-  <si>
     <t>http://www.chowhound.com/recipes/pasta-with-caramelized-tomatoes-and-sausage-10974</t>
   </si>
   <si>
@@ -1144,20 +938,6 @@
     <t>macaroni</t>
   </si>
   <si>
-    <t>elbow macaroni
-mayonnaise
-white vinegar 
-white sugar 
-mustard 
-salt 
-ground black pepper 
-onion 
-celery 
-bell pepper 
-carrot 
-pimento peppers</t>
-  </si>
-  <si>
     <t>http://allrecipes.com/recipe/81108/classic-macaroni-salad/</t>
   </si>
   <si>
@@ -1173,17 +953,6 @@
     <t>cabbage</t>
   </si>
   <si>
-    <t>mayonnaise
-sugar
-salt 
-pepper 
-celery 
-garlic
-onion 
-vinegar 
-coleslaw mix</t>
-  </si>
-  <si>
     <t>http://allrecipes.com/recipe/64116/creamy-spiced-coleslaw/</t>
   </si>
   <si>
@@ -1238,9 +1007,6 @@
     <t>Difficulty Level</t>
   </si>
   <si>
-    <t>Nyonya; Asian; Singapore; Malaysia</t>
-  </si>
-  <si>
     <t>dried shrimps;Nyonya Sambal chilly;fine sugar;lime leaves</t>
   </si>
   <si>
@@ -1271,9 +1037,6 @@
     <t>chicken;meat curry powder;chilly powder;cooking oil;potato;water;curry leaf;coconut milk;tamarind peel;salt2 stalks lemon grass;cinnamon stick;anise;cardamon;shallots;garlic;ginger</t>
   </si>
   <si>
-    <t>Asian; Nyonya; Peranakan; Seafood</t>
-  </si>
-  <si>
     <t>boiling; frying</t>
   </si>
   <si>
@@ -1286,10 +1049,6 @@
     <t>Boiling; Frying</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooking Oil;water;tamarind pulp;Mackerel;Kaffir Lime Leaves;Sugar;Salt;Lady Finger;dried chillye;shallot;garlic;candlenut;turmeric;galangal;lemongrass;belachan
-</t>
-  </si>
-  <si>
     <t>Sago Pearl;Gula Melaka;Coconut Milk;Pandan Leaf;Water;Salt</t>
   </si>
   <si>
@@ -1311,9 +1070,6 @@
     <t>horse mackerel;tamarind paste;dried shrimp paste;lemongrass;chilly;onion;lime leave;salt;sugar;line</t>
   </si>
   <si>
-    <t>Asian; Indian; Snacks; Vegetarian</t>
-  </si>
-  <si>
     <t>Main; Snack</t>
   </si>
   <si>
@@ -1437,9 +1193,6 @@
     <t>corn cooking oil;water;pork ribs;salt;yellow noodle;dried vermicelli;dried chiilies;shallot;garlic;prawn heads and shells;rock sugar;salt;sugar;eggs kang kong;bean sprout;shallot crips</t>
   </si>
   <si>
-    <t>Asian; Seafood;Singaporean</t>
-  </si>
-  <si>
     <t>black pepper;melted unsalted butter;garlic;onion;crab;oyster sauce;sugar;water;salt</t>
   </si>
   <si>
@@ -1476,9 +1229,6 @@
     <t>fish fillet;fish bones;ginger;tianjin preserved vegetable;dried seaweed;light soya sauce;sesame oil;rice wine;pepper;hua tiao wine;water;spring onion;coriander;cooked rice</t>
   </si>
   <si>
-    <t>chinese;Asian;Seafood</t>
-  </si>
-  <si>
     <t>steamed dishes;stir frying/wok</t>
   </si>
   <si>
@@ -1500,9 +1250,6 @@
     <t>glutinous rice;chinese dried mushroom;chinese sausage;dried prawn;shallot;peanut;salt;light and dark soya sauce;spring onion</t>
   </si>
   <si>
-    <t>chinese;asian</t>
-  </si>
-  <si>
     <t>prawn;garlic;wolfberry;chinese rice wine;sugar;chicken bouillon;salt;water</t>
   </si>
   <si>
@@ -1512,9 +1259,6 @@
     <t>glutinous rice;pork hock with skin;lean pork;dried shiitake mushroom;chinese chestnut;garlic;soy sauce;five-spice powder;salt;pepper;salted egg yolk;bamboo leave</t>
   </si>
   <si>
-    <t>asian;chinese</t>
-  </si>
-  <si>
     <t>golden snapper fish;cooking oil;shallot;garlic;tamarind pulp;chili padi;sugar;salt</t>
   </si>
   <si>
@@ -1605,10 +1349,6 @@
     <t>Indian; Asian; Vegetarian</t>
   </si>
   <si>
-    <t>vegetable oil; cumin seeds; large onion; ginger-garlic paste; medium sized ripe tomatoes; coriander powder; cumin powder; turmeric powder; chili powder; dry kasoori methi; heavy cream; Salt; white button mushrooms;  large green or red bell pepper; turmeric; chili powderreek yogurt or strained yogurt
-1 tablespoon oil</t>
-  </si>
-  <si>
     <t>Cauliflower; Potatoes</t>
   </si>
   <si>
@@ -1621,10 +1361,6 @@
     <t>Blender; Pot</t>
   </si>
   <si>
-    <t>1 whole chicken; cut up into 8 pieces and skin removed onion; chopped
-tomato paste; Salt; pepper; oil; white vinegar; red Chilly peppers; cloves; garlic; fresh ginger; paprika powder; cinnamon; cumin; dry mustard; sugar</t>
-  </si>
-  <si>
     <t>Indian; Asian; Italian</t>
   </si>
   <si>
@@ -1634,10 +1370,6 @@
     <t>Pizza; Chicken</t>
   </si>
   <si>
-    <t xml:space="preserve">skinless and boneless chicken breast; butter; garlic; jalapeno; Salt; pizza crust; Olive oil; onion; mozzarella cheese; coriander leaves or cilantro; cumin; cayenne pepper; garam masala; fresh ginger; salt; black pepper; lemon juice; plain yogurt; cinnamon; tomato sauce; plain yogurt; cumin; 
-paprika; garam masala; </t>
-  </si>
-  <si>
     <t>boneless skinless chicken breast; vegetable oil; minced garlic; fresh ginger; onion; cumin seeds; green cardamom; ripe tomato; turmeric; red pepper (cayenne); salt; black pepper</t>
   </si>
   <si>
@@ -1707,9 +1439,6 @@
     <t>royal gala apples; sugar; butter; margarine; salt; castor sugar; vanilla extract; plain flour; baking powder; ground almonds; ground cinnamon; Grade A eggs; milk</t>
   </si>
   <si>
-    <t>Desserts; Snacks</t>
-  </si>
-  <si>
     <t>ripe bananas; lemon juice; full cream milk; vanilla paste; baking powder; butter; sugar; eggs; flour; walnuts; chopped candied ginger; Vanilla ice-cream</t>
   </si>
   <si>
@@ -1767,18 +1496,6 @@
     <t>heat; fry</t>
   </si>
   <si>
-    <t>plain flour
-baking soda
-baking powder
-egg; milk
-light sour cream
-mustard
-horseradish cream
- chives
-black pepper
-smoked salmon</t>
-  </si>
-  <si>
     <t>frying pan; grill</t>
   </si>
   <si>
@@ -2469,12 +2186,6 @@
     <t>1 medium cauliflower, cut into florets;2 large russet potatoes, cubed;4 tablespoons canola oil;0.5 teaspoon black mustard seeds (or regular if cannot find black);0.5 teaspoon cumin seeds;0.5 teaspoon coriander seeds, crushed in a mortar and pestle;1 medium onion, diced;1 Jalapeno or any hot green pepper, sliced (can use seeded or 1/2 seeded to tone down heat);1 medium tomato, diced;4 garlic cloves, minced;1 small piece of fresh ginger (thin 1 inch), grated on small hole grater or ginger grater;0.5 teaspoon red pepper chili powder;0.5 teaspoon turmeric powder;0.5 teaspoon salt or according to taste;8 tablespoons of water</t>
   </si>
   <si>
-    <t>chicken(thigh meat); ginger paste; garlic paste; red chili powder; ground black pepper; Salt; Oil; lime or lemon juice; food color (deep orange); large tomatoes; garlic paste; ginger paste; jalapeno; cinnamon; bay leaf; cloves; green cardamom; whole black pepper; ketchup; sugar; red chili powder; dried fenugreek leaves; Salt;
- oil
-2 tablespoon butter
-Water (1/2 cup + about 1/2 cup)</t>
-  </si>
-  <si>
     <t>For the peanut sauce;1/2 cup of vegetable oil;1 1⁄4 cups raw unsalted peanuts;2 garlic cloves;4 spring onions, chopped;salt;1⁄2 teaspoon chilli powder;1 teaspoon soft brown sugar;1 tablespoon dark soy sauce;2 cups water;juice of 1 lemon</t>
   </si>
   <si>
@@ -2608,6 +2319,90 @@
   </si>
   <si>
     <t xml:space="preserve">1.Heat the oven to 425°F and arrange a rack in the upper third. Generously coat a rimmed baking sheet with vegetable oil and set aside.;2.In a large bowl, stir together the breadcrumbs and milk. Set aside until the crumbs have absorbed most of the milk, about 5 minutes. Crush the dried oregano with your fingers and add it to the bread mixture. Combine the fennel seeds and red pepper flakes on a cutting board and coarsely chop them, then add to the bread mixture. (Alternately, you can crush the oregano, fennel seeds, and pepper flakes coarsely in a mortar.) Add the ricotta, egg, parsley, measured salt, and pepper to taste;Stir in the ground turkey. Make sure the mixture is well combined. ;Shape into 14 meatballs, 3 to 4 tablespoons each. Transfer the meatballs to the prepared baking sheet. ;3.Roast the meatballs in the oven until browned and firm, about 15 minutes (they’ll brown mostly on the bottom, but that’s OK). ;Meanwhile, add the crushed tomatoes to a heavy saucepan or Dutch oven. Transfer the browned meatballs to the saucepan and, using a metal spatula, scrape up any browned bits from the bottom of the baking sheet and add them to the saucepan. Add the olive oil.;4.Simmer the meatballs and tomato mixture over low heat until the sauce is thick and the meatballs are tender, about 30 minutes (turn the meatballs a few times during cooking). When the meatballs are nearly done, taste the sauce and season with salt as needed. ;5.Transfer the meatballs and tomato sauce onto a large warmed platter or individual plates. Garnish with the Parmesan and serve hot. Alternately, spoon meatballs and some of the tomato sauce into split sandwich rolls. </t>
+  </si>
+  <si>
+    <t>Cooking Oil;water;tamarind pulp;Mackerel;Kaffir Lime Leaves;Sugar;Salt;Lady Finger;dried chillye;shallot;garlic;candlenut;turmeric;galangal;lemongrass;belachan</t>
+  </si>
+  <si>
+    <t>vegetable oil; cumin seeds; large onion; ginger-garlic paste; medium sized ripe tomatoes; coriander powder; cumin powder; turmeric powder; chili powder; dry kasoori methi; heavy cream; Salt; white button mushrooms;  large green or red bell pepper; turmeric; chili powderreek yogurt or strained yogurt</t>
+  </si>
+  <si>
+    <t>1 tablespoon oil</t>
+  </si>
+  <si>
+    <t>chicken(thigh meat); ginger paste; garlic paste; red chili powder; ground black pepper; Salt; Oil; lime or lemon juice; food color (deep orange); large tomatoes; garlic paste; ginger paste; jalapeno; cinnamon; bay leaf; cloves; green cardamom; whole black pepper; ketchup; sugar; red chili powder; dried fenugreek leaves; Salt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> oil</t>
+  </si>
+  <si>
+    <t>2 tablespoon butter</t>
+  </si>
+  <si>
+    <t>Water (1/2 cup + about 1/2 cup)</t>
+  </si>
+  <si>
+    <t>1 whole chicken; cut up into 8 pieces and skin removed onion; chopped</t>
+  </si>
+  <si>
+    <t>tomato paste; Salt; pepper; oil; white vinegar; red Chilly peppers; cloves; garlic; fresh ginger; paprika powder; cinnamon; cumin; dry mustard; sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinless and boneless chicken breast; butter; garlic; jalapeno; Salt; pizza crust; Olive oil; onion; mozzarella cheese; coriander leaves or cilantro; cumin; cayenne pepper; garam masala; fresh ginger; salt; black pepper; lemon juice; plain yogurt; cinnamon; tomato sauce; plain yogurt; cumin; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paprika; garam masala; </t>
+  </si>
+  <si>
+    <t>plain flour</t>
+  </si>
+  <si>
+    <t>baking soda</t>
+  </si>
+  <si>
+    <t>baking powder</t>
+  </si>
+  <si>
+    <t>egg; milk</t>
+  </si>
+  <si>
+    <t>light sour cream</t>
+  </si>
+  <si>
+    <t>mustard</t>
+  </si>
+  <si>
+    <t>horseradish cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chives</t>
+  </si>
+  <si>
+    <t>black pepper</t>
+  </si>
+  <si>
+    <t>smoked salmon</t>
+  </si>
+  <si>
+    <t>unsmoked back bacon</t>
+  </si>
+  <si>
+    <t>portabello mushroom</t>
+  </si>
+  <si>
+    <t>cherry tomatoes</t>
+  </si>
+  <si>
+    <t>Nyonya; Asian; Singapore; Malay</t>
+  </si>
+  <si>
+    <t>Asian; Indian; Vegetarian</t>
+  </si>
+  <si>
+    <t>Asian; Malay; Indonesian</t>
+  </si>
+  <si>
+    <t>Chinese</t>
   </si>
 </sst>
 </file>
@@ -3034,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O101"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3057,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -3107,7 +2902,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
@@ -3119,13 +2914,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>348</v>
+        <v>789</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>98</v>
@@ -3134,15 +2929,15 @@
         <v>16</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="17" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>17</v>
@@ -3153,7 +2948,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C3" s="15">
         <v>18</v>
@@ -3165,32 +2960,32 @@
         <v>135</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>19</v>
@@ -3201,7 +2996,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C4" s="15">
         <v>4</v>
@@ -3213,30 +3008,30 @@
         <v>25</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>353</v>
-      </c>
       <c r="K4" s="17" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="17" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>23</v>
@@ -3247,7 +3042,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C5" s="15">
         <v>6</v>
@@ -3259,7 +3054,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>21</v>
@@ -3268,23 +3063,23 @@
         <v>82</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>26</v>
@@ -3295,7 +3090,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C6" s="15">
         <v>10</v>
@@ -3307,7 +3102,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>21</v>
@@ -3316,23 +3111,23 @@
         <v>82</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="17" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>28</v>
@@ -3343,7 +3138,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C7" s="15">
         <v>10</v>
@@ -3364,23 +3159,23 @@
         <v>91</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>364</v>
+        <v>765</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17" t="s">
-        <v>762</v>
+        <v>727</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>31</v>
@@ -3391,7 +3186,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C8" s="15">
         <v>4</v>
@@ -3417,16 +3212,13 @@
       <c r="J8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>365</v>
-      </c>
       <c r="L8" s="17" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="17" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>36</v>
@@ -3437,7 +3229,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C9" s="15">
         <v>6</v>
@@ -3458,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>40</v>
@@ -3487,7 +3279,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C10" s="15">
         <v>4</v>
@@ -3499,32 +3291,32 @@
         <v>30</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>91</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>42</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="17" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>43</v>
@@ -3535,7 +3327,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C11" s="15">
         <v>10</v>
@@ -3547,32 +3339,32 @@
         <v>20</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>372</v>
+        <v>790</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>46</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="17" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>47</v>
@@ -3583,7 +3375,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C12" s="15">
         <v>4</v>
@@ -3595,7 +3387,7 @@
         <v>140</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>21</v>
@@ -3604,21 +3396,21 @@
         <v>82</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="17" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>49</v>
@@ -3629,7 +3421,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C13" s="15">
         <v>6</v>
@@ -3641,7 +3433,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>21</v>
@@ -3650,23 +3442,23 @@
         <v>82</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="17" t="s">
-        <v>764</v>
+        <v>729</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>51</v>
@@ -3677,7 +3469,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C14" s="15">
         <v>4</v>
@@ -3689,7 +3481,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>21</v>
@@ -3698,25 +3490,25 @@
         <v>82</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>765</v>
+        <v>730</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>53</v>
@@ -3727,7 +3519,7 @@
         <v>54</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C15" s="15">
         <v>6</v>
@@ -3739,7 +3531,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>21</v>
@@ -3748,23 +3540,23 @@
         <v>82</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="17" t="s">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>55</v>
@@ -3775,7 +3567,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C16" s="15">
         <v>10</v>
@@ -3787,30 +3579,30 @@
         <v>250</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>91</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="17" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>57</v>
@@ -3821,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C17" s="15">
         <v>4</v>
@@ -3833,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>21</v>
@@ -3842,23 +3634,23 @@
         <v>82</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="17" t="s">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>59</v>
@@ -3869,7 +3661,7 @@
         <v>60</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C18" s="15">
         <v>6</v>
@@ -3881,7 +3673,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>21</v>
@@ -3893,18 +3685,18 @@
         <v>34</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>577</v>
+        <v>543</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="17" t="s">
-        <v>769</v>
+        <v>734</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>61</v>
@@ -3915,7 +3707,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C19" s="15">
         <v>4</v>
@@ -3927,30 +3719,30 @@
         <v>20</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="15"/>
       <c r="O19" s="17" t="s">
-        <v>770</v>
+        <v>735</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>63</v>
@@ -3961,7 +3753,7 @@
         <v>64</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C20" s="15">
         <v>12</v>
@@ -3973,30 +3765,30 @@
         <v>120</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>98</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="15"/>
       <c r="O20" s="17" t="s">
-        <v>771</v>
+        <v>736</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>65</v>
@@ -4007,7 +3799,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C21" s="15">
         <v>20</v>
@@ -4019,30 +3811,30 @@
         <v>300</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>46</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="15"/>
       <c r="O21" s="17" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>67</v>
@@ -4050,10 +3842,10 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C22" s="15">
         <v>15</v>
@@ -4065,32 +3857,32 @@
         <v>135</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>68</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>581</v>
+        <v>547</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>582</v>
+        <v>548</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="17" t="s">
-        <v>773</v>
+        <v>738</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>69</v>
@@ -4101,7 +3893,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C23" s="22">
         <v>10</v>
@@ -4113,29 +3905,29 @@
         <v>50</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>71</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>583</v>
+        <v>549</v>
       </c>
       <c r="M23" s="24"/>
       <c r="O23" s="24" t="s">
-        <v>774</v>
+        <v>739</v>
       </c>
       <c r="P23" s="25" t="s">
         <v>72</v>
@@ -4146,7 +3938,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C24" s="22">
         <v>2</v>
@@ -4158,31 +3950,31 @@
         <v>30</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>75</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>586</v>
+        <v>552</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>76</v>
@@ -4193,7 +3985,7 @@
         <v>77</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C25" s="15">
         <v>6</v>
@@ -4205,31 +3997,31 @@
         <v>60</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>411</v>
+        <v>791</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>78</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>587</v>
+        <v>553</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>588</v>
+        <v>554</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>79</v>
@@ -4240,7 +4032,7 @@
         <v>80</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C26" s="15">
         <v>4</v>
@@ -4252,7 +4044,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>81</v>
@@ -4267,13 +4059,13 @@
         <v>84</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>85</v>
@@ -4284,7 +4076,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C27" s="15">
         <v>6</v>
@@ -4296,7 +4088,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>81</v>
@@ -4308,16 +4100,16 @@
         <v>87</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>88</v>
@@ -4328,7 +4120,7 @@
         <v>89</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C28" s="15">
         <v>4</v>
@@ -4352,16 +4144,16 @@
         <v>92</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>93</v>
@@ -4372,7 +4164,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C29" s="15">
         <v>4</v>
@@ -4384,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>75</v>
@@ -4399,13 +4191,13 @@
         <v>84</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>96</v>
@@ -4416,7 +4208,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C30" s="15">
         <v>4</v>
@@ -4428,7 +4220,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>75</v>
@@ -4443,16 +4235,16 @@
         <v>84</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>775</v>
+        <v>740</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>99</v>
@@ -4463,7 +4255,7 @@
         <v>100</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C31" s="15">
         <v>4</v>
@@ -4475,7 +4267,7 @@
         <v>35</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>75</v>
@@ -4487,16 +4279,16 @@
         <v>101</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>102</v>
@@ -4507,7 +4299,7 @@
         <v>103</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C32" s="15">
         <v>4</v>
@@ -4519,7 +4311,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>75</v>
@@ -4528,25 +4320,25 @@
         <v>82</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>104</v>
@@ -4557,7 +4349,7 @@
         <v>105</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C33" s="15">
         <v>6</v>
@@ -4569,28 +4361,28 @@
         <v>55</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>106</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>607</v>
+        <v>573</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>107</v>
@@ -4601,7 +4393,7 @@
         <v>108</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C34" s="15">
         <v>2</v>
@@ -4613,13 +4405,13 @@
         <v>8</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>109</v>
@@ -4628,13 +4420,13 @@
         <v>84</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>110</v>
@@ -4645,7 +4437,7 @@
         <v>111</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C35" s="15">
         <v>10</v>
@@ -4657,28 +4449,28 @@
         <v>250</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>109</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>112</v>
@@ -4689,7 +4481,7 @@
         <v>113</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C36" s="15">
         <v>2</v>
@@ -4701,7 +4493,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>75</v>
@@ -4716,13 +4508,13 @@
         <v>114</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>115</v>
@@ -4733,7 +4525,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C37" s="15">
         <v>3</v>
@@ -4745,7 +4537,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>75</v>
@@ -4760,13 +4552,13 @@
         <v>114</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>117</v>
@@ -4777,7 +4569,7 @@
         <v>118</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C38" s="15">
         <v>4</v>
@@ -4789,7 +4581,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>75</v>
@@ -4804,13 +4596,13 @@
         <v>119</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>120</v>
@@ -4821,7 +4613,7 @@
         <v>121</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C39" s="15">
         <v>6</v>
@@ -4833,28 +4625,28 @@
         <v>25</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>109</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>620</v>
+        <v>586</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>122</v>
@@ -4865,7 +4657,7 @@
         <v>123</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C40" s="15">
         <v>4</v>
@@ -4877,7 +4669,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>75</v>
@@ -4892,13 +4684,13 @@
         <v>84</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>124</v>
@@ -4909,7 +4701,7 @@
         <v>125</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C41" s="15">
         <v>1</v>
@@ -4921,7 +4713,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>90</v>
@@ -4930,19 +4722,19 @@
         <v>91</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>126</v>
@@ -4953,7 +4745,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C42" s="15">
         <v>4</v>
@@ -4965,7 +4757,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>128</v>
+        <v>792</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>75</v>
@@ -4974,30 +4766,30 @@
         <v>82</v>
       </c>
       <c r="I42" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="K42" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="O42" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="P42" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C43" s="15">
         <v>12</v>
@@ -5009,36 +4801,36 @@
         <v>20</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>128</v>
+        <v>792</v>
       </c>
       <c r="G43" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="H43" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="I43" s="15" t="s">
+      <c r="K43" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="P43" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="L43" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C44" s="15">
         <v>2</v>
@@ -5050,41 +4842,41 @@
         <v>20</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17" t="s">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C45" s="15">
         <v>6</v>
@@ -5096,41 +4888,41 @@
         <v>30</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C46" s="15">
         <v>4</v>
@@ -5142,41 +4934,41 @@
         <v>20</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17" t="s">
-        <v>776</v>
+        <v>741</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C47" s="15">
         <v>8</v>
@@ -5188,41 +4980,41 @@
         <v>15</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="J47" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="J47" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="K47" s="17" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17" t="s">
-        <v>777</v>
+        <v>742</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C48" s="15">
         <v>3</v>
@@ -5234,41 +5026,41 @@
         <v>40</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C49" s="15">
         <v>8</v>
@@ -5280,41 +5072,41 @@
         <v>20</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G49" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H49" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>156</v>
-      </c>
       <c r="J49" s="15" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17" t="s">
-        <v>759</v>
+        <v>724</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C50" s="15">
         <v>15</v>
@@ -5326,41 +5118,41 @@
         <v>20</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G50" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H50" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="J50" s="15" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C51" s="15">
         <v>6</v>
@@ -5372,41 +5164,41 @@
         <v>10</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I51" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J51" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="J51" s="15" t="s">
-        <v>164</v>
-      </c>
       <c r="K51" s="17" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>637</v>
+        <v>603</v>
       </c>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C52" s="15">
         <v>4</v>
@@ -5418,41 +5210,41 @@
         <v>10</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17" t="s">
-        <v>778</v>
+        <v>743</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C53" s="15">
         <v>2</v>
@@ -5464,41 +5256,41 @@
         <v>30</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C54" s="15">
         <v>3</v>
@@ -5510,41 +5302,41 @@
         <v>30</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17" t="s">
-        <v>779</v>
+        <v>744</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C55" s="15">
         <v>3</v>
@@ -5556,41 +5348,41 @@
         <v>20</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="G55" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="I55" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>472</v>
+        <v>766</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>753</v>
+        <v>719</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17" t="s">
-        <v>780</v>
+        <v>745</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C56" s="15">
         <v>2</v>
@@ -5602,41 +5394,41 @@
         <v>20</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J56" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>473</v>
+        <v>767</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17" t="s">
-        <v>781</v>
+        <v>746</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C57" s="15">
         <v>4</v>
@@ -5648,41 +5440,41 @@
         <v>30</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>754</v>
+        <v>442</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>644</v>
+        <v>610</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17" t="s">
-        <v>782</v>
+        <v>747</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C58" s="21">
         <v>6</v>
@@ -5694,41 +5486,41 @@
         <v>40</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J58" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17" t="s">
-        <v>783</v>
+        <v>748</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C59" s="15">
         <v>3</v>
@@ -5740,41 +5532,41 @@
         <v>20</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>479</v>
+        <v>768</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>646</v>
+        <v>612</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C60" s="15">
         <v>4</v>
@@ -5786,41 +5578,41 @@
         <v>30</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J60" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>480</v>
+        <v>769</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>648</v>
+        <v>614</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C61" s="15">
         <v>20</v>
@@ -5832,41 +5624,41 @@
         <v>10</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>482</v>
+        <v>770</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>650</v>
+        <v>616</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C62" s="15">
         <v>5</v>
@@ -5878,41 +5670,41 @@
         <v>45</v>
       </c>
       <c r="F62" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="G62" s="15" t="s">
-        <v>483</v>
-      </c>
       <c r="H62" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>485</v>
+        <v>771</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17" t="s">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C63" s="11">
         <v>5</v>
@@ -5924,43 +5716,43 @@
         <v>30</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>488</v>
+        <v>772</v>
       </c>
       <c r="L63" s="20" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="20" t="s">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C64" s="11">
         <v>12</v>
@@ -5972,43 +5764,43 @@
         <v>30</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>492</v>
+        <v>773</v>
       </c>
       <c r="L64" s="20" t="s">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="20" t="s">
-        <v>658</v>
+        <v>624</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C65" s="11">
         <v>6</v>
@@ -6023,42 +5815,42 @@
         <v>38</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>45</v>
       </c>
       <c r="J65" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="L65" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="O65" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="P65" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="L65" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="O65" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C66" s="11">
         <v>4</v>
@@ -6070,43 +5862,43 @@
         <v>30</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>495</v>
+        <v>775</v>
       </c>
       <c r="L66" s="20" t="s">
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>662</v>
+        <v>628</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="20" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C67" s="11">
         <v>4</v>
@@ -6118,13 +5910,13 @@
         <v>25</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>45</v>
@@ -6133,26 +5925,26 @@
         <v>25</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="20" t="s">
-        <v>664</v>
+        <v>630</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C68" s="11">
         <v>4</v>
@@ -6164,41 +5956,41 @@
         <v>10</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>45</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>665</v>
+        <v>631</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="20" t="s">
-        <v>786</v>
+        <v>751</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C69" s="11">
         <v>4</v>
@@ -6210,10 +6002,10 @@
         <v>15</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>82</v>
@@ -6225,26 +6017,26 @@
         <v>16</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="20" t="s">
-        <v>787</v>
+        <v>752</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C70" s="11">
         <v>12</v>
@@ -6256,41 +6048,41 @@
         <v>60</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="L70" s="20" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="20" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C71" s="11">
         <v>10</v>
@@ -6302,41 +6094,41 @@
         <v>60</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>503</v>
+        <v>241</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="L71" s="20" t="s">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11" t="s">
-        <v>788</v>
+        <v>753</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C72" s="11">
         <v>10</v>
@@ -6348,41 +6140,41 @@
         <v>90</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="L72" s="20" t="s">
-        <v>670</v>
+        <v>636</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="20" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C73" s="8">
         <v>2</v>
@@ -6394,13 +6186,13 @@
         <v>30</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>45</v>
@@ -6409,27 +6201,27 @@
         <v>25</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="M73" s="17" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
       <c r="O73" s="17" t="s">
-        <v>790</v>
+        <v>755</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C74" s="8">
         <v>10</v>
@@ -6441,39 +6233,39 @@
         <v>120</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>791</v>
+        <v>756</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C75" s="8">
         <v>6</v>
@@ -6485,39 +6277,39 @@
         <v>60</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>91</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>792</v>
+        <v>757</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C76" s="8">
         <v>8</v>
@@ -6529,45 +6321,45 @@
         <v>30</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="L76" s="17" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="M76" s="17" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C77" s="8">
         <v>4</v>
@@ -6579,42 +6371,42 @@
         <v>15</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>793</v>
+        <v>758</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C78" s="8">
         <v>6</v>
@@ -6626,42 +6418,42 @@
         <v>15</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>680</v>
+        <v>646</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="O78" s="17" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C79" s="8">
         <v>8</v>
@@ -6673,42 +6465,42 @@
         <v>180</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>91</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>682</v>
+        <v>648</v>
       </c>
       <c r="O79" s="17" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C80" s="8">
         <v>6</v>
@@ -6720,42 +6512,42 @@
         <v>90</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>91</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>683</v>
+        <v>649</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>684</v>
+        <v>650</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C81" s="8">
         <v>4</v>
@@ -6767,42 +6559,42 @@
         <v>20</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
       <c r="M81" s="17" t="s">
-        <v>686</v>
+        <v>652</v>
       </c>
       <c r="O81" s="10" t="s">
-        <v>797</v>
+        <v>762</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C82" s="15">
         <v>4</v>
@@ -6814,45 +6606,45 @@
         <v>30</v>
       </c>
       <c r="F82" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="I82" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="J82" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="K82" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="L82" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="I82" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="J82" s="15" t="s">
+      <c r="M82" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="O82" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="P82" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="K82" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="L82" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="M82" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="N82" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="O82" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="P82" s="15" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C83" s="15">
         <v>2</v>
@@ -6864,45 +6656,45 @@
         <v>20</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>250</v>
+        <v>479</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>690</v>
+        <v>656</v>
       </c>
       <c r="M83" s="17" t="s">
-        <v>691</v>
+        <v>657</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>692</v>
+        <v>658</v>
       </c>
       <c r="O83" s="17" t="s">
-        <v>756</v>
+        <v>721</v>
       </c>
       <c r="P83" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C84" s="15">
         <v>2</v>
@@ -6914,42 +6706,42 @@
         <v>10</v>
       </c>
       <c r="F84" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H84" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G84" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="I84" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="P84" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="J84" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="K84" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="L84" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="M84" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="O84" s="17" t="s">
-        <v>694</v>
-      </c>
-      <c r="P84" s="15" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C85" s="15">
         <v>2</v>
@@ -6961,45 +6753,45 @@
         <v>25</v>
       </c>
       <c r="F85" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H85" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G85" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="I85" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>261</v>
+        <v>484</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
       <c r="M85" s="17" t="s">
-        <v>696</v>
+        <v>662</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="O85" s="17" t="s">
-        <v>697</v>
+        <v>663</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C86" s="15">
         <v>1</v>
@@ -7011,45 +6803,45 @@
         <v>10</v>
       </c>
       <c r="F86" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H86" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="I86" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="K86" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="M86" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="O86" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="P86" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="J86" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="K86" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="L86" s="17" t="s">
-        <v>698</v>
-      </c>
-      <c r="M86" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="N86" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="O86" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="P86" s="15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C87" s="15">
         <v>2</v>
@@ -7061,45 +6853,45 @@
         <v>30</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>268</v>
+        <v>486</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>702</v>
+        <v>668</v>
       </c>
       <c r="M87" s="17" t="s">
-        <v>703</v>
+        <v>669</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
       <c r="O87" s="17" t="s">
-        <v>705</v>
+        <v>671</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C88" s="15">
         <v>8</v>
@@ -7111,45 +6903,45 @@
         <v>90</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>271</v>
+        <v>488</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="M88" s="17" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="O88" s="17" t="s">
-        <v>708</v>
+        <v>674</v>
       </c>
       <c r="P88" s="15" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C89" s="15">
         <v>6</v>
@@ -7161,45 +6953,45 @@
         <v>25</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G89" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I89" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="H89" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="J89" s="15" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>277</v>
+        <v>776</v>
       </c>
       <c r="L89" s="17" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="M89" s="17" t="s">
-        <v>710</v>
+        <v>676</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
       <c r="O89" s="17" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C90" s="15">
         <v>4</v>
@@ -7211,42 +7003,42 @@
         <v>15</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>281</v>
+        <v>777</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="M90" s="17" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="O90" s="17" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="P90" s="15" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C91" s="15">
         <v>4</v>
@@ -7258,42 +7050,42 @@
         <v>120</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G91" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="I91" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="H91" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="I91" s="15" t="s">
+      <c r="J91" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="M91" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="O91" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="P91" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="J91" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="K91" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="L91" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="M91" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="O91" s="17" t="s">
-        <v>761</v>
-      </c>
-      <c r="P91" s="15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C92" s="15">
         <v>6</v>
@@ -7305,45 +7097,45 @@
         <v>30</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>288</v>
+        <v>779</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="M92" s="15" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>716</v>
+        <v>682</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>798</v>
+        <v>763</v>
       </c>
       <c r="P92" s="15" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C93" s="15">
         <v>4</v>
@@ -7355,45 +7147,45 @@
         <v>20</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G93" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="I93" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="H93" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="I93" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="J93" s="15" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="K93" s="17" t="s">
-        <v>293</v>
+        <v>780</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="M93" s="17" t="s">
-        <v>717</v>
+        <v>683</v>
       </c>
       <c r="N93" s="17" t="s">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="O93" s="17" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C94" s="15">
         <v>4</v>
@@ -7405,45 +7197,45 @@
         <v>30</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>297</v>
+        <v>781</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>719</v>
+        <v>685</v>
       </c>
       <c r="M94" s="17" t="s">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="N94" s="17" t="s">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="O94" s="17" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C95" s="15">
         <v>4</v>
@@ -7455,45 +7247,45 @@
         <v>20</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>301</v>
+        <v>782</v>
       </c>
       <c r="L95" s="17" t="s">
-        <v>723</v>
+        <v>689</v>
       </c>
       <c r="M95" s="17" t="s">
-        <v>724</v>
+        <v>690</v>
       </c>
       <c r="N95" s="17" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="O95" s="17" t="s">
-        <v>726</v>
+        <v>692</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C96" s="15">
         <v>4</v>
@@ -7505,42 +7297,42 @@
         <v>15</v>
       </c>
       <c r="F96" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H96" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G96" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="I96" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>304</v>
+        <v>783</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>727</v>
+        <v>693</v>
       </c>
       <c r="M96" s="17" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
       <c r="O96" s="17" t="s">
-        <v>758</v>
+        <v>723</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C97" s="15">
         <v>4</v>
@@ -7552,45 +7344,45 @@
         <v>15</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="J97" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K97" s="17" t="s">
-        <v>309</v>
+        <v>784</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="M97" s="17" t="s">
-        <v>729</v>
+        <v>695</v>
       </c>
       <c r="N97" s="17" t="s">
-        <v>730</v>
+        <v>696</v>
       </c>
       <c r="O97" s="17" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
       <c r="P97" s="15" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C98" s="15">
         <v>8</v>
@@ -7602,45 +7394,45 @@
         <v>15</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="I98" s="15" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>315</v>
+        <v>785</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="M98" s="17" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="N98" s="17" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="O98" s="17" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="P98" s="15" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C99" s="15">
         <v>4</v>
@@ -7652,45 +7444,45 @@
         <v>15</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>319</v>
+        <v>786</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="M99" s="17" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="N99" s="17" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
       <c r="O99" s="17" t="s">
-        <v>738</v>
+        <v>704</v>
       </c>
       <c r="P99" s="15" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C100" s="15">
         <v>8</v>
@@ -7702,45 +7494,45 @@
         <v>10</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="J100" s="15" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>323</v>
+        <v>787</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>739</v>
+        <v>705</v>
       </c>
       <c r="M100" s="17" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="N100" s="17" t="s">
-        <v>741</v>
+        <v>707</v>
       </c>
       <c r="O100" s="17" t="s">
-        <v>742</v>
+        <v>708</v>
       </c>
       <c r="P100" s="15" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C101" s="15">
         <v>8</v>
@@ -7752,34 +7544,34 @@
         <v>60</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="I101" s="15" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="J101" s="15" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>329</v>
+        <v>788</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="M101" s="17" t="s">
-        <v>743</v>
+        <v>709</v>
       </c>
       <c r="O101" s="17" t="s">
-        <v>744</v>
+        <v>710</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/recipeData/CombineRecipes.xlsx
+++ b/recipeData/CombineRecipes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\YL\MTech\KE-CBR\project\MTech-KE-CBR\recipeData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemonic74\git\trunk\recipeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2829,7 +2829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -2838,6 +2838,7 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="17" customWidth="1"/>
@@ -7783,18 +7784,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7816,14 +7817,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7837,4 +7830,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/recipeData/CombineRecipes.xlsx
+++ b/recipeData/CombineRecipes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="792">
   <si>
     <t>Name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Capsicum stuffed with rice salad recipe</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
     <t>Baking</t>
   </si>
   <si>
@@ -809,9 +806,6 @@
     <t>beef steak and chips</t>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>http://www.bbcgoodfood.com/recipes/1661644/steak-and-chips</t>
   </si>
   <si>
@@ -1061,9 +1055,6 @@
     <t>Asian; Indonesian; Nyonya; Peranakan</t>
   </si>
   <si>
-    <t>Main; Soup</t>
-  </si>
-  <si>
     <t>Fish; Seafood</t>
   </si>
   <si>
@@ -1373,9 +1364,6 @@
     <t>boneless skinless chicken breast; vegetable oil; minced garlic; fresh ginger; onion; cumin seeds; green cardamom; ripe tomato; turmeric; red pepper (cayenne); salt; black pepper</t>
   </si>
   <si>
-    <t>Main; Breakfast; Sides</t>
-  </si>
-  <si>
     <t>wheat flour (or stone ground drum-wheat also known as “Atta”); water; salt</t>
   </si>
   <si>
@@ -2403,6 +2391,15 @@
   </si>
   <si>
     <t>Chinese</t>
+  </si>
+  <si>
+    <t>main course; Breakfast; Sides</t>
+  </si>
+  <si>
+    <t>main course; Snack</t>
+  </si>
+  <si>
+    <t>main course; Soup</t>
   </si>
 </sst>
 </file>
@@ -2829,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2880,7 +2877,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
@@ -2903,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
@@ -2915,30 +2912,30 @@
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>17</v>
@@ -2949,7 +2946,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C3" s="15">
         <v>18</v>
@@ -2961,32 +2958,32 @@
         <v>135</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="K3" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>332</v>
-      </c>
       <c r="L3" s="17" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>19</v>
@@ -2997,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C4" s="15">
         <v>4</v>
@@ -3009,41 +3006,41 @@
         <v>25</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>21</v>
+        <v>331</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C5" s="15">
         <v>6</v>
@@ -3055,43 +3052,43 @@
         <v>30</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>21</v>
+        <v>333</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C6" s="15">
         <v>10</v>
@@ -3103,43 +3100,43 @@
         <v>30</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>21</v>
+        <v>375</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>339</v>
-      </c>
       <c r="L6" s="17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="17" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C7" s="15">
         <v>10</v>
@@ -3151,43 +3148,43 @@
         <v>20</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C8" s="15">
         <v>4</v>
@@ -3199,38 +3196,38 @@
         <v>10</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="L8" s="17" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="17" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="15">
         <v>6</v>
@@ -3242,45 +3239,45 @@
         <v>25</v>
       </c>
       <c r="F9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C10" s="15">
         <v>4</v>
@@ -3292,43 +3289,43 @@
         <v>30</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>345</v>
+        <v>791</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C11" s="15">
         <v>10</v>
@@ -3340,43 +3337,43 @@
         <v>20</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>348</v>
-      </c>
       <c r="H11" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C12" s="15">
         <v>4</v>
@@ -3388,41 +3385,41 @@
         <v>140</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>21</v>
+        <v>347</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="17" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C13" s="15">
         <v>6</v>
@@ -3434,43 +3431,43 @@
         <v>50</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>21</v>
+        <v>350</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="17" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C14" s="15">
         <v>4</v>
@@ -3482,45 +3479,45 @@
         <v>20</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>356</v>
-      </c>
       <c r="K14" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C15" s="15">
         <v>6</v>
@@ -3532,43 +3529,43 @@
         <v>30</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>21</v>
+        <v>355</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="17" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C16" s="15">
         <v>10</v>
@@ -3580,41 +3577,41 @@
         <v>250</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="17" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C17" s="15">
         <v>4</v>
@@ -3626,43 +3623,43 @@
         <v>10</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>21</v>
+        <v>359</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="17" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C18" s="15">
         <v>6</v>
@@ -3674,41 +3671,41 @@
         <v>55</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>21</v>
+        <v>361</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="17" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C19" s="15">
         <v>4</v>
@@ -3720,41 +3717,41 @@
         <v>20</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>21</v>
+        <v>355</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="15"/>
       <c r="O19" s="17" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C20" s="15">
         <v>12</v>
@@ -3766,41 +3763,41 @@
         <v>120</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>21</v>
+        <v>366</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="15"/>
       <c r="O20" s="17" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C21" s="15">
         <v>20</v>
@@ -3812,41 +3809,41 @@
         <v>300</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="15"/>
       <c r="O21" s="17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C22" s="15">
         <v>15</v>
@@ -3858,43 +3855,43 @@
         <v>135</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>348</v>
+        <v>790</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="17" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C23" s="22">
         <v>10</v>
@@ -3906,40 +3903,40 @@
         <v>50</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M23" s="24"/>
       <c r="O23" s="24" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C24" s="22">
         <v>2</v>
@@ -3951,42 +3948,42 @@
         <v>30</v>
       </c>
       <c r="F24" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="K24" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="P24" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="O24" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="P24" s="25" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C25" s="15">
         <v>6</v>
@@ -3998,42 +3995,42 @@
         <v>60</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="G25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="P25" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C26" s="15">
         <v>4</v>
@@ -4045,39 +4042,39 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="J26" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="K26" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="P26" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C27" s="15">
         <v>6</v>
@@ -4089,39 +4086,39 @@
         <v>20</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="I27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="P27" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C28" s="15">
         <v>4</v>
@@ -4133,39 +4130,39 @@
         <v>45</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="J28" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="P28" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C29" s="15">
         <v>4</v>
@@ -4177,39 +4174,39 @@
         <v>5</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="P29" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C30" s="15">
         <v>4</v>
@@ -4221,42 +4218,42 @@
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="P30" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="O30" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="P30" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C31" s="15">
         <v>4</v>
@@ -4268,39 +4265,39 @@
         <v>35</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="P31" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C32" s="15">
         <v>4</v>
@@ -4312,45 +4309,45 @@
         <v>6</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C33" s="15">
         <v>6</v>
@@ -4362,39 +4359,39 @@
         <v>55</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J33" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="P33" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C34" s="15">
         <v>2</v>
@@ -4406,39 +4403,39 @@
         <v>8</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I34" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="P34" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="P34" s="15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C35" s="15">
         <v>10</v>
@@ -4450,39 +4447,39 @@
         <v>250</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C36" s="15">
         <v>2</v>
@@ -4494,39 +4491,39 @@
         <v>10</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="P36" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C37" s="15">
         <v>3</v>
@@ -4538,39 +4535,39 @@
         <v>12</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C38" s="15">
         <v>4</v>
@@ -4582,39 +4579,39 @@
         <v>10</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J38" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="P38" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C39" s="15">
         <v>6</v>
@@ -4626,39 +4623,39 @@
         <v>25</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C40" s="15">
         <v>4</v>
@@ -4670,39 +4667,39 @@
         <v>8</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C41" s="15">
         <v>1</v>
@@ -4714,39 +4711,39 @@
         <v>30</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="I41" s="15" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C42" s="15">
         <v>4</v>
@@ -4758,39 +4755,39 @@
         <v>15</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="K42" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="O42" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="P42" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C43" s="15">
         <v>12</v>
@@ -4802,36 +4799,36 @@
         <v>20</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G43" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H43" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="I43" s="15" t="s">
+      <c r="K43" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="P43" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="L43" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C44" s="15">
         <v>2</v>
@@ -4843,41 +4840,41 @@
         <v>20</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C45" s="15">
         <v>6</v>
@@ -4889,41 +4886,41 @@
         <v>30</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="I45" s="15" t="s">
-        <v>140</v>
-      </c>
       <c r="J45" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C46" s="15">
         <v>4</v>
@@ -4935,41 +4932,41 @@
         <v>20</v>
       </c>
       <c r="F46" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="G46" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>425</v>
-      </c>
       <c r="L46" s="17" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C47" s="15">
         <v>8</v>
@@ -4981,41 +4978,41 @@
         <v>15</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="J47" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J47" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="K47" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C48" s="15">
         <v>3</v>
@@ -5027,41 +5024,41 @@
         <v>40</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C49" s="15">
         <v>8</v>
@@ -5073,41 +5070,41 @@
         <v>20</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G49" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H49" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>155</v>
-      </c>
       <c r="J49" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C50" s="15">
         <v>15</v>
@@ -5119,41 +5116,41 @@
         <v>20</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G50" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="H50" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="J50" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C51" s="15">
         <v>6</v>
@@ -5165,41 +5162,41 @@
         <v>10</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I51" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="J51" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="K51" s="17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C52" s="15">
         <v>4</v>
@@ -5211,41 +5208,41 @@
         <v>10</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C53" s="15">
         <v>2</v>
@@ -5257,41 +5254,41 @@
         <v>30</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C54" s="15">
         <v>3</v>
@@ -5303,41 +5300,41 @@
         <v>30</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>21</v>
+        <v>437</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C55" s="15">
         <v>3</v>
@@ -5349,41 +5346,41 @@
         <v>20</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G55" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>175</v>
-      </c>
       <c r="I55" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C56" s="15">
         <v>2</v>
@@ -5395,41 +5392,41 @@
         <v>20</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J56" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C57" s="15">
         <v>4</v>
@@ -5441,41 +5438,41 @@
         <v>30</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C58" s="21">
         <v>6</v>
@@ -5487,41 +5484,41 @@
         <v>40</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C59" s="15">
         <v>3</v>
@@ -5533,41 +5530,41 @@
         <v>20</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>21</v>
+        <v>442</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C60" s="15">
         <v>4</v>
@@ -5579,41 +5576,41 @@
         <v>30</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C61" s="15">
         <v>20</v>
@@ -5625,41 +5622,41 @@
         <v>10</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>449</v>
+        <v>789</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C62" s="15">
         <v>5</v>
@@ -5671,41 +5668,41 @@
         <v>45</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C63" s="11">
         <v>5</v>
@@ -5717,43 +5714,43 @@
         <v>30</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="L63" s="20" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="20" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C64" s="11">
         <v>12</v>
@@ -5765,43 +5762,43 @@
         <v>30</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="L64" s="20" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="20" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C65" s="11">
         <v>6</v>
@@ -5813,45 +5810,45 @@
         <v>45</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J65" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="L65" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="O65" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="P65" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>774</v>
-      </c>
-      <c r="L65" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="O65" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C66" s="11">
         <v>4</v>
@@ -5863,43 +5860,43 @@
         <v>30</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L66" s="20" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="20" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C67" s="11">
         <v>4</v>
@@ -5911,41 +5908,41 @@
         <v>25</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="20" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C68" s="11">
         <v>4</v>
@@ -5957,41 +5954,41 @@
         <v>10</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="20" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C69" s="11">
         <v>4</v>
@@ -6003,41 +6000,41 @@
         <v>15</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="20" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C70" s="11">
         <v>12</v>
@@ -6049,41 +6046,41 @@
         <v>60</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L70" s="20" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="20" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C71" s="11">
         <v>10</v>
@@ -6095,41 +6092,41 @@
         <v>60</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L71" s="20" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C72" s="11">
         <v>10</v>
@@ -6141,41 +6138,41 @@
         <v>90</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L72" s="20" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="20" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C73" s="8">
         <v>2</v>
@@ -6187,42 +6184,42 @@
         <v>30</v>
       </c>
       <c r="F73" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="O73" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="P73" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="O73" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="P73" s="9" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C74" s="8">
         <v>10</v>
@@ -6234,39 +6231,39 @@
         <v>120</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C75" s="8">
         <v>6</v>
@@ -6278,39 +6275,39 @@
         <v>60</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C76" s="8">
         <v>8</v>
@@ -6322,45 +6319,45 @@
         <v>30</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L76" s="17" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M76" s="17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C77" s="8">
         <v>4</v>
@@ -6372,42 +6369,42 @@
         <v>15</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H77" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="P77" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="L77" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C78" s="8">
         <v>6</v>
@@ -6419,42 +6416,42 @@
         <v>15</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="O78" s="17" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C79" s="8">
         <v>8</v>
@@ -6466,42 +6463,42 @@
         <v>180</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O79" s="17" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C80" s="8">
         <v>6</v>
@@ -6513,42 +6510,42 @@
         <v>90</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C81" s="8">
         <v>4</v>
@@ -6560,42 +6557,42 @@
         <v>20</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J81" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="O81" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="P81" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="L81" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="M81" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="O81" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C82" s="15">
         <v>4</v>
@@ -6607,45 +6604,45 @@
         <v>30</v>
       </c>
       <c r="F82" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="H82" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="I82" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="J82" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="I82" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="J82" s="15" t="s">
+      <c r="K82" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="L82" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="K82" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="L82" s="15" t="s">
+      <c r="M82" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="O82" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="P82" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="M82" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="N82" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="O82" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="P82" s="15" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C83" s="15">
         <v>2</v>
@@ -6657,45 +6654,45 @@
         <v>20</v>
       </c>
       <c r="F83" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="H83" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M83" s="17" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="O83" s="17" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="P83" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C84" s="15">
         <v>2</v>
@@ -6707,42 +6704,42 @@
         <v>10</v>
       </c>
       <c r="F84" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="H84" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="H84" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="I84" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J84" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="J84" s="15" t="s">
+      <c r="K84" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="L84" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="K84" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="L84" s="15" t="s">
+      <c r="M84" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="P84" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="M84" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="O84" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="P84" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C85" s="15">
         <v>2</v>
@@ -6754,45 +6751,45 @@
         <v>25</v>
       </c>
       <c r="F85" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G85" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="H85" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="H85" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="I85" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="J85" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="K85" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="M85" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="N85" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O85" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="P85" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="K85" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="L85" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="M85" s="17" t="s">
-        <v>662</v>
-      </c>
-      <c r="N85" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="O85" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="P85" s="15" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C86" s="15">
         <v>1</v>
@@ -6804,45 +6801,45 @@
         <v>10</v>
       </c>
       <c r="F86" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="H86" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="H86" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="I86" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="M86" s="17" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="O86" s="17" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C87" s="15">
         <v>2</v>
@@ -6854,45 +6851,45 @@
         <v>30</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="M87" s="17" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="O87" s="17" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C88" s="15">
         <v>8</v>
@@ -6904,45 +6901,45 @@
         <v>90</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="M88" s="17" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="O88" s="17" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P88" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C89" s="15">
         <v>6</v>
@@ -6954,45 +6951,45 @@
         <v>25</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H89" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J89" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="K89" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="L89" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="M89" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="N89" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="O89" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="P89" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="J89" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="K89" s="17" t="s">
-        <v>776</v>
-      </c>
-      <c r="L89" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="M89" s="17" t="s">
-        <v>676</v>
-      </c>
-      <c r="N89" s="17" t="s">
-        <v>677</v>
-      </c>
-      <c r="O89" s="17" t="s">
-        <v>678</v>
-      </c>
-      <c r="P89" s="15" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C90" s="15">
         <v>4</v>
@@ -7004,42 +7001,42 @@
         <v>15</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M90" s="17" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="O90" s="17" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="P90" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C91" s="15">
         <v>4</v>
@@ -7051,42 +7048,42 @@
         <v>120</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="O91" s="17" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="P91" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C92" s="15">
         <v>6</v>
@@ -7098,45 +7095,45 @@
         <v>30</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="M92" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P92" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C93" s="15">
         <v>4</v>
@@ -7148,45 +7145,45 @@
         <v>20</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J93" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="L93" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M93" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="N93" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="O93" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="P93" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="L93" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="M93" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="N93" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="O93" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="P93" s="15" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C94" s="15">
         <v>4</v>
@@ -7198,45 +7195,45 @@
         <v>30</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="M94" s="17" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="N94" s="17" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="O94" s="17" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C95" s="15">
         <v>4</v>
@@ -7248,45 +7245,45 @@
         <v>20</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="L95" s="17" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M95" s="17" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N95" s="17" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="O95" s="17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C96" s="15">
         <v>4</v>
@@ -7298,42 +7295,42 @@
         <v>15</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H96" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J96" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="I96" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="J96" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="K96" s="17" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="M96" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="O96" s="17" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C97" s="15">
         <v>4</v>
@@ -7345,45 +7342,45 @@
         <v>15</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H97" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="L97" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="M97" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="N97" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="O97" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="P97" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="J97" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>784</v>
-      </c>
-      <c r="L97" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="M97" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="N97" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="O97" s="17" t="s">
-        <v>697</v>
-      </c>
-      <c r="P97" s="15" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C98" s="15">
         <v>8</v>
@@ -7395,45 +7392,45 @@
         <v>15</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G98" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="L98" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="H98" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="I98" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="J98" s="15" t="s">
+      <c r="M98" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="N98" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="O98" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="P98" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>785</v>
-      </c>
-      <c r="L98" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="M98" s="17" t="s">
-        <v>698</v>
-      </c>
-      <c r="N98" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="O98" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="P98" s="15" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C99" s="15">
         <v>4</v>
@@ -7445,45 +7442,45 @@
         <v>15</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M99" s="17" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="N99" s="17" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="O99" s="17" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="P99" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C100" s="15">
         <v>8</v>
@@ -7495,45 +7492,45 @@
         <v>10</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J100" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="M100" s="17" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="N100" s="17" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="O100" s="17" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="P100" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C101" s="15">
         <v>8</v>
@@ -7545,34 +7542,34 @@
         <v>60</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H101" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J101" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="I101" s="15" t="s">
+      <c r="K101" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="L101" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="M101" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="O101" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="P101" s="15" t="s">
         <v>307</v>
-      </c>
-      <c r="J101" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="K101" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="L101" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="M101" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="O101" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="P101" s="15" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/recipeData/CombineRecipes.xlsx
+++ b/recipeData/CombineRecipes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemonic74\git\trunk\recipeData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\YL\MTech\KE-CBR\project\MTech-KE-CBR\recipeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,9 +305,6 @@
     <t>http://www.hungrygowhere.com/recipe/lotus-root-soup-recipe/00803101/</t>
   </si>
   <si>
-    <t>Clams in Chinese rice wine, ginger and chili</t>
-  </si>
-  <si>
     <t>frying/deep frying</t>
   </si>
   <si>
@@ -2400,6 +2397,9 @@
   </si>
   <si>
     <t>main course; Soup</t>
+  </si>
+  <si>
+    <t>Clams in Chinese rice wine ginger and chili</t>
   </si>
 </sst>
 </file>
@@ -2826,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2900,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
@@ -2912,30 +2912,30 @@
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>17</v>
@@ -2946,7 +2946,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="15">
         <v>18</v>
@@ -2958,32 +2958,32 @@
         <v>135</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>327</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>81</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>330</v>
-      </c>
       <c r="L3" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>506</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>507</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>19</v>
@@ -2994,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="15">
         <v>4</v>
@@ -3006,30 +3006,30 @@
         <v>25</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>22</v>
@@ -3040,7 +3040,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="15">
         <v>6</v>
@@ -3052,7 +3052,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>74</v>
@@ -3061,23 +3061,23 @@
         <v>81</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L5" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>25</v>
@@ -3088,7 +3088,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="15">
         <v>10</v>
@@ -3100,7 +3100,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>74</v>
@@ -3109,23 +3109,23 @@
         <v>81</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>337</v>
-      </c>
       <c r="L6" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>513</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>514</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>27</v>
@@ -3136,7 +3136,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" s="15">
         <v>10</v>
@@ -3157,23 +3157,23 @@
         <v>90</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L7" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="M7" s="17" t="s">
         <v>516</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>517</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>30</v>
@@ -3184,7 +3184,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="15">
         <v>4</v>
@@ -3211,12 +3211,12 @@
         <v>34</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>35</v>
@@ -3227,7 +3227,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="15">
         <v>6</v>
@@ -3248,25 +3248,25 @@
         <v>81</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L9" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="M9" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>522</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>523</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>39</v>
@@ -3277,7 +3277,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="15">
         <v>4</v>
@@ -3289,32 +3289,32 @@
         <v>30</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>42</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C11" s="15">
         <v>10</v>
@@ -3337,32 +3337,32 @@
         <v>20</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>81</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L11" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>526</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>527</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>46</v>
@@ -3373,7 +3373,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" s="15">
         <v>4</v>
@@ -3385,7 +3385,7 @@
         <v>140</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>74</v>
@@ -3394,21 +3394,21 @@
         <v>81</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>48</v>
@@ -3419,7 +3419,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="15">
         <v>6</v>
@@ -3431,7 +3431,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>74</v>
@@ -3440,23 +3440,23 @@
         <v>81</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L13" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>530</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>531</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>50</v>
@@ -3467,7 +3467,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="15">
         <v>4</v>
@@ -3479,7 +3479,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>74</v>
@@ -3488,25 +3488,25 @@
         <v>81</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L14" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="M14" s="17" t="s">
-        <v>533</v>
-      </c>
       <c r="N14" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>52</v>
@@ -3517,7 +3517,7 @@
         <v>53</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C15" s="15">
         <v>6</v>
@@ -3529,7 +3529,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>74</v>
@@ -3538,23 +3538,23 @@
         <v>81</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L15" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="M15" s="17" t="s">
         <v>534</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>535</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>54</v>
@@ -3565,7 +3565,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="15">
         <v>10</v>
@@ -3577,30 +3577,30 @@
         <v>250</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>90</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>56</v>
@@ -3611,7 +3611,7 @@
         <v>57</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" s="15">
         <v>4</v>
@@ -3623,7 +3623,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>74</v>
@@ -3632,23 +3632,23 @@
         <v>81</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L17" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>537</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>538</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>58</v>
@@ -3659,7 +3659,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C18" s="15">
         <v>6</v>
@@ -3671,7 +3671,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>74</v>
@@ -3683,18 +3683,18 @@
         <v>33</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>60</v>
@@ -3705,7 +3705,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C19" s="15">
         <v>4</v>
@@ -3717,30 +3717,30 @@
         <v>20</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="15"/>
       <c r="O19" s="17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>62</v>
@@ -3751,7 +3751,7 @@
         <v>63</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="15">
         <v>12</v>
@@ -3763,30 +3763,30 @@
         <v>120</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="15"/>
       <c r="O20" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>64</v>
@@ -3797,7 +3797,7 @@
         <v>65</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C21" s="15">
         <v>20</v>
@@ -3809,30 +3809,30 @@
         <v>300</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>370</v>
-      </c>
       <c r="I21" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="15"/>
       <c r="O21" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>66</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C22" s="15">
         <v>15</v>
@@ -3855,32 +3855,32 @@
         <v>135</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>81</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>67</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L22" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="M22" s="17" t="s">
         <v>543</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>544</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>68</v>
@@ -3891,7 +3891,7 @@
         <v>69</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C23" s="22">
         <v>10</v>
@@ -3903,29 +3903,29 @@
         <v>50</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>70</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M23" s="24"/>
       <c r="O23" s="24" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P23" s="25" t="s">
         <v>71</v>
@@ -3936,7 +3936,7 @@
         <v>73</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" s="22">
         <v>2</v>
@@ -3948,31 +3948,31 @@
         <v>30</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H24" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="I24" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="J24" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="J24" s="22" t="s">
-        <v>381</v>
-      </c>
       <c r="K24" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L24" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="M24" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="O24" s="24" t="s">
         <v>547</v>
-      </c>
-      <c r="O24" s="24" t="s">
-        <v>548</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>75</v>
@@ -3983,7 +3983,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C25" s="15">
         <v>6</v>
@@ -3995,31 +3995,31 @@
         <v>60</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>77</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>380</v>
-      </c>
       <c r="J25" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L25" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="M25" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="O25" s="17" t="s">
         <v>550</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>551</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>78</v>
@@ -4030,7 +4030,7 @@
         <v>79</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" s="15">
         <v>4</v>
@@ -4042,7 +4042,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>80</v>
@@ -4057,13 +4057,13 @@
         <v>83</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L26" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="O26" s="17" t="s">
         <v>552</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>553</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>84</v>
@@ -4074,7 +4074,7 @@
         <v>85</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C27" s="15">
         <v>6</v>
@@ -4086,7 +4086,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>80</v>
@@ -4098,16 +4098,16 @@
         <v>86</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L27" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="O27" s="17" t="s">
         <v>554</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>555</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>87</v>
@@ -4118,7 +4118,7 @@
         <v>88</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C28" s="15">
         <v>4</v>
@@ -4142,16 +4142,16 @@
         <v>91</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L28" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="O28" s="17" t="s">
         <v>556</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>557</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>92</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="29" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>93</v>
+        <v>791</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" s="15">
         <v>4</v>
@@ -4174,7 +4174,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>74</v>
@@ -4183,30 +4183,30 @@
         <v>90</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>83</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L29" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="O29" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="O29" s="17" t="s">
-        <v>559</v>
-      </c>
       <c r="P29" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C30" s="15">
         <v>4</v>
@@ -4218,7 +4218,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>74</v>
@@ -4227,33 +4227,33 @@
         <v>81</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>83</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L30" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="M30" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="M30" s="17" t="s">
-        <v>561</v>
-      </c>
       <c r="O30" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C31" s="15">
         <v>4</v>
@@ -4265,7 +4265,7 @@
         <v>35</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>74</v>
@@ -4274,30 +4274,30 @@
         <v>90</v>
       </c>
       <c r="I31" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="P31" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="15">
         <v>4</v>
@@ -4309,7 +4309,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>74</v>
@@ -4318,36 +4318,36 @@
         <v>81</v>
       </c>
       <c r="I32" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>399</v>
-      </c>
       <c r="K32" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L32" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="M32" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="N32" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="O32" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="O32" s="17" t="s">
-        <v>567</v>
-      </c>
       <c r="P32" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C33" s="15">
         <v>6</v>
@@ -4359,39 +4359,39 @@
         <v>55</v>
       </c>
       <c r="F33" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>402</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>81</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="P33" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C34" s="15">
         <v>2</v>
@@ -4403,39 +4403,39 @@
         <v>8</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>74</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>83</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L34" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="O34" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="O34" s="17" t="s">
-        <v>571</v>
-      </c>
       <c r="P34" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="15">
         <v>10</v>
@@ -4447,39 +4447,39 @@
         <v>250</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>74</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L35" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="O35" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="O35" s="17" t="s">
-        <v>573</v>
-      </c>
       <c r="P35" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="15">
         <v>2</v>
@@ -4491,7 +4491,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>74</v>
@@ -4500,30 +4500,30 @@
         <v>81</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J36" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="P36" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C37" s="15">
         <v>3</v>
@@ -4535,7 +4535,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>74</v>
@@ -4547,27 +4547,27 @@
         <v>86</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L37" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="O37" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="O37" s="17" t="s">
-        <v>577</v>
-      </c>
       <c r="P37" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C38" s="15">
         <v>4</v>
@@ -4579,7 +4579,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>74</v>
@@ -4591,27 +4591,27 @@
         <v>86</v>
       </c>
       <c r="J38" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="P38" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C39" s="15">
         <v>6</v>
@@ -4623,39 +4623,39 @@
         <v>25</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>74</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L39" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="M39" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="O39" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="O39" s="17" t="s">
-        <v>582</v>
-      </c>
       <c r="P39" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C40" s="15">
         <v>4</v>
@@ -4667,7 +4667,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>74</v>
@@ -4682,24 +4682,24 @@
         <v>83</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C41" s="15">
         <v>1</v>
@@ -4711,7 +4711,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>89</v>
@@ -4720,30 +4720,30 @@
         <v>90</v>
       </c>
       <c r="I41" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="J41" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>415</v>
-      </c>
       <c r="K41" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L41" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="O41" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="O41" s="17" t="s">
-        <v>585</v>
-      </c>
       <c r="P41" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C42" s="15">
         <v>4</v>
@@ -4755,7 +4755,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>74</v>
@@ -4764,30 +4764,30 @@
         <v>81</v>
       </c>
       <c r="I42" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="K42" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="O42" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="P42" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="15">
         <v>12</v>
@@ -4799,36 +4799,36 @@
         <v>20</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G43" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H43" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I43" s="15" t="s">
+      <c r="K43" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="P43" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="L43" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C44" s="15">
         <v>2</v>
@@ -4840,41 +4840,41 @@
         <v>20</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C45" s="15">
         <v>6</v>
@@ -4886,41 +4886,41 @@
         <v>30</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G45" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C46" s="15">
         <v>4</v>
@@ -4932,41 +4932,41 @@
         <v>20</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C47" s="15">
         <v>8</v>
@@ -4978,41 +4978,41 @@
         <v>15</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G47" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="J47" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="K47" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C48" s="15">
         <v>3</v>
@@ -5024,41 +5024,41 @@
         <v>40</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C49" s="15">
         <v>8</v>
@@ -5070,41 +5070,41 @@
         <v>20</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G49" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="J49" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="I49" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>428</v>
-      </c>
       <c r="K49" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C50" s="15">
         <v>15</v>
@@ -5116,41 +5116,41 @@
         <v>20</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G50" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H50" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="J50" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C51" s="15">
         <v>6</v>
@@ -5162,41 +5162,41 @@
         <v>10</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I51" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J51" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J51" s="15" t="s">
-        <v>162</v>
-      </c>
       <c r="K51" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C52" s="15">
         <v>4</v>
@@ -5208,41 +5208,41 @@
         <v>10</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C53" s="15">
         <v>2</v>
@@ -5254,41 +5254,41 @@
         <v>30</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G53" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I53" s="15" t="s">
         <v>434</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>435</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C54" s="15">
         <v>3</v>
@@ -5300,41 +5300,41 @@
         <v>30</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G54" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H54" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I54" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="J54" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K54" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="J54" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>436</v>
-      </c>
       <c r="L54" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C55" s="15">
         <v>3</v>
@@ -5346,41 +5346,41 @@
         <v>20</v>
       </c>
       <c r="F55" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J55" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>438</v>
-      </c>
       <c r="K55" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C56" s="15">
         <v>2</v>
@@ -5392,41 +5392,41 @@
         <v>20</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J56" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C57" s="15">
         <v>4</v>
@@ -5438,41 +5438,41 @@
         <v>30</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C58" s="21">
         <v>6</v>
@@ -5484,41 +5484,41 @@
         <v>40</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C59" s="15">
         <v>3</v>
@@ -5530,41 +5530,41 @@
         <v>20</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G59" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I59" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="J59" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="J59" s="15" t="s">
-        <v>444</v>
-      </c>
       <c r="K59" s="17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C60" s="15">
         <v>4</v>
@@ -5576,41 +5576,41 @@
         <v>30</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J60" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C61" s="15">
         <v>20</v>
@@ -5622,41 +5622,41 @@
         <v>10</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C62" s="15">
         <v>5</v>
@@ -5668,41 +5668,41 @@
         <v>45</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G62" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="H62" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>448</v>
-      </c>
       <c r="K62" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C63" s="11">
         <v>5</v>
@@ -5714,43 +5714,43 @@
         <v>30</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L63" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="M63" s="20" t="s">
         <v>616</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>617</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C64" s="11">
         <v>12</v>
@@ -5762,43 +5762,43 @@
         <v>30</v>
       </c>
       <c r="F64" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H64" s="11" t="s">
+      <c r="I64" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>455</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>24</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L64" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="M64" s="20" t="s">
         <v>618</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>619</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C65" s="11">
         <v>6</v>
@@ -5813,42 +5813,42 @@
         <v>37</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J65" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="L65" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="O65" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="P65" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>770</v>
-      </c>
-      <c r="L65" s="20" t="s">
-        <v>621</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="O65" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C66" s="11">
         <v>4</v>
@@ -5860,43 +5860,43 @@
         <v>30</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L66" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="M66" s="20" t="s">
         <v>623</v>
-      </c>
-      <c r="M66" s="20" t="s">
-        <v>624</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="20" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C67" s="11">
         <v>4</v>
@@ -5908,13 +5908,13 @@
         <v>25</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>44</v>
@@ -5923,26 +5923,26 @@
         <v>24</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C68" s="11">
         <v>4</v>
@@ -5954,41 +5954,41 @@
         <v>10</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C69" s="11">
         <v>4</v>
@@ -6000,10 +6000,10 @@
         <v>15</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>81</v>
@@ -6015,26 +6015,26 @@
         <v>16</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C70" s="11">
         <v>12</v>
@@ -6046,41 +6046,41 @@
         <v>60</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H70" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="I70" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>465</v>
-      </c>
       <c r="K70" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L70" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C71" s="11">
         <v>10</v>
@@ -6092,41 +6092,41 @@
         <v>60</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L71" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C72" s="11">
         <v>10</v>
@@ -6144,35 +6144,35 @@
         <v>32</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L72" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C73" s="8">
         <v>2</v>
@@ -6184,13 +6184,13 @@
         <v>30</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>44</v>
@@ -6199,27 +6199,27 @@
         <v>24</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L73" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="M73" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="M73" s="17" t="s">
-        <v>634</v>
-      </c>
       <c r="O73" s="17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C74" s="8">
         <v>10</v>
@@ -6231,39 +6231,39 @@
         <v>120</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C75" s="8">
         <v>6</v>
@@ -6275,39 +6275,39 @@
         <v>60</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>90</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C76" s="8">
         <v>8</v>
@@ -6319,45 +6319,45 @@
         <v>30</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>44</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L76" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="M76" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="M76" s="17" t="s">
+      <c r="N76" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="N76" s="8" t="s">
-        <v>639</v>
-      </c>
       <c r="O76" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C77" s="8">
         <v>4</v>
@@ -6369,42 +6369,42 @@
         <v>15</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>44</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L77" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="M77" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="M77" s="8" t="s">
-        <v>641</v>
-      </c>
       <c r="O77" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C78" s="8">
         <v>6</v>
@@ -6416,42 +6416,42 @@
         <v>15</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>44</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O78" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C79" s="8">
         <v>8</v>
@@ -6463,42 +6463,42 @@
         <v>180</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>90</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L79" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="M79" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="M79" s="8" t="s">
-        <v>644</v>
-      </c>
       <c r="O79" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C80" s="8">
         <v>6</v>
@@ -6510,42 +6510,42 @@
         <v>90</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>90</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L80" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="M80" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="M80" s="8" t="s">
-        <v>646</v>
-      </c>
       <c r="O80" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C81" s="8">
         <v>4</v>
@@ -6557,42 +6557,42 @@
         <v>20</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J81" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="O81" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="P81" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="L81" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="M81" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="O81" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C82" s="15">
         <v>4</v>
@@ -6604,45 +6604,45 @@
         <v>30</v>
       </c>
       <c r="F82" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G82" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="H82" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="I82" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="J82" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="I82" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="J82" s="15" t="s">
+      <c r="K82" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="L82" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="K82" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="L82" s="15" t="s">
+      <c r="M82" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="O82" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="P82" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="M82" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="N82" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="O82" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="P82" s="15" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C83" s="15">
         <v>2</v>
@@ -6654,45 +6654,45 @@
         <v>20</v>
       </c>
       <c r="F83" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G83" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>241</v>
-      </c>
       <c r="H83" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="I83" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="J83" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="J83" s="15" t="s">
-        <v>488</v>
-      </c>
       <c r="K83" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L83" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="M83" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="M83" s="17" t="s">
+      <c r="N83" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="N83" s="17" t="s">
-        <v>654</v>
-      </c>
       <c r="O83" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P83" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C84" s="15">
         <v>2</v>
@@ -6704,42 +6704,42 @@
         <v>10</v>
       </c>
       <c r="F84" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G84" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="H84" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="H84" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="I84" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J84" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="J84" s="15" t="s">
+      <c r="K84" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="L84" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="K84" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="L84" s="15" t="s">
+      <c r="M84" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="P84" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="M84" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="O84" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="P84" s="15" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C85" s="15">
         <v>2</v>
@@ -6751,45 +6751,45 @@
         <v>25</v>
       </c>
       <c r="F85" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G85" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="H85" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="H85" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="I85" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="J85" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J85" s="15" t="s">
+      <c r="K85" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="M85" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="N85" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O85" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="P85" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="K85" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="L85" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="M85" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="N85" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O85" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="P85" s="15" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C86" s="15">
         <v>1</v>
@@ -6801,45 +6801,45 @@
         <v>10</v>
       </c>
       <c r="F86" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G86" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="H86" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="H86" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="I86" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L86" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="M86" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="M86" s="17" t="s">
+      <c r="N86" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="N86" s="17" t="s">
+      <c r="O86" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="O86" s="17" t="s">
-        <v>663</v>
-      </c>
       <c r="P86" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C87" s="15">
         <v>2</v>
@@ -6851,45 +6851,45 @@
         <v>30</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G87" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L87" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="M87" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="M87" s="17" t="s">
+      <c r="N87" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="N87" s="17" t="s">
+      <c r="O87" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="O87" s="17" t="s">
-        <v>667</v>
-      </c>
       <c r="P87" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C88" s="15">
         <v>8</v>
@@ -6901,45 +6901,45 @@
         <v>90</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G88" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H88" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="I88" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="I88" s="15" t="s">
-        <v>492</v>
-      </c>
       <c r="J88" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M88" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="N88" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="N88" s="17" t="s">
+      <c r="O88" s="17" t="s">
         <v>669</v>
       </c>
-      <c r="O88" s="17" t="s">
-        <v>670</v>
-      </c>
       <c r="P88" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C89" s="15">
         <v>6</v>
@@ -6951,45 +6951,45 @@
         <v>25</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G89" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H89" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="I89" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="J89" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="J89" s="15" t="s">
+      <c r="K89" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="L89" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="M89" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="N89" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="O89" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="P89" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="K89" s="17" t="s">
-        <v>772</v>
-      </c>
-      <c r="L89" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="M89" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="N89" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="O89" s="17" t="s">
-        <v>674</v>
-      </c>
-      <c r="P89" s="15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C90" s="15">
         <v>4</v>
@@ -7001,42 +7001,42 @@
         <v>15</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G90" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H90" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="L90" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="M90" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="O90" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="P90" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="I90" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="J90" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="K90" s="17" t="s">
-        <v>773</v>
-      </c>
-      <c r="L90" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="M90" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="O90" s="17" t="s">
-        <v>676</v>
-      </c>
-      <c r="P90" s="15" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C91" s="15">
         <v>4</v>
@@ -7048,42 +7048,42 @@
         <v>120</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G91" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J91" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="M91" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="O91" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="P91" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="K91" s="17" t="s">
-        <v>774</v>
-      </c>
-      <c r="L91" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="M91" s="17" t="s">
-        <v>677</v>
-      </c>
-      <c r="O91" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="P91" s="15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C92" s="15">
         <v>6</v>
@@ -7095,45 +7095,45 @@
         <v>30</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G92" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M92" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N92" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="O92" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="P92" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="N92" s="17" t="s">
-        <v>678</v>
-      </c>
-      <c r="O92" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="P92" s="15" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C93" s="15">
         <v>4</v>
@@ -7145,45 +7145,45 @@
         <v>20</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G93" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J93" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="L93" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="K93" s="17" t="s">
-        <v>776</v>
-      </c>
-      <c r="L93" s="15" t="s">
+      <c r="M93" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="N93" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="O93" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="P93" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="M93" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="N93" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="O93" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="P93" s="15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C94" s="15">
         <v>4</v>
@@ -7195,45 +7195,45 @@
         <v>30</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G94" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H94" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="I94" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="J94" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="J94" s="15" t="s">
-        <v>497</v>
-      </c>
       <c r="K94" s="17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L94" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="M94" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="M94" s="17" t="s">
+      <c r="N94" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="N94" s="17" t="s">
+      <c r="O94" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="O94" s="17" t="s">
-        <v>684</v>
-      </c>
       <c r="P94" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C95" s="15">
         <v>4</v>
@@ -7245,45 +7245,45 @@
         <v>20</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G95" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I95" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="L95" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="M95" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="N95" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="O95" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="P95" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="J95" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="K95" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="L95" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="M95" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="N95" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="O95" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="P95" s="15" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C96" s="15">
         <v>4</v>
@@ -7295,42 +7295,42 @@
         <v>15</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G96" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H96" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J96" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="I96" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="J96" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="K96" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L96" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="M96" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="M96" s="17" t="s">
-        <v>690</v>
-      </c>
       <c r="O96" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C97" s="15">
         <v>4</v>
@@ -7342,45 +7342,45 @@
         <v>15</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G97" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H97" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="I97" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="J97" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="L97" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="J97" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="L97" s="15" t="s">
+      <c r="M97" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="N97" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="O97" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="P97" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="M97" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="N97" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="O97" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="P97" s="15" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C98" s="15">
         <v>8</v>
@@ -7392,45 +7392,45 @@
         <v>15</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G98" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="J98" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="H98" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="I98" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="J98" s="15" t="s">
+      <c r="K98" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="L98" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="K98" s="17" t="s">
-        <v>781</v>
-      </c>
-      <c r="L98" s="15" t="s">
+      <c r="M98" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="N98" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="O98" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="P98" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="M98" s="17" t="s">
-        <v>694</v>
-      </c>
-      <c r="N98" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="O98" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="P98" s="15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C99" s="15">
         <v>4</v>
@@ -7442,45 +7442,45 @@
         <v>15</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G99" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H99" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="I99" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="J99" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="J99" s="15" t="s">
-        <v>503</v>
-      </c>
       <c r="K99" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L99" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="M99" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="M99" s="17" t="s">
+      <c r="N99" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="N99" s="17" t="s">
+      <c r="O99" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="O99" s="17" t="s">
-        <v>700</v>
-      </c>
       <c r="P99" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C100" s="15">
         <v>8</v>
@@ -7492,45 +7492,45 @@
         <v>10</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H100" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="I100" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="I100" s="15" t="s">
-        <v>500</v>
-      </c>
       <c r="J100" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="K100" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="M100" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="N100" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="O100" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="P100" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="K100" s="17" t="s">
-        <v>783</v>
-      </c>
-      <c r="L100" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="M100" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="N100" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="O100" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="P100" s="15" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C101" s="15">
         <v>8</v>
@@ -7542,34 +7542,34 @@
         <v>60</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H101" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I101" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="I101" s="15" t="s">
+      <c r="J101" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="J101" s="15" t="s">
+      <c r="K101" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="L101" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="M101" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="O101" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="P101" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="K101" s="17" t="s">
-        <v>784</v>
-      </c>
-      <c r="L101" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="M101" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="O101" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="P101" s="15" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7781,18 +7781,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7814,6 +7814,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7827,12 +7835,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/recipeData/CombineRecipes.xlsx
+++ b/recipeData/CombineRecipes.xlsx
@@ -1397,9 +1397,6 @@
     <t>vegetable oil; onions; screw pine leaves (daun pandan); 1 kg lean beef; coconut cream (santan pekat); water; tamarind pulp; desiccated coconut (kerisik); sugar; Salt</t>
   </si>
   <si>
-    <t>Oven; ;Brass moulds</t>
-  </si>
-  <si>
     <t>ghee; plain flour</t>
   </si>
   <si>
@@ -2400,6 +2397,9 @@
   </si>
   <si>
     <t>Clams in Chinese rice wine ginger and chili</t>
+  </si>
+  <si>
+    <t>Oven;Brass moulds</t>
   </si>
 </sst>
 </file>
@@ -2826,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2836,7 +2836,7 @@
     <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="8" max="9" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="17" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -2912,7 +2912,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>15</v>
@@ -2930,12 +2930,12 @@
         <v>324</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>17</v>
@@ -2976,14 +2976,14 @@
         <v>329</v>
       </c>
       <c r="L3" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>505</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>506</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>19</v>
@@ -3024,12 +3024,12 @@
         <v>331</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>22</v>
@@ -3070,14 +3070,14 @@
         <v>333</v>
       </c>
       <c r="L5" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>509</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>510</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>25</v>
@@ -3118,14 +3118,14 @@
         <v>336</v>
       </c>
       <c r="L6" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>512</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>513</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>27</v>
@@ -3163,17 +3163,17 @@
         <v>335</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L7" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="M7" s="17" t="s">
         <v>515</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>516</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>30</v>
@@ -3211,12 +3211,12 @@
         <v>34</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>35</v>
@@ -3257,16 +3257,16 @@
         <v>338</v>
       </c>
       <c r="L9" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="M9" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>521</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>522</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>39</v>
@@ -3292,7 +3292,7 @@
         <v>341</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>90</v>
@@ -3307,14 +3307,14 @@
         <v>340</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>42</v>
@@ -3337,10 +3337,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>81</v>
@@ -3355,14 +3355,14 @@
         <v>343</v>
       </c>
       <c r="L11" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>525</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>526</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>46</v>
@@ -3403,12 +3403,12 @@
         <v>345</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>48</v>
@@ -3449,14 +3449,14 @@
         <v>348</v>
       </c>
       <c r="L13" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>529</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>530</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>50</v>
@@ -3497,16 +3497,16 @@
         <v>351</v>
       </c>
       <c r="L14" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>531</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>532</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>319</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>52</v>
@@ -3547,14 +3547,14 @@
         <v>353</v>
       </c>
       <c r="L15" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="M15" s="17" t="s">
         <v>533</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>534</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>54</v>
@@ -3595,12 +3595,12 @@
         <v>355</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>56</v>
@@ -3641,14 +3641,14 @@
         <v>357</v>
       </c>
       <c r="L17" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>536</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>537</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>58</v>
@@ -3689,12 +3689,12 @@
         <v>359</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>60</v>
@@ -3735,12 +3735,12 @@
         <v>362</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="15"/>
       <c r="O19" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>62</v>
@@ -3781,12 +3781,12 @@
         <v>364</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="15"/>
       <c r="O20" s="17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>64</v>
@@ -3827,12 +3827,12 @@
         <v>367</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="15"/>
       <c r="O21" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>66</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>322</v>
@@ -3858,7 +3858,7 @@
         <v>371</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>81</v>
@@ -3873,14 +3873,14 @@
         <v>370</v>
       </c>
       <c r="L22" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="M22" s="17" t="s">
         <v>542</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>543</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>68</v>
@@ -3921,11 +3921,11 @@
         <v>373</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M23" s="24"/>
       <c r="O23" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P23" s="25" t="s">
         <v>71</v>
@@ -3966,13 +3966,13 @@
         <v>376</v>
       </c>
       <c r="L24" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="M24" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="O24" s="24" t="s">
         <v>546</v>
-      </c>
-      <c r="O24" s="24" t="s">
-        <v>547</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>75</v>
@@ -3995,7 +3995,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>77</v>
@@ -4013,13 +4013,13 @@
         <v>381</v>
       </c>
       <c r="L25" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="M25" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="O25" s="17" t="s">
         <v>549</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>550</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>78</v>
@@ -4060,10 +4060,10 @@
         <v>384</v>
       </c>
       <c r="L26" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="O26" s="17" t="s">
         <v>551</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>552</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>84</v>
@@ -4104,10 +4104,10 @@
         <v>385</v>
       </c>
       <c r="L27" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="O27" s="17" t="s">
         <v>553</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>554</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>87</v>
@@ -4148,10 +4148,10 @@
         <v>388</v>
       </c>
       <c r="L28" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="O28" s="17" t="s">
         <v>555</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>556</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>92</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="29" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>320</v>
@@ -4192,10 +4192,10 @@
         <v>390</v>
       </c>
       <c r="L29" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="O29" s="17" t="s">
         <v>557</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>558</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>94</v>
@@ -4236,13 +4236,13 @@
         <v>391</v>
       </c>
       <c r="L30" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="M30" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="M30" s="17" t="s">
-        <v>560</v>
-      </c>
       <c r="O30" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>97</v>
@@ -4283,10 +4283,10 @@
         <v>393</v>
       </c>
       <c r="L31" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="O31" s="17" t="s">
         <v>561</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>562</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>100</v>
@@ -4327,16 +4327,16 @@
         <v>396</v>
       </c>
       <c r="L32" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="M32" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="N32" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="O32" s="17" t="s">
         <v>565</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>566</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>102</v>
@@ -4377,10 +4377,10 @@
         <v>399</v>
       </c>
       <c r="L33" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="O33" s="17" t="s">
         <v>567</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>568</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>105</v>
@@ -4421,10 +4421,10 @@
         <v>403</v>
       </c>
       <c r="L34" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="O34" s="17" t="s">
         <v>569</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>570</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>108</v>
@@ -4465,10 +4465,10 @@
         <v>404</v>
       </c>
       <c r="L35" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="O35" s="17" t="s">
         <v>571</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>572</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>110</v>
@@ -4509,10 +4509,10 @@
         <v>406</v>
       </c>
       <c r="L36" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="O36" s="17" t="s">
         <v>573</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>574</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>113</v>
@@ -4553,10 +4553,10 @@
         <v>407</v>
       </c>
       <c r="L37" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="O37" s="17" t="s">
         <v>575</v>
-      </c>
-      <c r="O37" s="17" t="s">
-        <v>576</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>115</v>
@@ -4597,10 +4597,10 @@
         <v>408</v>
       </c>
       <c r="L38" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="O38" s="17" t="s">
         <v>577</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>578</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>118</v>
@@ -4638,13 +4638,13 @@
         <v>409</v>
       </c>
       <c r="L39" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="M39" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="O39" s="17" t="s">
         <v>580</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>581</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>120</v>
@@ -4685,10 +4685,10 @@
         <v>410</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>122</v>
@@ -4729,10 +4729,10 @@
         <v>411</v>
       </c>
       <c r="L41" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="O41" s="17" t="s">
         <v>583</v>
-      </c>
-      <c r="O41" s="17" t="s">
-        <v>584</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>124</v>
@@ -4755,7 +4755,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>74</v>
@@ -4773,10 +4773,10 @@
         <v>415</v>
       </c>
       <c r="L42" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="O42" s="17" t="s">
         <v>585</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>586</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>128</v>
@@ -4799,7 +4799,7 @@
         <v>20</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>130</v>
@@ -4814,10 +4814,10 @@
         <v>416</v>
       </c>
       <c r="L43" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="O43" s="17" t="s">
         <v>708</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>709</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>132</v>
@@ -4858,12 +4858,12 @@
         <v>417</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>135</v>
@@ -4904,12 +4904,12 @@
         <v>420</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>139</v>
@@ -4950,12 +4950,12 @@
         <v>421</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>142</v>
@@ -4996,12 +4996,12 @@
         <v>423</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>147</v>
@@ -5042,12 +5042,12 @@
         <v>424</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>150</v>
@@ -5088,12 +5088,12 @@
         <v>425</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>154</v>
@@ -5134,12 +5134,12 @@
         <v>428</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>158</v>
@@ -5180,12 +5180,12 @@
         <v>430</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>162</v>
@@ -5226,12 +5226,12 @@
         <v>431</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>165</v>
@@ -5272,12 +5272,12 @@
         <v>432</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>167</v>
@@ -5318,12 +5318,12 @@
         <v>435</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>170</v>
@@ -5361,15 +5361,15 @@
         <v>437</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>174</v>
@@ -5407,15 +5407,15 @@
         <v>16</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>177</v>
@@ -5456,12 +5456,12 @@
         <v>438</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>180</v>
@@ -5502,12 +5502,12 @@
         <v>439</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>182</v>
@@ -5545,15 +5545,15 @@
         <v>443</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>184</v>
@@ -5591,15 +5591,15 @@
         <v>24</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>186</v>
@@ -5625,7 +5625,7 @@
         <v>418</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>188</v>
@@ -5637,15 +5637,15 @@
         <v>146</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>189</v>
@@ -5683,15 +5683,15 @@
         <v>447</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>192</v>
@@ -5729,17 +5729,17 @@
         <v>194</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L63" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="M63" s="20" t="s">
         <v>615</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>616</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>195</v>
@@ -5777,17 +5777,17 @@
         <v>24</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L64" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="M64" s="20" t="s">
         <v>617</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>618</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>198</v>
@@ -5825,19 +5825,19 @@
         <v>200</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L65" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="M65" s="20" t="s">
         <v>620</v>
       </c>
-      <c r="M65" s="20" t="s">
-        <v>621</v>
-      </c>
       <c r="N65" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>201</v>
@@ -5866,7 +5866,7 @@
         <v>32</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>457</v>
+        <v>791</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>21</v>
@@ -5875,17 +5875,17 @@
         <v>146</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L66" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="M66" s="20" t="s">
         <v>622</v>
-      </c>
-      <c r="M66" s="20" t="s">
-        <v>623</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>203</v>
@@ -5926,12 +5926,12 @@
         <v>444</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>205</v>
@@ -5954,7 +5954,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>206</v>
@@ -5972,12 +5972,12 @@
         <v>445</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>207</v>
@@ -6018,12 +6018,12 @@
         <v>448</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>209</v>
@@ -6052,24 +6052,24 @@
         <v>32</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>211</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K70" s="11" t="s">
         <v>451</v>
       </c>
       <c r="L70" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>212</v>
@@ -6104,18 +6104,18 @@
         <v>21</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>455</v>
       </c>
       <c r="L71" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>214</v>
@@ -6150,18 +6150,18 @@
         <v>21</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>456</v>
       </c>
       <c r="L72" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="20" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>216</v>
@@ -6187,7 +6187,7 @@
         <v>218</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>241</v>
@@ -6199,16 +6199,16 @@
         <v>24</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L73" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="M73" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="M73" s="17" t="s">
-        <v>633</v>
-      </c>
       <c r="O73" s="17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P73" s="9" t="s">
         <v>219</v>
@@ -6234,7 +6234,7 @@
         <v>218</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>141</v>
@@ -6246,13 +6246,13 @@
         <v>427</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P74" s="9" t="s">
         <v>221</v>
@@ -6278,7 +6278,7 @@
         <v>218</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>90</v>
@@ -6287,16 +6287,16 @@
         <v>211</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P75" s="9" t="s">
         <v>223</v>
@@ -6322,7 +6322,7 @@
         <v>218</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>312</v>
@@ -6331,22 +6331,22 @@
         <v>44</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L76" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="M76" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="M76" s="17" t="s">
+      <c r="N76" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="N76" s="8" t="s">
-        <v>638</v>
-      </c>
       <c r="O76" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P76" s="9" t="s">
         <v>225</v>
@@ -6372,7 +6372,7 @@
         <v>218</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>227</v>
@@ -6381,19 +6381,19 @@
         <v>44</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L77" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="M77" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="M77" s="8" t="s">
-        <v>640</v>
-      </c>
       <c r="O77" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P77" s="9" t="s">
         <v>228</v>
@@ -6419,7 +6419,7 @@
         <v>218</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>227</v>
@@ -6428,19 +6428,19 @@
         <v>44</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O78" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P78" s="9" t="s">
         <v>230</v>
@@ -6466,7 +6466,7 @@
         <v>218</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>90</v>
@@ -6478,16 +6478,16 @@
         <v>200</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L79" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="M79" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="M79" s="8" t="s">
-        <v>643</v>
-      </c>
       <c r="O79" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P79" s="9" t="s">
         <v>232</v>
@@ -6513,7 +6513,7 @@
         <v>218</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>90</v>
@@ -6525,16 +6525,16 @@
         <v>200</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L80" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="M80" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="M80" s="8" t="s">
-        <v>645</v>
-      </c>
       <c r="O80" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P80" s="9" t="s">
         <v>234</v>
@@ -6560,7 +6560,7 @@
         <v>218</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>241</v>
@@ -6572,16 +6572,16 @@
         <v>236</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L81" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="M81" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="M81" s="17" t="s">
-        <v>647</v>
-      </c>
       <c r="O81" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P81" s="9" t="s">
         <v>237</v>
@@ -6613,25 +6613,25 @@
         <v>241</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J82" s="15" t="s">
         <v>242</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L82" s="15" t="s">
         <v>243</v>
       </c>
       <c r="M82" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="N82" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="N82" s="17" t="s">
+      <c r="O82" s="17" t="s">
         <v>649</v>
-      </c>
-      <c r="O82" s="17" t="s">
-        <v>650</v>
       </c>
       <c r="P82" s="15" t="s">
         <v>244</v>
@@ -6660,28 +6660,28 @@
         <v>240</v>
       </c>
       <c r="H83" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="I83" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="J83" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J83" s="15" t="s">
-        <v>487</v>
-      </c>
       <c r="K83" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L83" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="M83" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="M83" s="17" t="s">
+      <c r="N83" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="N83" s="17" t="s">
-        <v>653</v>
-      </c>
       <c r="O83" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P83" s="15" t="s">
         <v>246</v>
@@ -6719,16 +6719,16 @@
         <v>249</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L84" s="15" t="s">
         <v>250</v>
       </c>
       <c r="M84" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="O84" s="17" t="s">
         <v>654</v>
-      </c>
-      <c r="O84" s="17" t="s">
-        <v>655</v>
       </c>
       <c r="P84" s="15" t="s">
         <v>251</v>
@@ -6766,19 +6766,19 @@
         <v>254</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L85" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="M85" s="17" t="s">
         <v>656</v>
-      </c>
-      <c r="M85" s="17" t="s">
-        <v>657</v>
       </c>
       <c r="N85" s="17" t="s">
         <v>316</v>
       </c>
       <c r="O85" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="P85" s="15" t="s">
         <v>255</v>
@@ -6813,22 +6813,22 @@
         <v>253</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L86" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="M86" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="M86" s="17" t="s">
+      <c r="N86" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="N86" s="17" t="s">
+      <c r="O86" s="17" t="s">
         <v>661</v>
-      </c>
-      <c r="O86" s="17" t="s">
-        <v>662</v>
       </c>
       <c r="P86" s="15" t="s">
         <v>257</v>
@@ -6857,28 +6857,28 @@
         <v>74</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>127</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L87" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="M87" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="M87" s="17" t="s">
+      <c r="N87" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="N87" s="17" t="s">
+      <c r="O87" s="17" t="s">
         <v>665</v>
-      </c>
-      <c r="O87" s="17" t="s">
-        <v>666</v>
       </c>
       <c r="P87" s="15" t="s">
         <v>259</v>
@@ -6907,28 +6907,28 @@
         <v>74</v>
       </c>
       <c r="H88" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="I88" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="I88" s="15" t="s">
-        <v>491</v>
       </c>
       <c r="J88" s="15" t="s">
         <v>127</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M88" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="N88" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="N88" s="17" t="s">
+      <c r="O88" s="17" t="s">
         <v>668</v>
-      </c>
-      <c r="O88" s="17" t="s">
-        <v>669</v>
       </c>
       <c r="P88" s="15" t="s">
         <v>261</v>
@@ -6966,19 +6966,19 @@
         <v>265</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L89" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="M89" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="M89" s="17" t="s">
+      <c r="N89" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="N89" s="17" t="s">
+      <c r="O89" s="17" t="s">
         <v>672</v>
-      </c>
-      <c r="O89" s="17" t="s">
-        <v>673</v>
       </c>
       <c r="P89" s="15" t="s">
         <v>266</v>
@@ -7016,16 +7016,16 @@
         <v>242</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L90" s="15" t="s">
         <v>313</v>
       </c>
       <c r="M90" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="O90" s="17" t="s">
         <v>674</v>
-      </c>
-      <c r="O90" s="17" t="s">
-        <v>675</v>
       </c>
       <c r="P90" s="15" t="s">
         <v>269</v>
@@ -7054,7 +7054,7 @@
         <v>74</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I91" s="15" t="s">
         <v>264</v>
@@ -7063,16 +7063,16 @@
         <v>271</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L91" s="15" t="s">
         <v>314</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O91" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="P91" s="15" t="s">
         <v>272</v>
@@ -7101,7 +7101,7 @@
         <v>74</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I92" s="15" t="s">
         <v>268</v>
@@ -7110,19 +7110,19 @@
         <v>271</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M92" s="15" t="s">
         <v>274</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P92" s="15" t="s">
         <v>275</v>
@@ -7151,7 +7151,7 @@
         <v>74</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I93" s="15" t="s">
         <v>264</v>
@@ -7160,19 +7160,19 @@
         <v>277</v>
       </c>
       <c r="K93" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L93" s="15" t="s">
         <v>278</v>
       </c>
       <c r="M93" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="N93" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="N93" s="17" t="s">
-        <v>679</v>
-      </c>
       <c r="O93" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P93" s="15" t="s">
         <v>279</v>
@@ -7201,28 +7201,28 @@
         <v>74</v>
       </c>
       <c r="H94" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="I94" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="J94" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="J94" s="15" t="s">
-        <v>496</v>
-      </c>
       <c r="K94" s="17" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L94" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="M94" s="17" t="s">
         <v>680</v>
       </c>
-      <c r="M94" s="17" t="s">
+      <c r="N94" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="N94" s="17" t="s">
+      <c r="O94" s="17" t="s">
         <v>682</v>
-      </c>
-      <c r="O94" s="17" t="s">
-        <v>683</v>
       </c>
       <c r="P94" s="15" t="s">
         <v>281</v>
@@ -7257,22 +7257,22 @@
         <v>283</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L95" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="M95" s="17" t="s">
         <v>684</v>
       </c>
-      <c r="M95" s="17" t="s">
+      <c r="N95" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="N95" s="17" t="s">
+      <c r="O95" s="17" t="s">
         <v>686</v>
-      </c>
-      <c r="O95" s="17" t="s">
-        <v>687</v>
       </c>
       <c r="P95" s="15" t="s">
         <v>284</v>
@@ -7310,16 +7310,16 @@
         <v>242</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L96" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="M96" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="M96" s="17" t="s">
-        <v>689</v>
-      </c>
       <c r="O96" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P96" s="15" t="s">
         <v>286</v>
@@ -7357,19 +7357,19 @@
         <v>242</v>
       </c>
       <c r="K97" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L97" s="15" t="s">
         <v>290</v>
       </c>
       <c r="M97" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="N97" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="N97" s="17" t="s">
+      <c r="O97" s="17" t="s">
         <v>691</v>
-      </c>
-      <c r="O97" s="17" t="s">
-        <v>692</v>
       </c>
       <c r="P97" s="15" t="s">
         <v>291</v>
@@ -7398,28 +7398,28 @@
         <v>293</v>
       </c>
       <c r="H98" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="I98" s="15" t="s">
         <v>498</v>
-      </c>
-      <c r="I98" s="15" t="s">
-        <v>499</v>
       </c>
       <c r="J98" s="15" t="s">
         <v>294</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L98" s="15" t="s">
         <v>295</v>
       </c>
       <c r="M98" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="N98" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="N98" s="17" t="s">
+      <c r="O98" s="17" t="s">
         <v>694</v>
-      </c>
-      <c r="O98" s="17" t="s">
-        <v>695</v>
       </c>
       <c r="P98" s="15" t="s">
         <v>296</v>
@@ -7448,28 +7448,28 @@
         <v>74</v>
       </c>
       <c r="H99" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="I99" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="J99" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="J99" s="15" t="s">
-        <v>502</v>
-      </c>
       <c r="K99" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L99" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="M99" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="M99" s="17" t="s">
+      <c r="N99" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="N99" s="17" t="s">
+      <c r="O99" s="17" t="s">
         <v>698</v>
-      </c>
-      <c r="O99" s="17" t="s">
-        <v>699</v>
       </c>
       <c r="P99" s="15" t="s">
         <v>298</v>
@@ -7498,28 +7498,28 @@
         <v>293</v>
       </c>
       <c r="H100" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="I100" s="15" t="s">
         <v>498</v>
-      </c>
-      <c r="I100" s="15" t="s">
-        <v>499</v>
       </c>
       <c r="J100" s="15" t="s">
         <v>300</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L100" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="M100" s="17" t="s">
         <v>700</v>
       </c>
-      <c r="M100" s="17" t="s">
+      <c r="N100" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="N100" s="17" t="s">
+      <c r="O100" s="17" t="s">
         <v>702</v>
-      </c>
-      <c r="O100" s="17" t="s">
-        <v>703</v>
       </c>
       <c r="P100" s="15" t="s">
         <v>301</v>
@@ -7557,16 +7557,16 @@
         <v>305</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L101" s="15" t="s">
         <v>315</v>
       </c>
       <c r="M101" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="O101" s="17" t="s">
         <v>704</v>
-      </c>
-      <c r="O101" s="17" t="s">
-        <v>705</v>
       </c>
       <c r="P101" s="15" t="s">
         <v>306</v>
@@ -7781,18 +7781,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7814,14 +7814,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7835,4 +7827,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/recipeData/CombineRecipes.xlsx
+++ b/recipeData/CombineRecipes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="772">
   <si>
     <t>Name</t>
   </si>
@@ -1001,9 +1001,6 @@
     <t>dried shrimps;Nyonya Sambal chilly;fine sugar;lime leaves</t>
   </si>
   <si>
-    <t>Asian; Indonesian; Nonya; Vegetarian</t>
-  </si>
-  <si>
     <t>Appetizer; Snack</t>
   </si>
   <si>
@@ -1016,15 +1013,9 @@
     <t>vegetarian chicken;cooking oil;glutinous rice;blue pea flower;hemp string;pandan leaves;salt;dried bamboo leaves;biryani powder;water;mushroom stock;brown sugar;winter melon;dried chilly;lemongrass;blue ginger;turmeric</t>
   </si>
   <si>
-    <t>Asian; Vegetarian</t>
-  </si>
-  <si>
     <t>yellow capsicums;cooked rice;French beans;canned corn kernels;tomato;extra virgin olive oil; Salt;pepper;coriander;shredded cheese</t>
   </si>
   <si>
-    <t>Chinese; Asian; Nyonya; Peranakan</t>
-  </si>
-  <si>
     <t>chicken;meat curry powder;chilly powder;cooking oil;potato;water;curry leaf;coconut milk;tamarind peel;salt2 stalks lemon grass;cinnamon stick;anise;cardamon;shallots;garlic;ginger</t>
   </si>
   <si>
@@ -1049,9 +1040,6 @@
     <t>yam bean;guava;cucumber;carrot;green papaya;pomelo sac;rice flour;tapioca flour;egg;water;salt;sugar;small prawn;galangal;bird’s eye chilly;fresh red chilly;plum sauce;salt;cooking oil;crushed fried peanuts;toasted sesame seeds</t>
   </si>
   <si>
-    <t>Asian; Indonesian; Nyonya; Peranakan</t>
-  </si>
-  <si>
     <t>Fish; Seafood</t>
   </si>
   <si>
@@ -1064,18 +1052,12 @@
     <t>spring roll wrappers;flour;cooking oil;curry Leaves;mustard seed;cumin; garlic;onion; fish curry powder; pumpkin; water; green peas; coconut milk; sugar; salt</t>
   </si>
   <si>
-    <t>Asian; Nyonya; Peranakan; Vegetarian</t>
-  </si>
-  <si>
     <t>Vegetable; Fruit</t>
   </si>
   <si>
     <t>cooking oil;cinnamon stick;star anise;clove;shallot;garlic;fish curry powder;water;tamarind paste;palm sugar;pineapple;coconut milk;salt</t>
   </si>
   <si>
-    <t>Asian; Chinese; Nyonya</t>
-  </si>
-  <si>
     <t>Chicken; Pork</t>
   </si>
   <si>
@@ -1088,9 +1070,6 @@
     <t>cooking oil;shallots;garlic;shallot;soya bean paste;prawn;chicken;yellow egg noodles;mustard green;bean sprout;water;dark soya sauce;light soya sauce;sugar;white pepper;Salt;fresh red chilly;red chilly padi;belachan;shallot crisp</t>
   </si>
   <si>
-    <t>Asian; Malaysia; Nyonya</t>
-  </si>
-  <si>
     <t>cooking oil;onion;chicken;brown sugar;kaffir lime leave;water;coconut milk;lime juice;Salt;shallot;garlic;ginger;galangal;turmeric;candle nut;lemon grass;dried chilly;bird’s eye chilly;belachan</t>
   </si>
   <si>
@@ -1100,15 +1079,9 @@
     <t>glutinous rice;dried prawns;lean pork;candied winter melon;lemon grass;knob galangal;dried chilly;garlic;shallot;coriander seed;sugar;Blue pea flowers;pandan leave</t>
   </si>
   <si>
-    <t>Asian; Chinese; Vegetarian</t>
-  </si>
-  <si>
     <t>hard tofu;sweet corn kernel;red bell pepper;snow pea pod;chilly paste;shallot;garlic;honey;salt</t>
   </si>
   <si>
-    <t>Asian; Indonesian; Nonya; Peranakan</t>
-  </si>
-  <si>
     <t>Noodle; Pork; Vegetable</t>
   </si>
   <si>
@@ -1121,9 +1094,6 @@
     <t>chicken drummets;ginger juice; corn flour;chilly flakes;oyster sauce; chicken stock granules; dark soya sauce;lime leaves;honey;salt</t>
   </si>
   <si>
-    <t>Asian; Peranakan; Nyonya</t>
-  </si>
-  <si>
     <t>Vegetable; Turkey</t>
   </si>
   <si>
@@ -1139,27 +1109,18 @@
     <t>sweet potato flesh;coarse sugar;water;tapioca flour;thick coconut milk;salt;coconut flesh</t>
   </si>
   <si>
-    <t>Nyonya; Asian; Peranakan; Malaysia</t>
-  </si>
-  <si>
     <t>stir frying; Boiling</t>
   </si>
   <si>
     <t>glutinous rice;freshly ground turmeric;tamarind peel;pepper corn;salt;dried bamboo leave;hemp string;cooking oil;dried chilly;shallot;sugar;salt;dried prawn</t>
   </si>
   <si>
-    <t>Asian; Nyonya; Peranakan</t>
-  </si>
-  <si>
     <t>Grill; Boiling</t>
   </si>
   <si>
     <t>pork belly;tamarind paste;water;salt;sugar</t>
   </si>
   <si>
-    <t>Asian; Chinese</t>
-  </si>
-  <si>
     <t>Wok; claypot</t>
   </si>
   <si>
@@ -1172,9 +1133,6 @@
     <t>skinless chicken breast;chicken drumsticks;rice;corn oil;ginger;scallion;mushroom;oyster sauce;soy sauce;corn starch;sesame oil;white pepper;sugar;shaoxing wine;dark soy sauce;salt</t>
   </si>
   <si>
-    <t>Asian; Malay/Indonesian</t>
-  </si>
-  <si>
     <t>noodle; seafood;pork</t>
   </si>
   <si>
@@ -1184,9 +1142,6 @@
     <t>black pepper;melted unsalted butter;garlic;onion;crab;oyster sauce;sugar;water;salt</t>
   </si>
   <si>
-    <t>Asian; Singaporean</t>
-  </si>
-  <si>
     <t>pork; vegetable</t>
   </si>
   <si>
@@ -1202,15 +1157,9 @@
     <t>claim; onion;garlic;vegetable oil;chinese rice wine;ginger;chilies;sasame oil;spring onion;light soya sauce</t>
   </si>
   <si>
-    <t>Chinese; Asian</t>
-  </si>
-  <si>
     <t>prawn;butter;salt;pepper</t>
   </si>
   <si>
-    <t>Asian; chinese</t>
-  </si>
-  <si>
     <t>fish;rice</t>
   </si>
   <si>
@@ -1226,9 +1175,6 @@
     <t>cod fillet;salt;white pepper;tomato;sour plum;silken tofu;ginger;cooking oil;garlic;pork;preserved mustard;water;soy sauce;shaoxing wine;sugar;onion;coriander</t>
   </si>
   <si>
-    <t>asian;chinese;hokkien</t>
-  </si>
-  <si>
     <t>breakfast;brunch;easy</t>
   </si>
   <si>
@@ -1262,9 +1208,6 @@
     <t>butter;cooking oil;shallot;eye chilies;bird eye chilies;curry leave;salted egg yolk;evaporated milk;water;prawn;sugar;salt</t>
   </si>
   <si>
-    <t>asian;singaporean</t>
-  </si>
-  <si>
     <t>stir frying/wok;boiling/double boiling</t>
   </si>
   <si>
@@ -1280,9 +1223,6 @@
     <t>confectioner sugar;flour;egg;butter;dash vanilla;sugar;water;evaporated milk</t>
   </si>
   <si>
-    <t>Indian; Asian</t>
-  </si>
-  <si>
     <t>Boiling; low heat and simmer</t>
   </si>
   <si>
@@ -1334,9 +1274,6 @@
     <t>Tandoori Chicken; butter; finely minced ginger; finely minced garlic; canned tomato paste; chili powder; Garam Masala; ketchup; teaspoon sugar; Salt; water; heavy whipped cream; cilantro leaves</t>
   </si>
   <si>
-    <t>Indian; Asian; Vegetarian</t>
-  </si>
-  <si>
     <t>Cauliflower; Potatoes</t>
   </si>
   <si>
@@ -1349,9 +1286,6 @@
     <t>Blender; Pot</t>
   </si>
   <si>
-    <t>Indian; Asian; Italian</t>
-  </si>
-  <si>
     <t>Stir Fry; Oven bake</t>
   </si>
   <si>
@@ -1373,18 +1307,12 @@
     <t>rie firm green mango; cinnamon; cloves; cumin seeds; coriander seeds; cardamom; ginger; dry red chilly; garlic; demerara suga; vinegar; water; salt</t>
   </si>
   <si>
-    <t>Western; European; French</t>
-  </si>
-  <si>
     <t>Oven;Piping bag;Plain nozzle</t>
   </si>
   <si>
     <t xml:space="preserve">almonds; icing sugar; aged egg whites; caster sugar; pink food colouring powder; rose essence                                                                                                                                            </t>
   </si>
   <si>
-    <t>Asian; Malaysia; Nonya/Peranakan</t>
-  </si>
-  <si>
     <t>food processor;frying pan</t>
   </si>
   <si>
@@ -1403,9 +1331,6 @@
     <t>Oil ; chicken; garlic powder; salt;ground turmeric ; ground nutmeg; butter</t>
   </si>
   <si>
-    <t>Western; American</t>
-  </si>
-  <si>
     <t>red onions; red bell pepper; large red chilli; honey red tomatoes; bulb garlic; stick cinnamon; fish sauce; sugar; oil</t>
   </si>
   <si>
@@ -2375,15 +2300,6 @@
     <t>cherry tomatoes</t>
   </si>
   <si>
-    <t>Nyonya; Asian; Singapore; Malay</t>
-  </si>
-  <si>
-    <t>Asian; Indian; Vegetarian</t>
-  </si>
-  <si>
-    <t>Asian; Malay; Indonesian</t>
-  </si>
-  <si>
     <t>Chinese</t>
   </si>
   <si>
@@ -2400,6 +2316,30 @@
   </si>
   <si>
     <t>Oven;Brass moulds</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Peranakan</t>
+  </si>
+  <si>
+    <t>Singaporean</t>
+  </si>
+  <si>
+    <t>Hokkien</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>American</t>
   </si>
 </sst>
 </file>
@@ -2826,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2835,6 +2775,7 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="8" max="9" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
@@ -2912,7 +2853,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>783</v>
+        <v>29</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>15</v>
@@ -2930,12 +2871,12 @@
         <v>324</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="17" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>17</v>
@@ -2958,32 +2899,32 @@
         <v>135</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>326</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>81</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>329</v>
-      </c>
       <c r="L3" s="17" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>19</v>
@@ -3006,7 +2947,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>330</v>
+        <v>37</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>74</v>
@@ -3018,18 +2959,18 @@
         <v>307</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="17" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>22</v>
@@ -3052,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>332</v>
+        <v>29</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>74</v>
@@ -3067,17 +3008,17 @@
         <v>24</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>25</v>
@@ -3100,7 +3041,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>374</v>
+        <v>29</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>74</v>
@@ -3109,23 +3050,23 @@
         <v>81</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="17" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>27</v>
@@ -3157,23 +3098,23 @@
         <v>90</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>30</v>
@@ -3211,12 +3152,12 @@
         <v>34</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="17" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>35</v>
@@ -3251,22 +3192,22 @@
         <v>309</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>39</v>
@@ -3289,10 +3230,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>90</v>
@@ -3301,20 +3242,20 @@
         <v>308</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="17" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>42</v>
@@ -3337,10 +3278,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>81</v>
@@ -3352,17 +3293,17 @@
         <v>45</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="17" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>46</v>
@@ -3385,7 +3326,7 @@
         <v>140</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>346</v>
+        <v>29</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>74</v>
@@ -3397,18 +3338,18 @@
         <v>309</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="17" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>48</v>
@@ -3431,7 +3372,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>74</v>
@@ -3443,20 +3384,20 @@
         <v>309</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="17" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>50</v>
@@ -3479,7 +3420,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>74</v>
@@ -3491,22 +3432,22 @@
         <v>309</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>319</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>52</v>
@@ -3529,7 +3470,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>354</v>
+        <v>29</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>74</v>
@@ -3544,17 +3485,17 @@
         <v>24</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="17" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>54</v>
@@ -3577,10 +3518,10 @@
         <v>250</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>90</v>
@@ -3589,18 +3530,18 @@
         <v>310</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="17" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>56</v>
@@ -3623,7 +3564,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>358</v>
+        <v>758</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>74</v>
@@ -3635,20 +3576,20 @@
         <v>309</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="17" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>58</v>
@@ -3671,7 +3612,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>360</v>
+        <v>765</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>74</v>
@@ -3683,18 +3624,18 @@
         <v>33</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="17" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>60</v>
@@ -3717,7 +3658,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>354</v>
+        <v>29</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>74</v>
@@ -3726,21 +3667,21 @@
         <v>288</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="15"/>
       <c r="O19" s="17" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>62</v>
@@ -3763,7 +3704,7 @@
         <v>120</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>365</v>
+        <v>765</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>74</v>
@@ -3775,18 +3716,18 @@
         <v>96</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="15"/>
       <c r="O20" s="17" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>64</v>
@@ -3809,13 +3750,13 @@
         <v>300</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>310</v>
@@ -3824,15 +3765,15 @@
         <v>45</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="15"/>
       <c r="O21" s="17" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>66</v>
@@ -3840,7 +3781,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>322</v>
@@ -3855,32 +3796,32 @@
         <v>135</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>81</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>67</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="17" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>68</v>
@@ -3902,8 +3843,8 @@
       <c r="E23" s="22">
         <v>50</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>374</v>
+      <c r="F23" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>74</v>
@@ -3912,20 +3853,20 @@
         <v>288</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>70</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="M23" s="24"/>
       <c r="O23" s="24" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="P23" s="25" t="s">
         <v>71</v>
@@ -3947,32 +3888,32 @@
       <c r="E24" s="22">
         <v>30</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>377</v>
+      <c r="F24" s="15" t="s">
+        <v>758</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>75</v>
@@ -3995,31 +3936,31 @@
         <v>60</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>785</v>
+        <v>218</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>77</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>78</v>
@@ -4042,7 +3983,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>386</v>
+        <v>766</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>80</v>
@@ -4057,13 +3998,13 @@
         <v>83</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>84</v>
@@ -4086,7 +4027,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>386</v>
+        <v>766</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>80</v>
@@ -4098,16 +4039,16 @@
         <v>86</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>87</v>
@@ -4142,16 +4083,16 @@
         <v>91</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>92</v>
@@ -4159,7 +4100,7 @@
     </row>
     <row r="29" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>320</v>
@@ -4174,7 +4115,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>377</v>
+        <v>758</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>74</v>
@@ -4189,13 +4130,13 @@
         <v>83</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>94</v>
@@ -4218,7 +4159,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>74</v>
@@ -4233,16 +4174,16 @@
         <v>83</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>97</v>
@@ -4265,7 +4206,7 @@
         <v>35</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>394</v>
+        <v>758</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>74</v>
@@ -4277,16 +4218,16 @@
         <v>99</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>100</v>
@@ -4309,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>74</v>
@@ -4318,25 +4259,25 @@
         <v>81</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>102</v>
@@ -4359,28 +4300,28 @@
         <v>55</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>400</v>
+        <v>767</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>81</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>104</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>105</v>
@@ -4403,7 +4344,7 @@
         <v>8</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>74</v>
@@ -4418,13 +4359,13 @@
         <v>83</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>108</v>
@@ -4447,7 +4388,7 @@
         <v>250</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>74</v>
@@ -4459,16 +4400,16 @@
         <v>107</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>110</v>
@@ -4491,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>74</v>
@@ -4506,13 +4447,13 @@
         <v>112</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>113</v>
@@ -4535,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>74</v>
@@ -4550,13 +4491,13 @@
         <v>112</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>115</v>
@@ -4579,7 +4520,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>74</v>
@@ -4594,13 +4535,13 @@
         <v>117</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>118</v>
@@ -4623,7 +4564,7 @@
         <v>25</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>74</v>
@@ -4635,16 +4576,16 @@
         <v>107</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>120</v>
@@ -4667,7 +4608,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>74</v>
@@ -4682,13 +4623,13 @@
         <v>83</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>122</v>
@@ -4711,7 +4652,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>412</v>
+        <v>766</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>89</v>
@@ -4720,19 +4661,19 @@
         <v>90</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>124</v>
@@ -4755,7 +4696,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>74</v>
@@ -4770,13 +4711,13 @@
         <v>127</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>128</v>
@@ -4799,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>130</v>
@@ -4811,13 +4752,13 @@
         <v>131</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>132</v>
@@ -4840,7 +4781,7 @@
         <v>20</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>74</v>
@@ -4849,21 +4790,21 @@
         <v>134</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>135</v>
@@ -4886,7 +4827,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G45" s="22" t="s">
         <v>74</v>
@@ -4901,15 +4842,15 @@
         <v>24</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>139</v>
@@ -4932,7 +4873,7 @@
         <v>20</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>74</v>
@@ -4941,21 +4882,21 @@
         <v>141</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>142</v>
@@ -4978,7 +4919,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G47" s="22" t="s">
         <v>74</v>
@@ -4993,15 +4934,15 @@
         <v>146</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>147</v>
@@ -5024,7 +4965,7 @@
         <v>40</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>74</v>
@@ -5039,15 +4980,15 @@
         <v>24</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>150</v>
@@ -5070,30 +5011,30 @@
         <v>20</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>152</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>153</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>154</v>
@@ -5116,7 +5057,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>156</v>
@@ -5128,18 +5069,18 @@
         <v>157</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>158</v>
@@ -5162,7 +5103,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>156</v>
@@ -5177,15 +5118,15 @@
         <v>161</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>162</v>
@@ -5208,7 +5149,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>74</v>
@@ -5223,15 +5164,15 @@
         <v>164</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>165</v>
@@ -5254,30 +5195,30 @@
         <v>30</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G53" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>167</v>
@@ -5300,30 +5241,30 @@
         <v>30</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>436</v>
+        <v>764</v>
       </c>
       <c r="G54" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>169</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>170</v>
@@ -5346,7 +5287,7 @@
         <v>20</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>436</v>
+        <v>764</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>172</v>
@@ -5358,18 +5299,18 @@
         <v>138</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>174</v>
@@ -5392,7 +5333,7 @@
         <v>20</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>74</v>
@@ -5407,15 +5348,15 @@
         <v>16</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>177</v>
@@ -5438,7 +5379,7 @@
         <v>30</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>74</v>
@@ -5453,15 +5394,15 @@
         <v>24</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>180</v>
@@ -5484,13 +5425,13 @@
         <v>40</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>153</v>
@@ -5499,15 +5440,15 @@
         <v>24</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>182</v>
@@ -5530,30 +5471,30 @@
         <v>20</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>441</v>
+        <v>768</v>
       </c>
       <c r="G59" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>184</v>
@@ -5576,7 +5517,7 @@
         <v>30</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>74</v>
@@ -5591,15 +5532,15 @@
         <v>24</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>186</v>
@@ -5622,10 +5563,10 @@
         <v>10</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>188</v>
@@ -5637,15 +5578,15 @@
         <v>146</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>189</v>
@@ -5668,10 +5609,10 @@
         <v>45</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>418</v>
+        <v>764</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>191</v>
@@ -5680,18 +5621,18 @@
         <v>153</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>192</v>
@@ -5714,13 +5655,13 @@
         <v>30</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>449</v>
+        <v>769</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>21</v>
@@ -5729,17 +5670,17 @@
         <v>194</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="L63" s="20" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="20" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>195</v>
@@ -5762,32 +5703,32 @@
         <v>30</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>24</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="L64" s="20" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="20" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>198</v>
@@ -5825,19 +5766,19 @@
         <v>200</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="L65" s="20" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="N65" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="O65" s="20" t="s">
         <v>719</v>
-      </c>
-      <c r="O65" s="20" t="s">
-        <v>744</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>201</v>
@@ -5860,13 +5801,13 @@
         <v>30</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>382</v>
+        <v>770</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>21</v>
@@ -5875,17 +5816,17 @@
         <v>146</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="L66" s="20" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="20" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>203</v>
@@ -5908,7 +5849,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>382</v>
+        <v>770</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>197</v>
@@ -5923,15 +5864,15 @@
         <v>24</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="20" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>205</v>
@@ -5954,7 +5895,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>459</v>
+        <v>771</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>206</v>
@@ -5969,15 +5910,15 @@
         <v>318</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="20" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>207</v>
@@ -6000,7 +5941,7 @@
         <v>15</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>386</v>
+        <v>766</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>197</v>
@@ -6015,15 +5956,15 @@
         <v>16</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="20" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>209</v>
@@ -6052,24 +5993,24 @@
         <v>32</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>211</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="L70" s="20" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="20" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>212</v>
@@ -6104,18 +6045,18 @@
         <v>21</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="L71" s="20" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>214</v>
@@ -6150,18 +6091,18 @@
         <v>21</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="L72" s="20" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="20" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>216</v>
@@ -6187,7 +6128,7 @@
         <v>218</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>241</v>
@@ -6199,16 +6140,16 @@
         <v>24</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="M73" s="17" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="O73" s="17" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="P73" s="9" t="s">
         <v>219</v>
@@ -6234,7 +6175,7 @@
         <v>218</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>141</v>
@@ -6243,16 +6184,16 @@
         <v>21</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="P74" s="9" t="s">
         <v>221</v>
@@ -6278,7 +6219,7 @@
         <v>218</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>90</v>
@@ -6287,16 +6228,16 @@
         <v>211</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="P75" s="9" t="s">
         <v>223</v>
@@ -6322,7 +6263,7 @@
         <v>218</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>312</v>
@@ -6331,22 +6272,22 @@
         <v>44</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="L76" s="17" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="M76" s="17" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="P76" s="9" t="s">
         <v>225</v>
@@ -6372,7 +6313,7 @@
         <v>218</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>227</v>
@@ -6381,19 +6322,19 @@
         <v>44</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="P77" s="9" t="s">
         <v>228</v>
@@ -6419,7 +6360,7 @@
         <v>218</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>227</v>
@@ -6428,19 +6369,19 @@
         <v>44</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="O78" s="17" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
       <c r="P78" s="9" t="s">
         <v>230</v>
@@ -6466,7 +6407,7 @@
         <v>218</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>90</v>
@@ -6478,16 +6419,16 @@
         <v>200</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="O79" s="17" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="P79" s="9" t="s">
         <v>232</v>
@@ -6513,7 +6454,7 @@
         <v>218</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>90</v>
@@ -6525,16 +6466,16 @@
         <v>200</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="P80" s="9" t="s">
         <v>234</v>
@@ -6560,7 +6501,7 @@
         <v>218</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>241</v>
@@ -6572,16 +6513,16 @@
         <v>236</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="M81" s="17" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="O81" s="10" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="P81" s="9" t="s">
         <v>237</v>
@@ -6613,25 +6554,25 @@
         <v>241</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="J82" s="15" t="s">
         <v>242</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="L82" s="15" t="s">
         <v>243</v>
       </c>
       <c r="M82" s="17" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="N82" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="O82" s="17" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="P82" s="15" t="s">
         <v>244</v>
@@ -6660,28 +6601,28 @@
         <v>240</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="M83" s="17" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="O83" s="17" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="P83" s="15" t="s">
         <v>246</v>
@@ -6719,16 +6660,16 @@
         <v>249</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="L84" s="15" t="s">
         <v>250</v>
       </c>
       <c r="M84" s="17" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="O84" s="17" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="P84" s="15" t="s">
         <v>251</v>
@@ -6766,19 +6707,19 @@
         <v>254</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="M85" s="17" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="N85" s="17" t="s">
         <v>316</v>
       </c>
       <c r="O85" s="17" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="P85" s="15" t="s">
         <v>255</v>
@@ -6813,22 +6754,22 @@
         <v>253</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="M86" s="17" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="O86" s="17" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="P86" s="15" t="s">
         <v>257</v>
@@ -6857,28 +6798,28 @@
         <v>74</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>127</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="M87" s="17" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="O87" s="17" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="P87" s="15" t="s">
         <v>259</v>
@@ -6907,28 +6848,28 @@
         <v>74</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="J88" s="15" t="s">
         <v>127</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="M88" s="17" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="O88" s="17" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="P88" s="15" t="s">
         <v>261</v>
@@ -6966,19 +6907,19 @@
         <v>265</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="L89" s="17" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="M89" s="17" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="O89" s="17" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="P89" s="15" t="s">
         <v>266</v>
@@ -7016,16 +6957,16 @@
         <v>242</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="L90" s="15" t="s">
         <v>313</v>
       </c>
       <c r="M90" s="17" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="O90" s="17" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="P90" s="15" t="s">
         <v>269</v>
@@ -7054,7 +6995,7 @@
         <v>74</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="I91" s="15" t="s">
         <v>264</v>
@@ -7063,16 +7004,16 @@
         <v>271</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="L91" s="15" t="s">
         <v>314</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="O91" s="17" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="P91" s="15" t="s">
         <v>272</v>
@@ -7101,7 +7042,7 @@
         <v>74</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="I92" s="15" t="s">
         <v>268</v>
@@ -7110,19 +7051,19 @@
         <v>271</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="M92" s="15" t="s">
         <v>274</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="P92" s="15" t="s">
         <v>275</v>
@@ -7151,7 +7092,7 @@
         <v>74</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="I93" s="15" t="s">
         <v>264</v>
@@ -7160,19 +7101,19 @@
         <v>277</v>
       </c>
       <c r="K93" s="17" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="L93" s="15" t="s">
         <v>278</v>
       </c>
       <c r="M93" s="17" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="N93" s="17" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="O93" s="17" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="P93" s="15" t="s">
         <v>279</v>
@@ -7201,28 +7142,28 @@
         <v>74</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="M94" s="17" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="N94" s="17" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="O94" s="17" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="P94" s="15" t="s">
         <v>281</v>
@@ -7257,22 +7198,22 @@
         <v>283</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="L95" s="17" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="M95" s="17" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="N95" s="17" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="O95" s="17" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="P95" s="15" t="s">
         <v>284</v>
@@ -7310,16 +7251,16 @@
         <v>242</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="M96" s="17" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="O96" s="17" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="P96" s="15" t="s">
         <v>286</v>
@@ -7357,19 +7298,19 @@
         <v>242</v>
       </c>
       <c r="K97" s="17" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="L97" s="15" t="s">
         <v>290</v>
       </c>
       <c r="M97" s="17" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="N97" s="17" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="O97" s="17" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="P97" s="15" t="s">
         <v>291</v>
@@ -7398,28 +7339,28 @@
         <v>293</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="I98" s="15" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="J98" s="15" t="s">
         <v>294</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="L98" s="15" t="s">
         <v>295</v>
       </c>
       <c r="M98" s="17" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="N98" s="17" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="O98" s="17" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="P98" s="15" t="s">
         <v>296</v>
@@ -7448,28 +7389,28 @@
         <v>74</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="M99" s="17" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="N99" s="17" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="O99" s="17" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="P99" s="15" t="s">
         <v>298</v>
@@ -7498,28 +7439,28 @@
         <v>293</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="J100" s="15" t="s">
         <v>300</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="M100" s="17" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="N100" s="17" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="O100" s="17" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="P100" s="15" t="s">
         <v>301</v>
@@ -7557,16 +7498,16 @@
         <v>305</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="L101" s="15" t="s">
         <v>315</v>
       </c>
       <c r="M101" s="17" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="O101" s="17" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="P101" s="15" t="s">
         <v>306</v>
@@ -7633,6 +7574,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008391A78A96E52D49B7547661E7A4BF06" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f85b5808450112fb8a7ca44957bb917">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40cda520-8ac8-43fb-9853-1ab640917454" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4771e6a9242bec3fb156c39d4a4cbe5" ns2:_="">
     <xsd:import namespace="40cda520-8ac8-43fb-9853-1ab640917454"/>
@@ -7780,35 +7736,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF8687-F08D-4160-94B0-189397DE676C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="40cda520-8ac8-43fb-9853-1ab640917454"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7830,9 +7761,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF8687-F08D-4160-94B0-189397DE676C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="40cda520-8ac8-43fb-9853-1ab640917454"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/recipeData/CombineRecipes.xlsx
+++ b/recipeData/CombineRecipes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hokok.AUTH\git\MTech-KE-CBR\recipeData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\YL\MTech\KE-CBR\project\MTech-KE-CBR\recipeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Nonya and Vege" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="603">
   <si>
     <t>Name</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Chicken and mushroom rice</t>
   </si>
   <si>
-    <t>main course</t>
-  </si>
-  <si>
     <t>http://www.hungrygowhere.com/recipe/chicken-and-mushroom-rice-recipe/d07c3101/</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>wok</t>
   </si>
   <si>
-    <t>seafood</t>
-  </si>
-  <si>
     <t>http://www.hungrygowhere.com/recipe/black-pepper-crab-recipe/627c3101/</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Lotus root soup</t>
   </si>
   <si>
-    <t>soup</t>
-  </si>
-  <si>
     <t>pot</t>
   </si>
   <si>
@@ -296,9 +287,6 @@
     <t>Hokkien festive glutinous rice</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>http://www.hungrygowhere.com/recipe/hokkien-festive-glutinous-rice-recipe/367f3101/</t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t>Fish tempra</t>
   </si>
   <si>
-    <t>fish</t>
-  </si>
-  <si>
     <t>http://www.hungrygowhere.com/recipe/fish-tempra-recipe/c57e3101/</t>
   </si>
   <si>
@@ -332,9 +317,6 @@
     <t>Fried egg noodles</t>
   </si>
   <si>
-    <t>noodle</t>
-  </si>
-  <si>
     <t>http://www.hungrygowhere.com/recipe/fried-egg-noodles/81803101/</t>
   </si>
   <si>
@@ -359,18 +341,12 @@
     <t>Chinese Pepper Steak</t>
   </si>
   <si>
-    <t>beef</t>
-  </si>
-  <si>
     <t>http://allrecipes.com/recipe/172704/chinese-pepper-steak/</t>
   </si>
   <si>
     <t>Hong Kong Style Egg Tarts</t>
   </si>
   <si>
-    <t>dessert</t>
-  </si>
-  <si>
     <t>http://allrecipes.com/recipe/54600/hong-kong-style-egg-tarts/?internalSource=search%20result&amp;referringContentType=search%20results</t>
   </si>
   <si>
@@ -425,9 +401,6 @@
     <t>Breakfast</t>
   </si>
   <si>
-    <t>Low flame heat</t>
-  </si>
-  <si>
     <t>http://rasamalaysia.com/images/Roti%20Paratha.pdf</t>
   </si>
   <si>
@@ -449,9 +422,6 @@
     <t>Tandoori Shrimp</t>
   </si>
   <si>
-    <t>Shrimp / Prawn</t>
-  </si>
-  <si>
     <t>http://rasamalaysia.com/tandoori-shrimp/2/#zGyebefiZFJGPyFI.99</t>
   </si>
   <si>
@@ -476,9 +446,6 @@
     <t>Sides</t>
   </si>
   <si>
-    <t>Stir Fry Pan</t>
-  </si>
-  <si>
     <t>http://rasamalaysia.com/aloo-gobi-recipe/2/#AsSGyyIvhh4B0i1V.99</t>
   </si>
   <si>
@@ -494,9 +461,6 @@
     <t>Butter Chicken</t>
   </si>
   <si>
-    <t>Large fry pan</t>
-  </si>
-  <si>
     <t>http://rasamalaysia.com/butter-chicken/2/#tfpfO4qPJy1qg6qG.99</t>
   </si>
   <si>
@@ -521,18 +485,12 @@
     <t>Chapati</t>
   </si>
   <si>
-    <t>Hot Plate or Large Frying Pan</t>
-  </si>
-  <si>
     <t>http://rasamalaysia.com/chapati-recipe/2/#C6eM47yGmxqF8a5I.99</t>
   </si>
   <si>
     <t>Mango Chutney</t>
   </si>
   <si>
-    <t>Cooking Pan</t>
-  </si>
-  <si>
     <t>http://rasamalaysia.com/mango-chutney/2/#OKbGTeK4EGwGfuIt.99</t>
   </si>
   <si>
@@ -629,9 +587,6 @@
     <t>Pisang Goreng (Indonesian Banana Fritters)</t>
   </si>
   <si>
-    <t>Deep Fryer</t>
-  </si>
-  <si>
     <t>http://allrecipes.asia/recipe/668/pisang-goreng--indonesian-banana-fritters-.aspx?o_is=LV</t>
   </si>
   <si>
@@ -689,21 +644,12 @@
     <t>fry</t>
   </si>
   <si>
-    <t>eggs</t>
-  </si>
-  <si>
     <t>http://www.bbcgoodfood.com/recipes/1720/perfect-scrambled-eggs</t>
   </si>
   <si>
     <t>American blueberry pancakes</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>pancakes</t>
-  </si>
-  <si>
     <t>http://www.bbcgoodfood.com/recipes/4915/american-blueberry-pancakes</t>
   </si>
   <si>
@@ -734,9 +680,6 @@
     <t>roast</t>
   </si>
   <si>
-    <t>chicken</t>
-  </si>
-  <si>
     <t>http://www.food.com/recipe/the-infamous-lemon-chicken-recipe-185893</t>
   </si>
   <si>
@@ -752,9 +695,6 @@
     <t>barbecue pork ribs</t>
   </si>
   <si>
-    <t>pork</t>
-  </si>
-  <si>
     <t>http://www.chowhound.com/recipes/easy-bbq-baby-back-pork-ribs-30741</t>
   </si>
   <si>
@@ -809,9 +749,6 @@
     <t>pasta salad</t>
   </si>
   <si>
-    <t>pasta</t>
-  </si>
-  <si>
     <t>http://allrecipes.com/recipe/149799/easy-cold-pasta-salad/</t>
   </si>
   <si>
@@ -824,9 +761,6 @@
     <t>macaroni salad</t>
   </si>
   <si>
-    <t>macaroni</t>
-  </si>
-  <si>
     <t>http://allrecipes.com/recipe/81108/classic-macaroni-salad/</t>
   </si>
   <si>
@@ -839,18 +773,12 @@
     <t>mix</t>
   </si>
   <si>
-    <t>cabbage</t>
-  </si>
-  <si>
     <t>http://allrecipes.com/recipe/64116/creamy-spiced-coleslaw/</t>
   </si>
   <si>
     <t>Steam</t>
   </si>
   <si>
-    <t>Heat proof plate</t>
-  </si>
-  <si>
     <t>steamer</t>
   </si>
   <si>
@@ -875,9 +803,6 @@
     <t>dried shrimps;Nyonya Sambal chilly;fine sugar;lime leaves</t>
   </si>
   <si>
-    <t>Rice; Vegetable</t>
-  </si>
-  <si>
     <t>vegetarian chicken;cooking oil;glutinous rice;blue pea flower;hemp string;pandan leaves;salt;dried bamboo leaves;biryani powder;water;mushroom stock;brown sugar;winter melon;dried chilly;lemongrass;blue ginger;turmeric</t>
   </si>
   <si>
@@ -887,78 +812,45 @@
     <t>chicken;meat curry powder;chilly powder;cooking oil;potato;water;curry leaf;coconut milk;tamarind peel;salt2 stalks lemon grass;cinnamon stick;anise;cardamon;shallots;garlic;ginger</t>
   </si>
   <si>
-    <t>Seafood; Vegetable</t>
-  </si>
-  <si>
     <t>small prawn;garlic;White cabbage;green bean;leeks;carrot;Chinese mushrooms;light soy sauce;salt;Pepper;sugar;Popiah skin;Chinese lettuce;Chinese sausages;egg;cucumber;bean sprout;coriander;Fried garlic;roasted peanuts;Sweet black soy sauce;garlic paste;red chilly</t>
   </si>
   <si>
     <t>Sago Pearl;Gula Melaka;Coconut Milk;Pandan Leaf;Water;Salt</t>
   </si>
   <si>
-    <t>Fish; Fruit; Seafood; Vegetable</t>
-  </si>
-  <si>
     <t>yam bean;guava;cucumber;carrot;green papaya;pomelo sac;rice flour;tapioca flour;egg;water;salt;sugar;small prawn;galangal;bird’s eye chilly;fresh red chilly;plum sauce;salt;cooking oil;crushed fried peanuts;toasted sesame seeds</t>
   </si>
   <si>
-    <t>Fish; Seafood</t>
-  </si>
-  <si>
     <t>horse mackerel;tamarind paste;dried shrimp paste;lemongrass;chilly;onion;lime leave;salt;sugar;line</t>
   </si>
   <si>
     <t>spring roll wrappers;flour;cooking oil;curry Leaves;mustard seed;cumin; garlic;onion; fish curry powder; pumpkin; water; green peas; coconut milk; sugar; salt</t>
   </si>
   <si>
-    <t>Vegetable; Fruit</t>
-  </si>
-  <si>
     <t>cooking oil;cinnamon stick;star anise;clove;shallot;garlic;fish curry powder;water;tamarind paste;palm sugar;pineapple;coconut milk;salt</t>
   </si>
   <si>
-    <t>Chicken; Pork</t>
-  </si>
-  <si>
     <t>chicken;belly pork;cooking oil;bean paste;palm sugar;shitake mushroom;water;potato;dark soya sauce;salt;shallot;garlic</t>
   </si>
   <si>
-    <t>Noodle; Seafood</t>
-  </si>
-  <si>
     <t>cooking oil;shallots;garlic;shallot;soya bean paste;prawn;chicken;yellow egg noodles;mustard green;bean sprout;water;dark soya sauce;light soya sauce;sugar;white pepper;Salt;fresh red chilly;red chilly padi;belachan;shallot crisp</t>
   </si>
   <si>
     <t>cooking oil;onion;chicken;brown sugar;kaffir lime leave;water;coconut milk;lime juice;Salt;shallot;garlic;ginger;galangal;turmeric;candle nut;lemon grass;dried chilly;bird’s eye chilly;belachan</t>
   </si>
   <si>
-    <t>Rice; Pork</t>
-  </si>
-  <si>
     <t>glutinous rice;dried prawns;lean pork;candied winter melon;lemon grass;knob galangal;dried chilly;garlic;shallot;coriander seed;sugar;Blue pea flowers;pandan leave</t>
   </si>
   <si>
     <t>hard tofu;sweet corn kernel;red bell pepper;snow pea pod;chilly paste;shallot;garlic;honey;salt</t>
   </si>
   <si>
-    <t>Noodle; Pork; Vegetable</t>
-  </si>
-  <si>
     <t>round cabbage;pork belly;dried black fungus;dried lily buds;sweet dried bean curd;dried tang hoon;dried mushrooms;dried prawn;fresh garlic;tau cheoh paste;dark soya sauce;cooking oil;chicken seasoning powder</t>
   </si>
   <si>
     <t>chicken drummets;ginger juice; corn flour;chilly flakes;oyster sauce; chicken stock granules; dark soya sauce;lime leaves;honey;salt</t>
   </si>
   <si>
-    <t>Vegetable; Turkey</t>
-  </si>
-  <si>
-    <t>turkey;onion;carrot; celery;Thai sweet basil;kaffir lime leave;laksa leaves;salt;dried shrimp paste;vegetable or olive oil;Pepper;kaffir lime leaves;corn flour;white wine</t>
-  </si>
-  <si>
-    <t>steamer;rectangle cake pan</t>
-  </si>
-  <si>
     <t>sweet potato flesh;coarse sugar;water;tapioca flour;thick coconut milk;salt;coconut flesh</t>
   </si>
   <si>
@@ -968,63 +860,24 @@
     <t>pork belly;tamarind paste;water;salt;sugar</t>
   </si>
   <si>
-    <t>Wok; claypot</t>
-  </si>
-  <si>
-    <t>Chicken; Rice</t>
-  </si>
-  <si>
     <t>skinless chicken breast;chicken drumsticks;rice;corn oil;ginger;scallion;mushroom;oyster sauce;soy sauce;corn starch;sesame oil;white pepper;sugar;shaoxing wine;dark soy sauce;salt</t>
   </si>
   <si>
-    <t>noodle; seafood;pork</t>
-  </si>
-  <si>
-    <t>corn cooking oil;water;pork ribs;salt;yellow noodle;dried vermicelli;dried chiilies;shallot;garlic;prawn heads and shells;rock sugar;salt;sugar;eggs kang kong;bean sprout;shallot crips</t>
-  </si>
-  <si>
-    <t>black pepper;melted unsalted butter;garlic;onion;crab;oyster sauce;sugar;water;salt</t>
-  </si>
-  <si>
-    <t>pork; vegetable</t>
-  </si>
-  <si>
     <t>pork mince;onion;patato;frozen peas;dark soya sauce;salt;stick of cinnamon;clovea;pepper;vegetable oil</t>
   </si>
   <si>
-    <t>chicken; pork</t>
-  </si>
-  <si>
-    <t>water;chicken meat or spare ribs;dried squid;chicken stock granules;date;pepper;carrot;lotus root;salt</t>
-  </si>
-  <si>
-    <t>claim; onion;garlic;vegetable oil;chinese rice wine;ginger;chilies;sasame oil;spring onion;light soya sauce</t>
-  </si>
-  <si>
     <t>prawn;butter;salt;pepper</t>
   </si>
   <si>
-    <t>fish;rice</t>
-  </si>
-  <si>
     <t>fish fillet;fish bones;ginger;tianjin preserved vegetable;dried seaweed;light soya sauce;sesame oil;rice wine;pepper;hua tiao wine;water;spring onion;coriander;cooked rice</t>
   </si>
   <si>
-    <t>fish;seafood</t>
-  </si>
-  <si>
     <t>cod fillet;salt;white pepper;tomato;sour plum;silken tofu;ginger;cooking oil;garlic;pork;preserved mustard;water;soy sauce;shaoxing wine;sugar;onion;coriander</t>
   </si>
   <si>
-    <t>glutinous rice;chinese dried mushroom;chinese sausage;dried prawn;shallot;peanut;salt;light and dark soya sauce;spring onion</t>
-  </si>
-  <si>
     <t>prawn;garlic;wolfberry;chinese rice wine;sugar;chicken bouillon;salt;water</t>
   </si>
   <si>
-    <t>rice;pork</t>
-  </si>
-  <si>
     <t>glutinous rice;pork hock with skin;lean pork;dried shiitake mushroom;chinese chestnut;garlic;soy sauce;five-spice powder;salt;pepper;salted egg yolk;bamboo leave</t>
   </si>
   <si>
@@ -1043,24 +896,15 @@
     <t>butter;cooking oil;shallot;eye chilies;bird eye chilies;curry leave;salted egg yolk;evaporated milk;water;prawn;sugar;salt</t>
   </si>
   <si>
-    <t>noodle;chicken;seafood</t>
-  </si>
-  <si>
     <t>garlic;ginger;onion;pork belly;prawn;clam;cabbage;celery;carrot;chinese chive;chinese mushroom;wheat flour noodle;chicken stock;hua tiao wine;salt;chicken powder;oyster sauce;sugar;peanut;seaweed;onion;pepper powder</t>
   </si>
   <si>
     <t>beef top sirlion steak;soy sauce;sugar;corn starch;ginger;vegetable oil;onion;green bell pepper;tomato</t>
   </si>
   <si>
-    <t>confectioner sugar;flour;egg;butter;dash vanilla;sugar;water;evaporated milk</t>
-  </si>
-  <si>
     <t>chicken; potatoes; oil; chicken curry powder; onions; lemon grass; water; coconut milk; evaporated milk; salt; sugar; curry leaves; garlic; shallot; lemon grass</t>
   </si>
   <si>
-    <t>chicken whole legs; potatoes; Cooking oil; water; coconut milk; tomatoes; salt; sugar; cinnamon stick; cloves; cardamons; bay leaf; big onion; green chillies; young ginger;  green chillies; shallots; garlic; cashew nuts; coriander seeds; fennel; cumin; turmeric powder;  peppercorns; coriander leaves; shallot crisps</t>
-  </si>
-  <si>
     <t>basmati rice; cardamom; cloves; cinnamon stick; saffron strands; water; salt; boneless chicken leg; Indian yoghurt;  smoked paprika; grated ginger; cracked black pepper; turmeric powder; cumin powder; sea salt</t>
   </si>
   <si>
@@ -1070,132 +914,33 @@
     <t xml:space="preserve">chicken legs; Oil; lime; Greek yogurt; minced ginger; minced garlic; Garam Masala; cayenne pepper; lime juice; oil; salt; turmeric powder; Red coloring </t>
   </si>
   <si>
-    <t>Large fry pan; rolling pin</t>
-  </si>
-  <si>
-    <t>Flour; Egg</t>
-  </si>
-  <si>
-    <t>All purpose flour; Kosher salt; Granulated sugar; Ghee; Egg; milk; water</t>
-  </si>
-  <si>
-    <t>Flour; Potato</t>
-  </si>
-  <si>
-    <t>all-purpose flour; semolina (cream of wheat); oil; salt; ajwain seeds (optional); water; medium sized potatoes; sweet green peas; thinly sliced onions; cumin seeds; minced green chili; coriander powder</t>
-  </si>
-  <si>
     <t>ripe mangoes; honey; ice; plain yogurt</t>
   </si>
   <si>
-    <t>shrimp (tiger prawn); Bamboo skewers; water; Oil; chopped cilantro; 1 lime;  Greek yogurt; finely minced garlic; Garam Masala; chili powder; lime juice; oil; salt; turmeric powder; Red coloring</t>
-  </si>
-  <si>
-    <t>Oven; Stir Fry Pan</t>
-  </si>
-  <si>
     <t>Tandoori Chicken; butter; finely minced ginger; finely minced garlic; canned tomato paste; chili powder; Garam Masala; ketchup; teaspoon sugar; Salt; water; heavy whipped cream; cilantro leaves</t>
   </si>
   <si>
-    <t>Cauliflower; Potatoes</t>
-  </si>
-  <si>
-    <t>medium cauliflower; russet potatoes; canola oil; black mustard seeds; cumin seeds; coriander seeds; onion; Jalapeno or hot green pepper; tomato; garlic; fresh ginger;  chili powder;  turmeric powder; salt; water</t>
-  </si>
-  <si>
-    <t>seafood curry paste; large prawns; squids; scallops; seabass fillet; 1 tomato; coconut milk; tamarind pulp; shallots; water; oil; Salt; curry leaves</t>
-  </si>
-  <si>
-    <t>Blender; Pot</t>
-  </si>
-  <si>
-    <t>Pizza; Chicken</t>
-  </si>
-  <si>
-    <t>boneless skinless chicken breast; vegetable oil; minced garlic; fresh ginger; onion; cumin seeds; green cardamom; ripe tomato; turmeric; red pepper (cayenne); salt; black pepper</t>
-  </si>
-  <si>
-    <t>wheat flour (or stone ground drum-wheat also known as “Atta”); water; salt</t>
-  </si>
-  <si>
-    <t>Breakfast; Sides; Sauce</t>
-  </si>
-  <si>
-    <t>Jam; Sauce</t>
-  </si>
-  <si>
     <t>rie firm green mango; cinnamon; cloves; cumin seeds; coriander seeds; cardamom; ginger; dry red chilly; garlic; demerara suga; vinegar; water; salt</t>
   </si>
   <si>
-    <t>Oven;Piping bag;Plain nozzle</t>
-  </si>
-  <si>
     <t xml:space="preserve">almonds; icing sugar; aged egg whites; caster sugar; pink food colouring powder; rose essence                                                                                                                                            </t>
   </si>
   <si>
-    <t>food processor;frying pan</t>
-  </si>
-  <si>
-    <t>large onions; turmeric root; slices of lengkwas (galangal) root; stalks lemongrass; red chillies; candlenuts; tablespoon  belacan (shrimp paste); teaspoon  chopped garlic; chicken; coconut milk; water; teaspoons  salt; White pepper; sugar</t>
-  </si>
-  <si>
-    <t>vegetable oil; onions; screw pine leaves (daun pandan); 1 kg lean beef; coconut cream (santan pekat); water; tamarind pulp; desiccated coconut (kerisik); sugar; Salt</t>
-  </si>
-  <si>
-    <t>ghee; plain flour</t>
-  </si>
-  <si>
-    <t>Oil ; chicken; garlic powder; salt;ground turmeric ; ground nutmeg; butter</t>
-  </si>
-  <si>
-    <t>red onions; red bell pepper; large red chilli; honey red tomatoes; bulb garlic; stick cinnamon; fish sauce; sugar; oil</t>
-  </si>
-  <si>
-    <t>beancurd; chunky peanut butter; Hoisin sauce; water; vegetable oil; Salt; pepper; crabmeat; lime; cucumber; carrot</t>
-  </si>
-  <si>
-    <t>Piping bag; Plain nozzle; round bundt pan</t>
-  </si>
-  <si>
-    <t>Fruit; Flour</t>
-  </si>
-  <si>
-    <t>royal gala apples; sugar; butter; margarine; salt; castor sugar; vanilla extract; plain flour; baking powder; ground almonds; ground cinnamon; Grade A eggs; milk</t>
-  </si>
-  <si>
     <t>ripe bananas; lemon juice; full cream milk; vanilla paste; baking powder; butter; sugar; eggs; flour; walnuts; chopped candied ginger; Vanilla ice-cream</t>
   </si>
   <si>
-    <t>butter; salt; sugee (polenta); fresh milk; caster sugar; Grade A eggs; orange; self-raising flour; brandy (optional); pineapple; brown sugar; cream</t>
-  </si>
-  <si>
     <t>Chicken; water; Salam Leaf; Oil; cloves; Garlic; Coriander; Ginger; Galangal</t>
   </si>
   <si>
-    <t>butter; flour; mixed spice (ground cinnamon; cloves; anise and cardamon); egg yolk; egg white; caster sugar; vanilla essence</t>
-  </si>
-  <si>
-    <t>Coconut milk; Adzuki Beans</t>
-  </si>
-  <si>
     <t>dried adzuki beans; coconut milk; water; ginger; brown sugar; salt</t>
   </si>
   <si>
-    <t>Tofu; Chicken</t>
-  </si>
-  <si>
     <t>white tofu; prawns; minced chicken; green onion;  egg; salt; white pepper; sesame oil; cornflour</t>
   </si>
   <si>
-    <t>Banana; Flour</t>
-  </si>
-  <si>
     <t>plain flour; caster sugar; vanilla essence; milk; egg</t>
   </si>
   <si>
-    <t>Vegetables; Peanut Sauce</t>
-  </si>
-  <si>
     <t>iceberg lettuce; potatoes; green beans;  bean sprouts;  Chinese cabbage;  tomatoes; red onion;  spring onions; cucumber; red chillies; eggs; tofu</t>
   </si>
   <si>
@@ -1208,57 +953,12 @@
     <t>squid; shallots; garlic; ginger; turmeric powder</t>
   </si>
   <si>
-    <t>heat; fry</t>
-  </si>
-  <si>
-    <t>frying pan; grill</t>
-  </si>
-  <si>
-    <t>fry; grill</t>
-  </si>
-  <si>
-    <t>eggs; bacon; sausage</t>
-  </si>
-  <si>
-    <t>egg; toast; salmon</t>
-  </si>
-  <si>
     <t>frying pan; sauce pan</t>
   </si>
   <si>
     <t>frying pan; oven</t>
   </si>
   <si>
-    <t>fry; bake</t>
-  </si>
-  <si>
-    <t>pastry brush; oven; grill</t>
-  </si>
-  <si>
-    <t>oven; saucepan</t>
-  </si>
-  <si>
-    <t>smoker; pot</t>
-  </si>
-  <si>
-    <t>smoke; boil</t>
-  </si>
-  <si>
-    <t>clams; pasta</t>
-  </si>
-  <si>
-    <t>pasta; vegetables</t>
-  </si>
-  <si>
-    <t>pot; bowl</t>
-  </si>
-  <si>
-    <t>pot; saucepan; bowl</t>
-  </si>
-  <si>
-    <t>pasta; sausage</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Heat oven to 150°C. ;2. Rinse dried shrimp. Dry with paper towels. ;3. Put dried shrimp into a food processor. Blitz until coarsely chopped. ;4. Place on oven tray, sprayed first with oil and add sambal chilly (and sugar, if using). Using a spoon, rub sambal well in till evenly mixed; the even red colour will indicate that the mixing has been done. ;5. Roast mixture in the oven for about 15 minutes or till golden brown. Scatter kaffir lime leaves at the end. Stir in and leave in the oven with the heat turned off for a few more minutes. ;6. Remove tray from the oven and cool. ;7. Place cooled dried shrimp into sterilised bottles. </t>
   </si>
   <si>
@@ -1331,9 +1031,6 @@
     <t>Heat 3 tablespoons oil in a wok and fry garlic, ginger and onions until fragrant.;Add in the other ingredients (pork, prawns, clams, vegetables) and mix well. Add chicken stock.;Add in wheat flour noodles and fry it over high heat for about 30 seconds to induce ‘wok hei’. Ensure that the noodles are not clumping together. (you can use the mee hoon kway noodles that you find in supermarkets);Add seasoning and allow the noodles to braise for a while.;Thicken the soup lightly with a little corn flour mixture.;Splash Hua Tiao wine around the wok just before serving and toss well. Transfer to bowl.;Garnish with peanuts, seaweed, spring onions and a dash of pepper powder. Serve.</t>
   </si>
   <si>
-    <t>clean the fish and make slashes across the thickest part of the fish.;Rinse and pat dry, dust lightly with corn flour.;Heat up a wok without any oil and dry fry the salted vegetables for a few minutes. Add a little oil and the plums and half the tomatoes.";Whisk together soy sauce, sugar, cornstarch, and ginger in a bowl until the sugar has dissolved and the mixture is smooth. Place the steak slices into the marinade, and stir until well-coated.;Heat 1 tablespoon of vegetable oil in a wok or large skillet over medium-high heat, and place easy of the steak strips into the hot oil. Cook and stir until the beef is well-browned, about 3 minutes, and remove the beef from the wok to a bowl. Repeat twice more, with the remaining beef, and set the cooked beef aside.;Return all the cooked beef to the hot wok, and stir in the onion. Toss the beef and onion together until the onion begins to soften, about 2 minutes, then stir in the green pepper. Cook and stir the mixture until the pepper has turned bright green and started to become tender, about 2 minutes, then add the tomatoes, stir everything together, and serve.</t>
-  </si>
-  <si>
     <t>1 Cut potatoes into pieces and deep fry them until golden brown. Set aside;2 Combine all Ingredient A in a blender and blend well.;3 Heat up cooking oil, add in Ingredients A and stir-fry with low heat until fragrant.;4 Add in onions, lemon grass, curry powder and have a few quick stirs.;5 Add in chicken, potatoes and water. Cover up and cook until the chicken pieces are thoroughly cooked.;6 Add coconut milk, evaporated milk, sugar, salt and cook until the curry boils. Add curry leaves</t>
   </si>
   <si>
@@ -1565,96 +1262,21 @@
     <t>Cooking Oil;water;tamarind pulp;Mackerel;Kaffir Lime Leaves;Sugar;Salt;Lady Finger;dried chillye;shallot;garlic;candlenut;turmeric;galangal;lemongrass;belachan</t>
   </si>
   <si>
-    <t>vegetable oil; cumin seeds; large onion; ginger-garlic paste; medium sized ripe tomatoes; coriander powder; cumin powder; turmeric powder; chili powder; dry kasoori methi; heavy cream; Salt; white button mushrooms;  large green or red bell pepper; turmeric; chili powderreek yogurt or strained yogurt</t>
-  </si>
-  <si>
-    <t>1 tablespoon oil</t>
-  </si>
-  <si>
-    <t>chicken(thigh meat); ginger paste; garlic paste; red chili powder; ground black pepper; Salt; Oil; lime or lemon juice; food color (deep orange); large tomatoes; garlic paste; ginger paste; jalapeno; cinnamon; bay leaf; cloves; green cardamom; whole black pepper; ketchup; sugar; red chili powder; dried fenugreek leaves; Salt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> oil</t>
-  </si>
-  <si>
-    <t>2 tablespoon butter</t>
-  </si>
-  <si>
-    <t>Water (1/2 cup + about 1/2 cup)</t>
-  </si>
-  <si>
-    <t>1 whole chicken; cut up into 8 pieces and skin removed onion; chopped</t>
-  </si>
-  <si>
     <t>tomato paste; Salt; pepper; oil; white vinegar; red Chilly peppers; cloves; garlic; fresh ginger; paprika powder; cinnamon; cumin; dry mustard; sugar</t>
   </si>
   <si>
-    <t xml:space="preserve">skinless and boneless chicken breast; butter; garlic; jalapeno; Salt; pizza crust; Olive oil; onion; mozzarella cheese; coriander leaves or cilantro; cumin; cayenne pepper; garam masala; fresh ginger; salt; black pepper; lemon juice; plain yogurt; cinnamon; tomato sauce; plain yogurt; cumin; </t>
-  </si>
-  <si>
     <t xml:space="preserve">paprika; garam masala; </t>
   </si>
   <si>
-    <t>plain flour</t>
-  </si>
-  <si>
-    <t>baking soda</t>
-  </si>
-  <si>
-    <t>baking powder</t>
-  </si>
-  <si>
-    <t>egg; milk</t>
-  </si>
-  <si>
-    <t>light sour cream</t>
-  </si>
-  <si>
-    <t>mustard</t>
-  </si>
-  <si>
-    <t>horseradish cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chives</t>
-  </si>
-  <si>
-    <t>black pepper</t>
-  </si>
-  <si>
-    <t>smoked salmon</t>
-  </si>
-  <si>
-    <t>unsmoked back bacon</t>
-  </si>
-  <si>
-    <t>portabello mushroom</t>
-  </si>
-  <si>
-    <t>cherry tomatoes</t>
-  </si>
-  <si>
     <t>Chinese</t>
   </si>
   <si>
-    <t>main course; Breakfast; Sides</t>
-  </si>
-  <si>
     <t>Clams in Chinese rice wine ginger and chili</t>
   </si>
   <si>
-    <t>Oven;Brass moulds</t>
-  </si>
-  <si>
     <t>steam</t>
   </si>
   <si>
-    <t>boil; fry</t>
-  </si>
-  <si>
-    <t>Boil; Fry</t>
-  </si>
-  <si>
     <t>Boil</t>
   </si>
   <si>
@@ -1664,373 +1286,556 @@
     <t>Cook method</t>
   </si>
   <si>
-    <t>fry; Boil</t>
-  </si>
-  <si>
-    <t>Grill; Boil</t>
-  </si>
-  <si>
-    <t>fry; steam</t>
-  </si>
-  <si>
-    <t>fry;boil</t>
-  </si>
-  <si>
-    <t>Fry</t>
-  </si>
-  <si>
-    <t>bake; Grill</t>
-  </si>
-  <si>
-    <t>bake; Roast</t>
-  </si>
-  <si>
-    <t>bake; fry</t>
-  </si>
-  <si>
     <t>Blend</t>
   </si>
   <si>
-    <t>breakfast</t>
-  </si>
-  <si>
-    <t>sauce</t>
-  </si>
-  <si>
-    <t>Chinese ; Nyonya</t>
-  </si>
-  <si>
     <t>Indian</t>
   </si>
   <si>
-    <t>Indian;Vegetarian</t>
-  </si>
-  <si>
-    <t>Chinese; Nyonya</t>
-  </si>
-  <si>
-    <t>Chinese; Vegetarian</t>
-  </si>
-  <si>
-    <t>Malay/Indonesian</t>
-  </si>
-  <si>
-    <t>Malay/Indonesian;Nyonya</t>
-  </si>
-  <si>
-    <t>Malay/Indonesian; Nyonya; Vegetarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nyonya;Malay/Indonesian</t>
-  </si>
-  <si>
-    <t>Nyonya;Vegetarian</t>
-  </si>
-  <si>
-    <t>Indian; Vegetarian</t>
-  </si>
-  <si>
-    <t>20 pieces spring roll wrappers; 3 tablespoons plain flour; cooking oil;2 tablespoons cooking oil ; 2 springs curry Leaves ; 1 teaspoon mustard seeds ; 1/4 teaspoon cumin ; 1 clove garlic; 1 big onion; 3 tablespoons fish curry powder; 350 g pumpkin; 80 ml water; 50 g green peas; 2 tablespoons coconut milk ; 1 teaspoon sugar ; 1 teaspoon salt;</t>
-  </si>
-  <si>
-    <t>300g chicken;300g belly pork;6 tablespoons cooking oil;1.5 tablespoons bean paste or tau cheo;40g palm sugar;10 dried shitake mushrooms;80ml water;2 potatoes;1 teaspoon dark soya sauce;2 teaspoons salt;20 shallots;3 cloves garlic;</t>
-  </si>
-  <si>
     <t>6 tablespoons cooking oil;3 shallots;2 cloves garlic;2 shallots;1 tablespoon soya bean paste;150g prawns;100g chicken meat;400g fresh yellow egg noodles;3 stalks mustard green “choy sum”;1 cup bean sprouts;0.5 cup water;0.5 teaspoon dark soya sauce;1 tablespoon light soya sauce;2 teaspoons sugar;0.25 teaspoon ground white pepper;0.5 teaspoon of Salt;8 stalks fresh red chilly;3 stalks red chilly padi;40g toasted belachan;5g of Shallot crisps</t>
   </si>
   <si>
-    <t>100 ml cooking oil; 1 big onion; 700 g chicken; 1/2 tablespoon brown sugar; 3 pieces kaffir lime leaves; 125 ml water; 125 ml thick coconut milk; 1 tablespoon lime juice; Salt;150g shallots;1 clove garlic;10g young ginger;10g galangal;10g turmeric;2 candle nuts;2 stalks lemon grass;5 stalks dried chilly;5 stalks bird’s eye chilly;10g toasted belachan;</t>
-  </si>
-  <si>
-    <t>2 pieces hard tofu (tau kwa);100g sweet corn kernels;1 red bell pepper;8 snow pea pods;1 tablespoon chilly paste;4 shallots;2 cloves garlic;1 tablespoon honey;1 teaspoon salt;</t>
-  </si>
-  <si>
-    <t>500g glutinous rice;1 tablespoon freshly ground turmeric;1 pc tamarind peel;1 teaspoon pepper corns;0.5  teaspoon of salt;32 pcs dried bamboo leaves;5 meters hemp string;118ml cooking oil;35 stalks dried chilly;320 g shallots;4 tablespoons sugar ;1 teaspoon salt;250g dried prawns;</t>
-  </si>
-  <si>
-    <t>1 skinless chicken breast;2 chicken drumsticks;2 cups rice;2 tablespoons oil;5cm piece of ginger;1 stalk scallion;6 shiitake mushrooms;CHICKEN MARINADE;2 tablespoons oyster sauce;1 tablespoon soy sauce;0.5 teaspoon corn starch;0.5 teaspoon sesame oil;3 dashes white pepper;0.25 teaspoon sugar;1 tablespoon Shaoxing wine;RICE SEASONINGS;2 tablespoons soy sauce;0.5 tablespoon dark soy sauce;2 teaspoons cooking oil;0.5 teaspoon of salt;</t>
-  </si>
-  <si>
-    <t>2 tablespoons cooking oil;3 litres water;700g pork ribs;2 teaspoon salt;600g yellow noodles;200g dried vermicelli;FOR THE SPICE PASTE:;10 dried chillies;10 shallots;2 cloves garlic;500g prawn heads and shells;20g rock sugar;CHILLI PASTE:;15 dried chillies;5 red fresh chillies;5 shallots;0.25 teaspoon salt;1 teaspoon sugar;</t>
-  </si>
-  <si>
-    <t>8 large prawns;3 tablespoons butter;0.5 teaspoon of Salt;0.5 teaspoon of pepper;TOPPING:;8 tablespoons nestum;1 handful curry leaves;2 chilly padi;1 teaspoon salt;1 tablespoon sugar;80 g salted butter;</t>
-  </si>
-  <si>
     <t>400 g cod fillet;0.5 teaspoon of salt;0.5 teaspoon of white pepper;1 big tomato;1 piece sour plum;200g silken tofu;4 slices of ginger;2 tablespoons cooking oil;2 cloves garlic;40g pork;100g preserved mustard;FOR THE SAUCE:;4 tablespoons water;1 tablespoon soy sauce;0.5 tablespoons Shaoxing wine;0.5 teaspoon of sugar;FOR THE GARNISH:;1 green onion;2 .5cm knob of ginger;A small handful of coriander</t>
   </si>
   <si>
-    <t>4 chicken eggs;500ml water;125ml fresh milk;1 teaspoon chicken stock granules;0.5 teaspoon ground pepper;2 century eggs;1 salted egg yolk;2 crabsticks;1 tablespoons chopped spring onions;1 teaspoon sesame oil;0.5 teaspoon salt;GARNISHING:;Garlic crisps;cooking oil;</t>
-  </si>
-  <si>
-    <t>60 g almonds;100 g icing sugar;50 g aged egg whites;20 g caster sugar;0.5 teaspoon of pink food colouring powder;0.5 teaspoon of rose essence;50 g caster sugar;50 ml water;2  egg yolks  ;125 g butter;2 tablespoons canned lychee;</t>
-  </si>
-  <si>
-    <t>2  large onions;1  turmeric root;4  slices of lengkwas (galangal) root;2  stalks lemongrass;4  red chilly;5  candlenuts;1 tablespoon  belacan (shrimp paste);1 teaspoon  chopped garlic;0.5 kg chicken;1 cup coconut milk;1 cup water;2 teaspoons  salt ;0.5 teaspoon of White pepper;1 teaspoon  sugar;5 Fresh kaffir lime leaves;5 Fried shallots;5g  Fried garlic;</t>
-  </si>
-  <si>
-    <t>0.5 cup vegetable oil;2  onions;3  screw pine leaves (daun pandan);1 kg lean beef;3 cups coconut cream (santan pekat);2 tablespoons  tamarind pulp;0.5 cup desiccated coconut (kerisik);1 tablespoon sugar;0.5 teaspoon of Salt;2  star anise;3  cardamom pods;3  cloves;1  cinnamon Stick;20  dried chilies;                                                                                                                                                            200 g onions;                                                                                                                                                            4  garlic cloves;                                                                                                                                                            1 inch fresh ginger;                                                                                                                                                            2 tablespoons coriander powder;                                                                                                                                                            1 teaspoon fennel powder;                                                                                                                                                            1 teaspoon cumin powder;                                                                                                                                                            15 pieces black peppercorns;                                                                                                                                                            1 inch fresh ginger;                                                                                                                                                            1 pinch nutmeg;                                                                                                                                                            1 cup water</t>
-  </si>
-  <si>
-    <t>4 tablespoons ghee;13 cm Brass moulds;180 g plain flour;220 g castor sugar;0.25 teaspoon salt;5  eggs;500 ml coconut milk;60 ml pandan juice;0.25 teaspoon pandan colouring;</t>
-  </si>
-  <si>
-    <t>4 piece Chicken;300ml water;2 piece Salam Leaf;5 teaspoon of Oil to fry;5 cloves Garlic;0.5 teaspoon Coriander;3 cm Ginger;3 cm Galangal;3 cloves Shallots;0.5 tomato;1 teaspoon shrimp paste;2 teaspoon salt;1 bunch Lemon Basil (kemangi);2 keylime;11 piece red chili;</t>
-  </si>
-  <si>
     <t>4 firm white tofu squares;60 g prawns, peeled, deveined and minced;40 g minced chicken;1 green onion, chopped;1 egg, lightly beaten;0.5 teaspoon of salt to taste;0.5 teaspoon of white pepper to taste;1 teaspoon sesame oil;2 teaspoon cornflour;1 teaspoon of oil for frying;For the batter;50 g plain flour;1 egg;100ml of water;For the sauce;30 g dry roasted peanuts;1 fresh red chillies, chopped;2 garlic cloves, minced;1 teaspoon sugar;1 teaspoon salt;2 teaspoon vinegar;70 ml water</t>
   </si>
   <si>
-    <t>155g plain flour;2 tablespoons caster sugar;0.5 teaspoon vanilla essence;125ml milk;1 egg;40g butter, melted;1 teaspoon rum or imitation rum essence;4 ripe bananas, sliced;500ml (2 cups) oil for frying;</t>
-  </si>
-  <si>
-    <t>1 small head iceberg lettuce, leaves separated;2 large potatoes, boiled and sliced;200g green beans, sliced, blanched;0.75 cup bean sprouts, blanched;0.5 cups shredded Chinese cabbage, blanched;2 medium tomatoes, cut into wedges;1 medium red onion, sliced;3 spring onions, cut in short lengths;1 cucumber, thinly sliced;2 fresh red chilly, seeded and thinly sliced;4 medium hard–boiled eggs, sliced;125g fried tofu, cut into cubes;For the peanut sauce;1/2 cup of vegetable oil;1 1⁄4 cups raw unsalted peanuts;2 garlic cloves;4 spring onions, chopped;salt;1⁄2 teaspoon chilli powder;1 teaspoon soft brown sugar;1 tablespoon dark soy sauce;2 cups water;juice of 1 lemon;</t>
-  </si>
-  <si>
-    <t>4 fresh banana peppers, seeded and chopped;4 shallots, chopped;5 cloves garlic, chopped;2 tablespoon salt;1 teaspoon chilli powder;1 tablespoon vegetable oil;1 kg beef tenderloin, cut into 5 x 2.5 cm cubes;2 cm galangal, thinly sliced;3 stalks lemongrass, chopped;6 lime leaves;1 teaspoon ground turmeric;3 cans coconut milk;</t>
-  </si>
-  <si>
-    <t>500 g lean beef, cut into long chunks;2 kaffir lime leaves;1 tablespoon ground coriander;120 ml tamarind juice;250 ml coconut milk;1 tablespoon palm sugar;0.5 teaspoon of salt to taste;Spice blend;8 shallots;3 cloves garlic;1 cm ginger;2 cm galangal;6 dried chillies (deseeded and soaked in warm water to soften);1 lemongrass bulb, roughly chopped;</t>
-  </si>
-  <si>
-    <t>300 g cleaned squid, scored;2 shallots;1 clove garlic;1.5 cm ginger;1 teaspoon turmeric powder;1 pinch brown sugar;0.5 teaspoon of salt to taste;0.5 teaspoon of pepper to taste;2 tablespoon lime juice;4 tablespoon kecap manis (dark sweet soy sauce);2 tablespoon cooking oil;</t>
-  </si>
-  <si>
     <t>200g smoked salmon, slices;0.5 cups plain flour;2 teaspoons baking soda;2 teaspoons baking powder;1 egg;1 cup low-fat milk;0.5 cup light sour cream;1 teaspoon mustard;1 teaspoon horseradish cream;2 teaspoon chives, chopped;2 teaspoon of black pepper</t>
   </si>
   <si>
     <t>4 rashers good-quality lean unsmoked back bacon;2 slices granary or wholegrain bread, cut on the diagonal;2 good-quality free-range pork sausage, minimum 86% pork;2 free-range, omega-3 rich egg;4 brown-cap portabello mushroom;16 cherry tomatoes on the vine, room temperature;3.5 oz glasses freshly-squeezed orange juice;1 orange cut into wedges;50g of fresh blueberries;6 teaspoon olive oil;2g of cider vinegar</t>
   </si>
   <si>
-    <t>2 large free range eggs;6 teaspoon single cream or full cream milk;5g of butter;</t>
-  </si>
-  <si>
-    <t>2 slices white bread;1 large egg;5 slices smoked salmon;0.5 ripe avocado;0.5 lemon;5 pieces of watercress;5g of butter;1 wedge</t>
-  </si>
-  <si>
     <t>600g medium-sized potatoes;2 beef steaks (200g each);10 parsley leaves, finely chopped;5ml of squeeze lemon juice;5 teaspoon of sunflower oil;2 handfuls mixed leaves dressing of your choice, to serve;50g butter, softened;1 small garlic clove, minced (optional)</t>
   </si>
   <si>
-    <t>6 boneless skinless chicken breasts;cooked rice;0.25 cup Real Lemon juice;8 ounces fresh sliced mushrooms;0.25 cup unsifted flour;1 teaspoon salt;0.5 teaspoon black pepper;0.5 cup butter;1 tablespoon sugar;</t>
-  </si>
-  <si>
-    <t>5 slices of salmon fillet;1 teaspoon ground ginger;1 teaspoon garlic powder;0.3 cup reduced sodium soy sauce;0.3 cup orange juice;0.25 cup honey;1 green onion, chopped;</t>
-  </si>
-  <si>
-    <t>6 pounds baby back pork ribs;0.5 cups ketchup;3 tablespoons kosher salt;2 tablespoons chili powder;2 tablespoons packed dark brown sugar;2 tablespoons paprika;1 tablespoon garlic powder;2 teaspoons ground mustard;1 teaspoon freshly ground black pepper;2 full racks baby back pork ribs (about 5 to 6 pounds);0.5 cup water;0.3 cup packed dark brown sugar;0.25 cup light or dark molasses (not blackstrap);2 tablespoons cider vinegar;2 tablespoons Worcestershire sauce;1 tablespoon chili powder;2 teaspoons garlic powder;2 teaspoons paprika;</t>
-  </si>
-  <si>
     <t>6 bone-in pork shoulder chops, each 1/4- to 1/2-inch thick;1 large egg;3 tablespoons soy sauce;3 tablespoons Chinese rice wine or dry sherry;2 tablespoons granulated sugar;0.5 teaspoons kosher salt;0.5 teaspoon Chinese five-spice powder;1 tablespoon minced garlic;6 tablespoons cornstarch;5 teaspoon of Canola oil, for pan-frying</t>
   </si>
   <si>
-    <t>1 pound ground dark-meat turkey;0.5 teaspoon dried oregano;0.5 teaspoon fennel seeds;0.25 teaspoon red pepper flakes;0.25 cup ricotta cheese;1 large egg, lightly beaten;2 tablespoons finely chopped flat-leaf parsley;28-ounce can crushed tomatoes;1 slice of Freshly grated Parmesan cheese;5 teaspoon of Vegetable oil;3 ounce of fresh white breadcrumbs;0.5 cup milk;0.5 teaspoons kosher salt, plus more to taste;5g of freshly ground black pepper;2 tablespoons olive oil;</t>
-  </si>
-  <si>
     <t>4 ounces uncooked rotini pasta;2 cucumbers, chopped;10 cherry tomatoes, quartered;0.75 cup pitted black olives, sliced;0.5 onion, finely chopped;1 cup Italian-style salad dressing</t>
   </si>
   <si>
-    <t>16 ounce package shredded coleslaw mix;1 cup mayonnaise;2 tablespoons sugar ;0.5 teaspoon salt;0.5 teaspoon pepper;0.5 teaspoon celery seed;0.5 teaspoon garlic powder;0.5 teaspoon onion powder;2 tablespoons cider vinegar;</t>
-  </si>
-  <si>
-    <t>750g chicken;2 tablespoons meat curry powder;2 heaped teaspoons chilly powder;2 tablespoons cooking oil;2 potatoes;500ml water1 spring curry leaf;250ml coconut milk;1 piece tamarind peel;2 teaspoons of salt;2 stalks lemon grass;1.5cm cinnamon stick;1 star anise;2 cardamons;3 shallots;1 clove garlic;5g young ginger;</t>
-  </si>
-  <si>
-    <t>500g small prawns; 4 tablespoons garlic; 1 White cabbage; 2 cups green beans; 5 stalks leeks; 2 carrots; 10 Chinese mushrooms; 2 tablespoons light soy sauce; 1 teaspoon salt; Pepper; 1 tablespoon sugar;1kg Popiah skins; 5 heads Chinese lettuce; 4 Chinese sausages; 6 eggs; 2 cucumbers; 500g bean sprouts; 5 bunches fresh coriander; 100g Fried garlic; 1 cup roasted peanuts; 0.5 teaspoon of sweet black soy sauce; 0.5 teaspoon of Fresh garlic paste; 20 red chilly;</t>
-  </si>
-  <si>
-    <t>175ml Cooking Oil;750ml water;75g tamarind pulp;900g Mackerel - sliced into 11/2 inch pieces;2 Kaffir Lime Leaves (optional);0.5 teaspoon Sugar;2.5 teaspoon Salt;20 young Lady Fingers / Okra;20 Dried chilly - soaked in water and drained;18 Shallots - peeled;2 cloves Garlic - peeled;5 Candlenuts (Buah Keras);0.5 inch Fresh Turmeric (Kunyit) - peeled;1 inch Galangal (Lengkuas) - peeled;4 stalks Lemongrass - sliced;1.5 teaspoon belachan;</t>
-  </si>
-  <si>
-    <t>200g Sago Pearl;200g Gula Melaka (Palm Sugar);250ml Coconut Milk;1 Pandan Leaf (Screwpine Leaf)- shred with a fork &amp; tie into a knot;700ml  Water;0.5 teaspoons of Salt;</t>
-  </si>
-  <si>
-    <t>1 small yam bean;1 guava;1 cucumber;1 carrot;0.5 green papaya;1 cup peeled pomelo sacs;80g rice flour; 80g tapioca flour; 1 egg; 300ml water; 1 teaspoon salt; 1 teaspoon sugar; 200g small prawns;20g galangal; 5 stalks bird’s eye chilly; 1 stalk fresh red chilly; 300ml plum sauce; 1 teaspoon salt; 2 teaspoons cooking oil; 5 tablespoons crushed fried peanuts; 1 tablespoon toasted sesame seeds;</t>
-  </si>
-  <si>
-    <t>4 medium-sized ikan selar or horse mackerel; 1 tablespoon tamarind paste; 1 teaspoon dried shrimp paste; 1 stalk lemongrass; 3 red chilly; 1/2 onion; 4 whole kaffir lime leaves; 1/2 teaspoon salt; 1/2 teaspoon sugar;1 lime;</t>
-  </si>
-  <si>
-    <t>3 tablespoons cooking oil;3cm cinnamon stick;2 star anise;2 cloves;3 shallots;2 cloves garlic;4 tablespoons fish curry powder;125ml water;15g tamarind paste;2 tablespoons palm sugar;600g pineapple;100ml coconut milk;1 teaspoon salt;</t>
-  </si>
-  <si>
-    <t>2kg glutinous rice;300g dried prawns;500g lean pork;100g candied winter melon;4 stalks lemon grass;5cm knob galangal;50g dried chilly;5 cloves garlic;10 shallots;3 tablespoons coriander seeds,;100 g sugar;5 Blue pea flowers;3 bundles large pandan leaves;</t>
-  </si>
-  <si>
-    <t>500g round cabbage ;100g pork belly;10g dried black fungus;5g dried lily buds;10g sweet dried bean curd;20g dried tang hoon;10g dried mushrooms;10g dried prawns;3 cloves fresh garlic;10g tau cheoh paste;1 tablespoon dark soya sauce;5 tablespoons cooking oil;1 teaspoon chicken seasoning powder;</t>
-  </si>
-  <si>
-    <t>16 pieces chicken drummets;2 tablespoons ginger juice;1 tablespoon corn flour;1 tablespoon chilly flakes;1 tablespoon oyster sauce;1 teaspoon chicken stock granules;0.25 teaspoon dark soya sauce;10 kaffir lime leaves;2 tablespoons honey;1 tablespoon salt;</t>
-  </si>
-  <si>
-    <t>300g dried shrimps; 2 tablespoons Nonya Sambal chilly; 1 teaspoon fine sugar; 2 kaffir lime leaves;</t>
-  </si>
-  <si>
-    <t>350g vegetarian chicken;125ml cooking oil;500g glutinous rice;15 stalks blue pea flower;5 meters hemp string;8 pandan leaves;0.5 teaspoons of salt;36 pcs dried bamboo leaves;2 tablespoons or 12g biryani powder;2 tablespoons water;2 teaspoons mushroom stock;50g brown sugar;50g winter melon;15 stalks dried chilly;45g 2 stalks of fresh lemongrass;15g fresh blue ginger;15g fresh turmeric;</t>
-  </si>
-  <si>
-    <t>4 large yellow capsicums; 2 cups cooked rice; 80g French beans; 100g canned corn kernels; 1 large tomato; 4 tablespoons extra virgin olive oil; 0.5 teaspoon of salt; 0.5 teaspoon of pepper; 10g coriander; 100g shredded cheese;</t>
-  </si>
-  <si>
-    <t>4kg turkey;1 medium-sized onion;1 stalk carrot;1 stick celery;1 small bunch Thai sweet basil;1 small bunch kaffir lime leaves;1 small bunch laksa leaves;1 teaspoon salt;1 tablespoon dried shrimp paste;0.75 cup vegetable or olive oil;2 teaspoons of Pepper;1 spring kaffir lime leaves;1 tablespoon corn flour;1 cup white wine;</t>
-  </si>
-  <si>
-    <t>300g sweet potato flesh; 150g coarse sugar; 100ml water; 150g tapioca flour; 250ml thick coconut milk; 0.5 teaspoon of salt; 100g grated coconut flesh;</t>
-  </si>
-  <si>
-    <t>0.5kg pork belly;3 heaped tablespoons tamarind paste;1 cup water;1 tablespoon salt;2 teaspoons sugar;</t>
-  </si>
-  <si>
-    <t>1 tablespoon black pepper;4 tablespoons melted unsalted butter;3 cloves garlic;1/8 small onion;1 kilo crab;1 tablespoon oyster sauce;1/2 tablespoon sugar ;2 tablespoons water;Salt;</t>
-  </si>
-  <si>
-    <t>500g pork mince;1 large onion;2 potatoes;250g frozen peas;1 teaspoon dark soya sauce;1 teaspoon salt;1 small stick of cinnamon;3 cloves;1 dash of pepper;2 teaspoons vegetable oil;</t>
-  </si>
-  <si>
-    <t>0.5 litres water;400g chicken meat or spare ribs;1 piece dried squid;1 tablespoon chicken stock granules;8 red dates;0.25 teaspoon pepper;1 carrot;350g lotus roots;0.5 teaspoon of Salt;</t>
-  </si>
-  <si>
-    <t>1 kg clams;1 onion;4 cloves garlic;2 tablespoons vegetable oil;0.5 cup Chinese rice wine;5 slices ginger;2 chilies;0.5 tablespoon sesame oil;1 spring spring onion;1 tablespoon light soya sauce;</t>
-  </si>
-  <si>
-    <t>500g fish fillet;500g fish bones;3 ginger;1 tablespoon Tianjin preserved vegetables;1 teaspoon of Dried seaweed;1 tablespoon light soy sauce;0.5 tablespoon sesame oil;1 teaspoon rice wine;1 teaspoon of Pepper;2 tablespoons hua tiao wine;2 litres water;2 slices ginger;2 stalks spring onions;2 stalks coriander;2 cups cooked rice;</t>
-  </si>
-  <si>
-    <t>1kg white glutinous rice;80g Chinese dried mushrooms;200g Chinese sausages;20 g dried prawns;100g shallots;10 g peanuts;0.5 teaspoon of Salt;2 teaspoon of light soya sauce;2 teaspoon of dark soya sauce;2 spring onions;</t>
-  </si>
-  <si>
-    <t>1 teaspoon of light soya sauce;1 teaspoon of dark soya sauce;</t>
-  </si>
-  <si>
-    <t>2kg glutinous rice;500g pork hock with skin;100g lean pork;30 small dried shiitake mushrooms;30 dried Chinese chestnuts;10 cloves garlic,;2 teaspoon of Soy sauce;5 spice powder;0.5 teaspoon of salt;0.5 teaspoon of pepper;20 salted egg yolks;3 bundles bamboo leaves;</t>
-  </si>
-  <si>
-    <t>2 pieces golden snapper fish or ikan jenahak;125ml cooking oil;6 shallots;6 cloves garlic;50g tamarind pulp;10g red chilli padi;2 tablespoons sugar;1 teaspoon salt;</t>
-  </si>
-  <si>
-    <t>1 large snapper or pomfret;1 packet salted vegetables (kiamchye);3 pickled plums;1 teaspoon corn flour;2 large tomatoes;1 red chili;2 Coriander;5 teaspoon of Sesame oil;</t>
-  </si>
-  <si>
-    <t>300g dried egg noodles ;2 eggs;100g dried shrimps;8 dried shiitake mushrooms;1 teaspoon sugar;1 tablespoon soy sauce;3 tablespoons oyster sauce;3 stalks spring onions;1 spring of coriander;500ml of Water;0.5 teaspoon of Salt;0.5 teaspoon of pepper;5 teaspoon of cooking Oil;</t>
-  </si>
-  <si>
-    <t>60g butter;2 tablespoons cooking oil;3 shallots;6 birds eye chillies;3 sprigs curry leaves;3 salted egg yolks;150ml evaporated milk;3 tablespoons water;500g fresh medium sized prawns;0.5 teaspoon sugar;0.5 teaspoon salt;</t>
-  </si>
-  <si>
-    <t>2 cloves garlic;5g ginger;10g onions;30g pork belly;2 prawns;5 pieces clams;50g cabbage;6 pieces celery;10g carrots;5g Chinese chives;1 piece Chinese mushrooms;150g wheat flour noodles;100ml of Chicken stock ;600ml Hua Tiao wine ;0.25 teaspoon salt;0.25 teaspoon Chicken powder ;0.25 teaspoon oyster sauce;0.25 teaspoon sugar;15g peanuts ;10g seaweed;3 Spring onions;0.25 teaspoon of white pepper powder ;</t>
-  </si>
-  <si>
-    <t>1 pound beef top sirloin steak ;0.25 cup soy sauce ;2 tablespoons white sugar ;2 tablespoons cornstarch ;0.5 teaspoon ground ginger ;3 tablespoons vegetable oil;1 divided red onion;1 green bell pepper (cut into 1-inch squares);2 tomatoes (cut into 1-inch squares, cut into wedges);</t>
-  </si>
-  <si>
-    <t>1 cup confectioners sugar ;3 cups all-purpose flour ;1 cup butter ;1 egg beaten 1 dash vanilla ;0.7 cup white sugar ;100ml water ;9 eggs;1 beaten dash vanilla;1 cup evaporated milk;</t>
-  </si>
-  <si>
-    <t>0.5 chicken;2 potatoes;0.5 cup oil;60g chicken curry powder;2 onions;2 lemon grass;2 cups water;0.5 cup coconut milk;0.5 cup evaporated milk;4 teaspoons salt;0.5 teaspoon sugar;5 curry leaves;5 cloves garlic;10 cloves shallot;3 stalks lemon grass;</t>
-  </si>
-  <si>
-    <t>2 chicken whole legs;2 potatoes;5 teaspoon of Cooking oil;375ml water;12 ml thick coconut milk;2 whole tomatoes;1 teaspoon salt;1 teaspoon sugar;1 cinnamon stick;3 cloves;3 cardamons;1 bay leaf;1 big onion;2 green chillies;12g young ginger;20g green chillies;60g shallots;3 cloves garlic;6 cashew nuts;0.5 tablespoon coriander seeds;0.5 teaspoon fennel;0.5 tablespoon cumin;0.5 teaspoon turmeric powder;0.5 teaspoon peppercorns;1 sprig coriander leaves;1 tablespoon shallot crisps;</t>
-  </si>
-  <si>
-    <t>0.5 cups basmati rice;4 pieces cardamom;5 cloves;1 cinnamon stick;1 good pinch saffron strands;1 cup water;1 teaspoon salt;4 boneless chicken leg;4 heaped tablespoons Indian yoghurt;1 teaspoon smoked paprika;1 tablespoon grated ginger;1 teaspoon cracked black pepper;1 teaspoon turmeric powder;1 tablespoon cumin powder;1 teaspoon sea salt;</t>
-  </si>
-  <si>
-    <t>1 teaspoon sugar;0.75 cup warm water;0.25 oz active dry yeast;2 cups all-purpose flour;0.5 cup plain yogurt;1 tablespoon oil;5 teaspoon of Some oil, for greasing the skillet;3 tablespoons melted salted butter;</t>
-  </si>
-  <si>
-    <t>1 lb chicken legs;5 teaspoon of Oil, for basting;1 lime, cut into wedges;0.5 cup Greek yogurt;1 teaspoon finely minced ginger;1 teaspoon finely minced garlic;0.5 teaspoon Garam Masala;0.25 teaspoon cayenne pepper;2 tablespoons lime juice;1 tablespoons oil;0.5 teaspoons salt or to taste;0.25 teaspoon turmeric powder;2g Red coloring, optional;</t>
-  </si>
-  <si>
-    <t>580g All purpose flour ;1.5 teaspoon Kosher salt;1 teaspoon Granulated sugar;0.75 cup Ghee, room temperature ;1 large Egg, beaten;0.75 cup Whole milk;0.5 cup Water;</t>
-  </si>
-  <si>
-    <t>0.5 cup of all-purpose flour (if you are familiar with Indian wheat flour or durum aata you can use that as well);2 teaspoon semolina (cream of wheat);2 teaspoon oil;1 teaspoon salt;0.5 ajwain seeds (optional);0.7 cups of water;2 medium sized potatoes (I use Yukon gold);0.5 cup sweet green peas;1 cup thinly sliced onions;1 teaspoon cumin seeds;1 teaspoon minced green chilly;0.5 teaspoon coriander powder (optional);</t>
-  </si>
-  <si>
-    <t>2 ripe mangoes, peeled and diced, about 1 lb.;5 tablespoons honey or agave nectar, or to taste;1 cup ice;1 heaping cup plain yogurt;</t>
-  </si>
-  <si>
-    <t>1 lb shrimp, tiger prawn preferred, shelled and deveined, tails on Bamboo skewers, soaked in water before using Oil, for basting;0.5 tablespoon chopped cilantro;1 lime, cut into wedges;0.3 cup Greek yogurt;1 teaspoon finely minced garlic;0.5 teaspoon Garam Masala;0.25 teaspoon chili powder;2 tablespoons lime juice;1 tablespoons oil;0.5 teaspoons salt or to taste;0.25 teaspoon turmeric powder;5g Red coloring, optional;</t>
-  </si>
-  <si>
-    <t>1 lb Tandoori Chicken;4 tablespoons butter;1 teaspoon finely minced ginger;2 teaspoons finely minced garlic;120ml canned tomato paste;2 tablespoons chili powder;0.5 teaspoon Garam Masala;2 tablespoons ketchup;0.5 teaspoon sugar;0.5 teaspoon of Salt, to taste;120ml water;4 tablespoons heavy whipping cream;2 sprigs cilantro, leaves only, roughly chopped;</t>
-  </si>
-  <si>
-    <t>2 tablespoons vegetable oil;0.75 teaspoon cumin seeds;1 large onion, minced;2 teaspoons ginger-garlic paste;3 medium sized ripe tomatoes, pureed;0.5 teaspoon coriander powder;0.5 teaspoon cumin powder;0.25 teaspoon turmeric powder;0.25 teaspoon chili powder or according to taste;2 tablespoons dry kasoori methi;2 tablespoons heavy cream, optional;0.5 teaspoon of Salt;15 fresh white button mushrooms;1 large green or red bell pepper, cubed;0.25 teaspoon turmeric;0.25 teaspoon chili powder, or to taste;0.25 cup whole Greek yogurt or strained yogurt;1 tablespoon oil;</t>
-  </si>
-  <si>
-    <t>1 medium cauliflower, cut into florets;2 large russet potatoes, cubed;4 tablespoons canola oil;0.5 teaspoon black mustard seeds (or regular if cannot find black);0.5 teaspoon cumin seeds;0.5 teaspoon coriander seeds, crushed in a mortar and pestle;1 medium onion, diced;1 Jalapeno or any hot green pepper, sliced (can use seeded or 1/2 seeded to tone down heat);1 medium tomato, diced;4 garlic cloves, minced;1 small piece of fresh ginger (thin 1 inch), grated on small hole grater or ginger grater;0.5 teaspoon red pepper chili powder;0.5 teaspoon turmeric powder;0.5 teaspoon salt or according to taste;8 tablespoons of water;</t>
-  </si>
-  <si>
-    <t>1 pack seafood curry paste;6 large prawns;6 squids;6 scallops;0.5 lb. seabass fillet (cut into small cubes/pieces);1 tomato (cut into wedges);2 tablespoons coconut milk;1 tablespoon tamarind pulp (soaked in 4 tablespoons water and extract the juice);2 shallots (peeled and sliced);0.5 cups water;1 tablespoon oil;0.5 teaspoon of Salt to taste;1 sprig curry leaves (optional);</t>
-  </si>
-  <si>
-    <t>2 lbs chicken (preferably thigh meat, boneless and skinless, cut into 2-3 inch pieces);2 teaspoons ginger paste;0.5 tablespoons garlic paste;1 teaspoons red chilly powder;0.5 teaspoon ground black pepper;0.5 teaspoon of Salt as per taste;3 tablespoon cooking oil;2 teaspoons lime/lemon juice;2 pinches of food color (deep orange, totally optional);4 large tomatoes, quartered;0.5 tablespoons garlic paste;2 teaspoons ginger paste;1 jalapeno;1 2-inch cinnamon piece;1 bay leaf;4 cloves;2 green cardamom;6 whole black pepper;2 tablespoons ketchup;2 teaspoon sugar;0.5 teaspoon red chili powder;0.5 teaspoon dried fenugreek leaves;0.5 teaspoon of Salt as per taste;2 tablespoons cooking oil;2 tablespoon butter;0.5 cup water;</t>
-  </si>
-  <si>
-    <t>1 whole chicken, cut up into 8 pieces and skin removed onion, chopped;1 tablespoon tomato paste;0.5 teaspoon of Salt as per taste;0.5 teaspoon of pepper as per taste;3 tablespoons oil;0.5 cup vinegar (white);4 dried red Chile peppers (you can use any moderately hot Chile and adjust the quantity as per you liking);4 cloves;8 garlic cloves, skin removed;1 2inch piece fresh ginger, peeled;1 teaspoon paprika powder;0.25 teaspoon ground cinnamon;0.5 teaspoon ground cumin;0.5 teaspoon dry mustard;1 teaspoon sugar;</t>
-  </si>
-  <si>
-    <t>10 oz skinless and boneless chicken breast, cut into 1/2-inch cubes;1 tablespoon butter;2 cloves garlic, minced;1/2 jalapeno, deseeded;0.5 teaspoon of Salt to taste;1 12-inches store-bought pizza crust or three (3) 7-inches mini pizza crusts;1 teaspoon of Olive oil for brushing;0.25 onion, thinly sliced;1 cup mozzarella cheese;2 sprig of coriander leaves/cilantro, chopped, save some for garnish;0.5 teaspoon ground cumin;0.5 teaspoon ground cayenne pepper;0.5 teaspoon ground garam masala;0.5 teaspoon minced fresh ginger;0.25 teaspoon salt;0.25 teaspoon ground black pepper;1 tablespoon lemon juice;2 tablespoons plain yogurt;0.5 teasponn of cinnamon;4oz tomato sauce;2 tablespoons plain yogurt;2 tablespoons heavy cream;0.5 teaspoon cumin;0.5 teaspoon paprika;0.5 teaspoon garam masala;</t>
-  </si>
-  <si>
-    <t>600g boneless, skinless chicken breast;4 tablespoons vegetable oil;1 tablespoon minced garlic;1 teaspoon peeled and finely grated fresh ginger;1 onion, grated on the largest grating holes on a box grater or shredded in a food processor;0.75 teaspoon cumin seeds;4 whole green cardamom pods;1 large fully ripe tomato, cut into 4 pieces;0.25 heaping teaspoon ground turmeric;0.75 teaspoon ground red pepper (cayenne);0.75 teaspoon salt;0.75 teaspoon ground black pepper;</t>
-  </si>
-  <si>
-    <t>2 cups whole wheat flour (or stone ground drum-wheat also known as “Atta”);1 cup water (approximately);1 teaspoon salt;2g flour in a shallow plate or pie dish to help with coating and dusting while rolling the chapattis;</t>
-  </si>
-  <si>
-    <t>500g ripe but firm green mango;1 sticks cinnamon (about 2 inch);2 whole cloves;1 teaspoon cumin seeds;1 teaspoon coriander seeds;2 cardamom pods, cracked;1 teaspoon ginger, grated;3 whole dry red chilly;1 clove garlic, crushed;0.75 cup demerara sugar;0.5 cup vinegar;0.75 cup water;1 teaspoon salt;</t>
-  </si>
-  <si>
-    <t>1 teaspoon of Oil ;1  fresh chicken;3 tablespoons  garlic powder ;2 teaspoon  salt ;1 teaspoon  ground turmeric ;1 teaspoon  ground nutmeg;12 tablespoons  butter;</t>
-  </si>
-  <si>
-    <t>3  large red onions;1  red bell pepper;10  large red chilli;200 g honey red tomatoes;1  bulb garlic;1  stick cinnamon;1 tablespoon fish sauce;4 tablespoons sugar;1 cup oil;</t>
-  </si>
-  <si>
-    <t>1  firm beancurd;2 heaped tablespoons chunky peanut butter;2 heaped tablespoons  Hoisin sauce;3 tablespoons water;3 tablespoons vegetable oil;0.5 teaspoon of Salt;0.5 teaspoon of pepper;150 g tinned crabmeat;0.5  lime;1  cucumber;0.5  carrot;</t>
-  </si>
-  <si>
-    <t>5  royal gala apples;150 g sugar ;220 g butter;80 g margarine;0.25 teaspoon  salt;250 g castor sugar;0.5 teaspoon  vanilla extract;300 g plain flour;1 tablespoon  baking powder;75 g ground almonds;1 teaspoon  ground cinnamon;5  Grade A eggs;80 ml milk;10 round bundt pan;</t>
-  </si>
-  <si>
-    <t>6  sweet ripe bananas;2 tablespoons lemon juice;0.25 cup full cream milk;1 teaspoon vanilla paste;2 teaspoons baking powder;200 g butter;0.5 teaspoon of sugar;3  eggs;1 cup flour;0.5 cup walnuts;0.25 cup chopped candied ginger;100ml of Vanilla ice-cream;</t>
-  </si>
-  <si>
-    <t>250 g good quality butter;0.25 teaspoon salt;90 g sugee/ polenta;150 ml fresh milk ;220 g caster sugar;3  Grade A eggs;1  orange;375 g self-raising flour;1 tablespoons  brandy (optional);1  pineapple;20g Extra butter;50 g brown sugar to sprinkle;1 bottle of cream for serving;</t>
-  </si>
-  <si>
-    <t>455 g butter;115 g flour;1 teaspoon mixed spice (ground cinnamon, cloves, anise and cardamon);17 egg yolks;5 egg whites;255 g caster sugar;2 teaspoons vanilla essence;</t>
-  </si>
-  <si>
-    <t>150 g dried adzuki beans;1.5 can coconut milk;300 ml water;1 cm sliced ginger;130 g brown sugar , to taste;0.5 teaspoon of salt;</t>
-  </si>
-  <si>
     <t>200g self-raising flour;1 teaspoon baking powder;1 egg;300ml milk;50g of butter;150g pack blueberry;20ml of golden or maple syrup;10g of butter as cooking oil</t>
   </si>
   <si>
     <t>1kg beef fillet - ask your butcher to cut it from the middle of the fillet and say you do not want the tail end or the head (chateaubriand) of the fillet;20g dried porcini mushrooms;400g chestnut or button mushroom, roughly sliced;1 beef stock cube;6 thin slices prosciutto;5g of plain flour, for dusting;500g pack all-butter puff pastry;1 egg;1 teaspoon fresh thyme leaf;75g butter;2 large shallot;2 tbsp freshly grated Parmesan;spring of thyme;1 bay leaf;1 teaspoon plain flour;1 teaspoon olive oil;5g of plain flour, for dusting;500g pack all-butter puff pastry;2g of Worcestershire sauce;2 teaspoon freshly grated Parmesan;1 teaspoon plain flour;1 teaspoon of brandy;1 bottle of red wine (optional)</t>
   </si>
   <si>
-    <t>1 pounds manila or littleneck clams;1 pint cherry tomatoes;1 pound linguine;4 anchovy fillets, chopped;0.25 cup finely chopped Italian parsley;0.5 teaspoon of Kosher salt;1 tablespoon olive oil;1 medium yellow onion, coarsely chopped;4 medium garlic cloves, minced;5g of freshly ground black pepper;</t>
-  </si>
-  <si>
-    <t>1 teaspoons fresh thyme leaves;1 medium zucchini, small dice;1 medium yellow squash or golden zucchini, small dice;1 small eggplant, small dice;2 tablespoons fresh basil leaves, torn in small pieces;1 pound dried pasta, such as penne, cavatelli, or garganelli;0.5 a lemon (Finely grated zest and juice);1 cup crumbled feta cheese;6 tablespoons extra-virgin olive oil;3 medium garlic cloves, sliced thin;1 cup canned whole tomatoes, cut into 1/2-inch strips, juice reserved;0.5 teaspoon of Kosher salt;5g of freshly ground black pepper;1 small yellow onion, small dice;</t>
-  </si>
-  <si>
-    <t>7 ounce skinless salmon fillets;0.25 cup vegetable oil;2 cloves garlic, sliced;3 cups seeded, julienned hothouse cucumbers, soaked in cold water to crisp; drained;0.3 cup chopped Asian basil;3 tablespoons chopped, roasted peanuts;1 teaspoon finely chopped garlic;3 Thai bird chiles or 1 serrano chile, chopped;3 tablespoons sugar;3 tablespoons minced ginger;3 tablespoons fish sauce;3 tablespoons lime juice;3 tablespoons water;</t>
-  </si>
-  <si>
     <t>12 ounce salmon fillet, cut into 4 pieces;5g of Toasted Almond Parsley Salsa, for serving;5g of Baked squash, for serving, optional;0.5 teaspoon of Coarse-grained salt;5g of freshly ground black pepper;1 shallot;1 tablespoons red wine vinegar;0.5 teaspoon of coarse grain salt;2 tablespoons capers, rinsed;1 cup fresh flat-leaf parsley;0.5 cup toasted almonds;1 teaspoon of Extra-virgin olive oil</t>
   </si>
   <si>
     <t>1 pound fully cooked sweet Italian sausage, sliced into 1/2-inch rounds;8 ounces grape or cherry tomatoes, halved;1 pound dried pasta, such as rigatoni or farfalle;1.5 teaspoons red pepper flakes;2 ounces Pecorino Romano cheese, for garnish</t>
   </si>
   <si>
-    <t>4 cups uncooked elbow macaroni;2 stalks celery, chopped ;1 green bell pepper, seeded and chopped ;0.25 cup grated carrot (optional);2 tablespoons chopped pimento peppers (optional);1 cup mayonnaise;0.25 cup distilled white vinegar ;0.8 cup white sugar ;1 tablespoon prepared yellow mustard ;0.5 teaspoons salt ;0.5 teaspoon ground black pepper ;1 large onion, chopped ;</t>
-  </si>
-  <si>
-    <t>boil;mix</t>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Peranakan</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Singaporean</t>
+  </si>
+  <si>
+    <t>Hokkien</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Grill</t>
+  </si>
+  <si>
+    <t>claypot</t>
+  </si>
+  <si>
+    <t>pan fry</t>
+  </si>
+  <si>
+    <t>0.5 cup vegetable oil;2 onions;3  screw pine leaves (daun pandan);1 kg lean beef;3 cups coconut cream (santan pekat);2 tablespoons  tamarind pulp;0.5 cup desiccated coconut (kerisik);1 tablespoon sugar;0.5 teaspoon of Salt;2  star anise;3  cardamom pods;3  cloves;1  cinnamon Stick;20  dried chilies; 200 g onions;  4  garlic cloves; 1 inch fresh ginger; 2 tablespoons coriander powder; 1 teaspoon fennel powder; 1 teaspoon cumin powder; 15 pieces black peppercorns; 1 inch fresh ginger; 1 pinch nutmeg; 1 cup water</t>
+  </si>
+  <si>
+    <t>2 cloves garlic;5g ginger;10g onions;30g pork belly;2 prawns;5 pieces clams;50g cabbage;6 pieces celery;10g carrots;5g Chinese chives;1 piece Chinese mushrooms;150g wheat flour noodles;100ml of Chicken stock ;600ml Hua Tiao wine ;0.25 teaspoon salt;0.25 teaspoon Chicken powder ;0.25 teaspoon oyster sauce;0.25 teaspoon sugar;15g peanuts ;10g seaweed;3 Spring onions;0.25 teaspoon of white pepper powder</t>
+  </si>
+  <si>
+    <t>1 pound beef top sirloin steak ;0.25 cup soy sauce ;2 tablespoons white sugar ;2 tablespoons cornstarch ;0.5 teaspoon ground ginger ;3 tablespoons vegetable oil;1 divided red onion;1 green bell pepper (cut into 1-inch squares);2 tomatoes (cut into 1-inch squares, cut into wedges)</t>
+  </si>
+  <si>
+    <t>1 cup confectioners sugar ;3 cups all-purpose flour ;1 cup butter ;1 egg beaten 1 dash vanilla ;0.7 cup white sugar ;100ml water ;9 eggs;1 beaten dash vanilla;1 cup evaporated milk</t>
+  </si>
+  <si>
+    <t>stir fry</t>
+  </si>
+  <si>
+    <t>deep fry</t>
+  </si>
+  <si>
+    <t>food processor</t>
+  </si>
+  <si>
+    <t>cake pan</t>
+  </si>
+  <si>
+    <t>deep fryer</t>
+  </si>
+  <si>
+    <t>smoker</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Noodle</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Shrimp</t>
+  </si>
+  <si>
+    <t>Coconut milk</t>
+  </si>
+  <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Peanut</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>Clams</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Macaroni</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>black pepper;unsalted butter;garlic;onion;crab;oyster sauce;sugar;water;salt</t>
+  </si>
+  <si>
+    <t>chicken;oil;garlic;ginger;onion;cumin seeds;green cardamom pods;tomato;turmeric;cayenne;salt;ground black pepper</t>
+  </si>
+  <si>
+    <t>flour; water;salt</t>
+  </si>
+  <si>
+    <t>almonds;icing sugar;caster sugar;pink food colouring powder;rose essence;caster sugar;water;egg;butter;canned lychee;</t>
+  </si>
+  <si>
+    <t>4 cups uncooked elbow macaroni;2 stalks celery, chopped ;1 green bell pepper, seeded and chopped ;0.25 cup grated carrot (optional);2 tablespoons chopped pimento peppers (optional);1 cup mayonnaise;0.25 cup distilled white vinegar ;0.8 cup white sugar ;1 tablespoon prepared yellow mustard ;0.5 teaspoons salt ;0.5 teaspoon ground black pepper ;1 large onion, chopped</t>
+  </si>
+  <si>
+    <t>butter; salt; sugee;polenta; fresh milk; caster sugar; Grade A eggs; orange; self-raising flour; brandy; pineapple; brown sugar; cream</t>
+  </si>
+  <si>
+    <t>butter; flour; mixed spice; egg yolk; egg white; caster sugar; vanilla essence</t>
+  </si>
+  <si>
+    <t>plain flour;baking soda;baking powder;egg, milk;light sour cream;mustard;horseradish cream; chives;black pepper;smoked salmon</t>
+  </si>
+  <si>
+    <t>self-raising flour;baking powder;egg;milk;butter;blueberry;sunflower oil;maple syrup</t>
+  </si>
+  <si>
+    <t>butter;white bread;avocado;lemon;wedge;watercress;egg;smoked salmon</t>
+  </si>
+  <si>
+    <t>potatoes;sunflower oil;beef steaks;butter;parsley leaves;garlic;lemon juice</t>
+  </si>
+  <si>
+    <t>beef fillet;olive oil;prosciutto;puff pastry;egg;porcini mushrooms;chestnut;button mushroom;fresh thyme leaf;butter;shallot;Worcestershire sauce;Parmesan;thyme;bay leaf;plain flour;brandy;red wine;beef cube</t>
+  </si>
+  <si>
+    <t>unsifted flour;salt;black pepper;chicken breasts;butter;Lemon juice;sugar;mushrooms;rice</t>
+  </si>
+  <si>
+    <t>ground ginger;garlic powder;soy sauce;orange juice;honey;green onion;salmon fillets</t>
+  </si>
+  <si>
+    <t>salt;chili powder;dark brown sugar;paprika;garlic powder;ground mustard;ground black pepper;pork ribs ;ketchup;molasses;cider vinegar;Worcestershire sauce</t>
+  </si>
+  <si>
+    <t>pork chops;soy sauce;rice wine;sugar;salt;Chinese five-spice powder;garlic;egg;cornstarch;Canola oil</t>
+  </si>
+  <si>
+    <t>Vegetable oil;breadcrumbs;milk;oregano;fennel seeds;red pepper flakes;ricotta cheese;egg;parsley;salt;ground black pepper;turkey;tomatoes;olive oil;Parmesan cheese</t>
+  </si>
+  <si>
+    <t>clams;cherry tomatoes;salt;linguine;olive oil;yellow onion;garlic;anchovy fillets;ground black pepper;Italian parsley</t>
+  </si>
+  <si>
+    <t>olive oil;garlic;tomatoes;salt;ground black pepper;yellow onion ;thyme leaves;zucchini;eggplant;pasta;zest;lemon juice;basil leaves;cheese</t>
+  </si>
+  <si>
+    <t>vegetable oil;salmon;garlic;cucumbers;Asian basil;peanuts;Thai bird chiles;sugar;ginger;fish sauce;lime juice</t>
+  </si>
+  <si>
+    <t>salmon fillet;salt;ground black pepper;Almond Parsley Salsa;squash;shallot;red wine vinegar;capers;parsley;toasted almonds;olive oil</t>
+  </si>
+  <si>
+    <t>pasta;cucumbers;onion;cherry tomatoes;olive;salad dressing</t>
+  </si>
+  <si>
+    <t>Italian sausage;grape;cherry tomatoes;pasta;red pepper flakes;Pecorino Romano cheese</t>
+  </si>
+  <si>
+    <t>elbow macaroni;mayonnaise;white vinegar ;white sugar ;mustard ;salt ;ground black pepper ;onion ;celery ;bell pepper ;carrot ;pimento peppers</t>
+  </si>
+  <si>
+    <t>mayonnaise;sugar;salt;pepper;celery;garlic;onion;vinegar;coleslaw mix</t>
+  </si>
+  <si>
+    <t>green mango;cinnamon;cloves;cumin seeds;coriander seeds;cardamom pods;ginger;dry red chilly;garlic;demerara sugar;vinegar;water;salt</t>
+  </si>
+  <si>
+    <t>clam; onion;garlic;vegetable oil;chinese rice wine;ginger;chilies;sasame oil;spring onion;light soya sauce</t>
+  </si>
+  <si>
+    <t>10 prawns;1 clove garlic;1 tablespoon wolfberry;1 tablespoon Chinese rice wine;1/2 teaspoon sugar;1 tablespoon chicken bouillon;Salt;4 tablespoons water</t>
+  </si>
+  <si>
+    <t>sugar;flour;egg;butter;dash vanilla;sugar;water;evaporated milk</t>
+  </si>
+  <si>
+    <t>chicken; potatoes; Cooking oil; water; coconut milk; tomatoes; salt; sugar; cinnamon stick; cloves; cardamons; bay leaf; big onion; green chillies; young ginger;  green chillies; shallots; garlic; cashew nuts; coriander seeds; fennel; cumin; turmeric powder;  peppercorns; coriander leaves; shallot crisps</t>
+  </si>
+  <si>
+    <t>flour; Kosher salt; Granulated sugar; Ghee; Egg; milk; water</t>
+  </si>
+  <si>
+    <t>all-purpose flour; semolina; oil; salt; ajwain seeds; water; medium sized potatoes; sweet green peas; thinly sliced onions; cumin seeds; minced green chili; coriander powder</t>
+  </si>
+  <si>
+    <t>vegetable oil; cumin seeds; large onion; ginger-garlic paste; medium sized ripe tomatoes; coriander powder; cumin powder; turmeric powder; chili powder; dry kasoori methi; heavy cream; Salt; white button mushrooms;  large green or red bell pepper; turmeric; chili powder;greek yogurt</t>
+  </si>
+  <si>
+    <t>cauliflower;potatoes;canola oil;black mustard seeds;cumin seeds;coriander seeds;medium onion, diced;Jalapeno;hot green pepper;tomato;garlic cloves;ginger;red pepper chili powder;turmeric powder;salt;water</t>
+  </si>
+  <si>
+    <t>seafood curry paste;prawns;squids;scallops;seabass fillet;tomato; coconut milk;tamarind pulp;shallots;water;oil;Salt;curry leaves</t>
+  </si>
+  <si>
+    <t>chicken;ginger paste;garlic paste;red chilly powder;ground black pepper;Salt;cooking oil;lime juice;lemon juice;food color;tomatoes;garlic paste;ginger paste;jalapeno;cinnamon piece;bay leaf;cloves;green cardamom;black pepper; ketchup; sugar;red chili powder;dried fenugreek leaves;Salt; cooking oil;butter;water</t>
+  </si>
+  <si>
+    <t>chicken;tomato paste;Salt;pepper;oil;vinegar;dried red Chile peppers;cloves;garlic cloves;ginger, peeled;paprika powder;ground cinnamon;ground cumin;dry mustard;sugar</t>
+  </si>
+  <si>
+    <t>wheat flour; water; salt</t>
+  </si>
+  <si>
+    <t>boneless skinless chicken breast; vegetable oil; minced garlic; fresh ginger; onion; cumin seeds; green cardamom; ripe tomato; turmeric; red pepper;cayenne; salt; black pepper</t>
+  </si>
+  <si>
+    <t>unsmoked back bacon;portabello mushroom;cherry tomatoes;olive oil;wholegrain bread;pork sausage;egg;cider vinegar;orange;blueberries;</t>
+  </si>
+  <si>
+    <t>glutinous rice;chinese dried mushroom;chinese sausage;dried prawn;shallot;peanut;salt;light soya sauce; dark soya sauce;spring onion</t>
+  </si>
+  <si>
+    <t>turkey;onion;carrot; celery;Thai sweet basil;kaffir lime leave;laksa leaves;salt;dried shrimp paste;vegetable oil; olive oil;Pepper;kaffir lime leaves;corn flour;white wine</t>
+  </si>
+  <si>
+    <t>chicken breast; butter; garlic; jalapeno; Salt; pizza crust; Olive oil; onion; mozzarella cheese; coriander leaves; cilantro; cumin; cayenne pepper; garam masala; ginger; salt; black pepper; lemon juice; yogurt; cinnamon; tomato sauce; plain yogurt; cumin</t>
+  </si>
+  <si>
+    <t>tiger prawn; water; chopped cilantro; lime;  Greek yogurt; garlic; Garam Masala; chili powder; lime juice; oil; salt; turmeric powder; Red coloring</t>
+  </si>
+  <si>
+    <t>chicken; ginger paste; garlic paste; red chili powder; ground black pepper; Salt; Oil; lime juice; lemon juice; food color; large tomatoes; garlic paste; ginger paste; jalapeno; cinnamon; bay leaf; cloves; green cardamom; whole black pepper; ketchup; sugar; red chili powder; dried fenugreek leaves; Salt;</t>
+  </si>
+  <si>
+    <t>corn cooking oil;water;pork ribs;salt;yellow noodle;dried vermicelli;dried chiilies;shallot;garlic;prawn;rock sugar;salt;sugar;eggs kang kong;bean sprout;shallot crips</t>
+  </si>
+  <si>
+    <t>water;chicken;dried squid;chicken stock granules;date;pepper;carrot;lotus root;salt</t>
+  </si>
+  <si>
+    <t>300g dried shrimps; 2 tablespoons Nonya Sambal chilly; 1 teaspoon fine sugar; 2 kaffir lime leaves</t>
+  </si>
+  <si>
+    <t>350g vegetarian chicken;125ml cooking oil;500g glutinous rice;15 stalks blue pea flower;5 meters hemp string;8 pandan leaves;0.5 teaspoons of salt;36 pcs dried bamboo leaves;2 tablespoons or 12g biryani powder;2 tablespoons water;2 teaspoons mushroom stock;50g brown sugar;50g winter melon;15 stalks dried chilly;45g 2 stalks of fresh lemongrass;15g fresh blue ginger;15g fresh turmeric</t>
+  </si>
+  <si>
+    <t>4 large yellow capsicums; 2 cups cooked rice; 80g French beans; 100g canned corn kernels; 1 large tomato; 4 tablespoons extra virgin olive oil; 0.5 teaspoon of salt; 0.5 teaspoon of pepper; 10g coriander; 100g shredded cheese</t>
+  </si>
+  <si>
+    <t>750g chicken;2 tablespoons meat curry powder;2 heaped teaspoons chilly powder;2 tablespoons cooking oil;2 potatoes;500ml water1 spring curry leaf;250ml coconut milk;1 piece tamarind peel;2 teaspoons of salt;2 stalks lemon grass;1.5cm cinnamon stick;1 star anise;2 cardamons;3 shallots;1 clove garlic;5g young ginger</t>
+  </si>
+  <si>
+    <t>500g small prawns; 4 tablespoons garlic; 1 White cabbage; 2 cups green beans; 5 stalks leeks; 2 carrots; 10 Chinese mushrooms; 2 tablespoons light soy sauce; 1 teaspoon salt; Pepper; 1 tablespoon sugar;1kg Popiah skins; 5 heads Chinese lettuce; 4 Chinese sausages; 6 eggs; 2 cucumbers; 500g bean sprouts; 5 bunches fresh coriander; 100g Fried garlic; 1 cup roasted peanuts; 0.5 teaspoon of sweet black soy sauce; 0.5 teaspoon of Fresh garlic paste; 20 red chilly</t>
+  </si>
+  <si>
+    <t>175ml Cooking Oil;750ml water;75g tamarind pulp;900g Mackerel - sliced into 11/2 inch pieces;2 Kaffir Lime Leaves (optional);0.5 teaspoon Sugar;2.5 teaspoon Salt;20 young Lady Fingers / Okra;20 Dried chilly - soaked in water and drained;18 Shallots - peeled;2 cloves Garlic - peeled;5 Candlenuts (Buah Keras);0.5 inch Fresh Turmeric (Kunyit) - peeled;1 inch Galangal (Lengkuas) - peeled;4 stalks Lemongrass - sliced;1.5 teaspoon belachan</t>
+  </si>
+  <si>
+    <t>200g Sago Pearl;200g Gula Melaka (Palm Sugar);250ml Coconut Milk;1 Pandan Leaf (Screwpine Leaf)- shred with a fork &amp; tie into a knot;700ml  Water;0.5 teaspoons of Salt</t>
+  </si>
+  <si>
+    <t>1 small yam bean;1 guava;1 cucumber;1 carrot;0.5 green papaya;1 cup peeled pomelo sacs;80g rice flour; 80g tapioca flour; 1 egg; 300ml water; 1 teaspoon salt; 1 teaspoon sugar; 200g small prawns;20g galangal; 5 stalks bird’s eye chilly; 1 stalk fresh red chilly; 300ml plum sauce; 1 teaspoon salt; 2 teaspoons cooking oil; 5 tablespoons crushed fried peanuts; 1 tablespoon toasted sesame seeds</t>
+  </si>
+  <si>
+    <t>4 medium-sized ikan selar or horse mackerel; 1 tablespoon tamarind paste; 1 teaspoon dried shrimp paste; 1 stalk lemongrass; 3 red chilly; 1/2 onion; 4 whole kaffir lime leaves; 1/2 teaspoon salt; 1/2 teaspoon sugar;1 lime</t>
+  </si>
+  <si>
+    <t>20 pieces spring roll wrappers; 3 tablespoons plain flour; cooking oil;2 tablespoons cooking oil ; 2 springs curry Leaves ; 1 teaspoon mustard seeds ; 1/4 teaspoon cumin ; 1 clove garlic; 1 big onion; 3 tablespoons fish curry powder; 350 g pumpkin; 80 ml water; 50 g green peas; 2 tablespoons coconut milk ; 1 teaspoon sugar ; 1 teaspoon salt</t>
+  </si>
+  <si>
+    <t>3 tablespoons cooking oil;3cm cinnamon stick;2 star anise;2 cloves;3 shallots;2 cloves garlic;4 tablespoons fish curry powder;125ml water;15g tamarind paste;2 tablespoons palm sugar;600g pineapple;100ml coconut milk;1 teaspoon salt</t>
+  </si>
+  <si>
+    <t>300g chicken;300g belly pork;6 tablespoons cooking oil;1.5 tablespoons bean paste or tau cheo;40g palm sugar;10 dried shitake mushrooms;80ml water;2 potatoes;1 teaspoon dark soya sauce;2 teaspoons salt;20 shallots;3 cloves garlic</t>
+  </si>
+  <si>
+    <t>100 ml cooking oil; 1 big onion; 700 g chicken; 1/2 tablespoon brown sugar; 3 pieces kaffir lime leaves; 125 ml water; 125 ml thick coconut milk; 1 tablespoon lime juice; Salt;150g shallots;1 clove garlic;10g young ginger;10g galangal;10g turmeric;2 candle nuts;2 stalks lemon grass;5 stalks dried chilly;5 stalks bird’s eye chilly;10g toasted belachan</t>
+  </si>
+  <si>
+    <t>2kg glutinous rice;300g dried prawns;500g lean pork;100g candied winter melon;4 stalks lemon grass;5cm knob galangal;50g dried chilly;5 cloves garlic;10 shallots;3 tablespoons coriander seeds,;100 g sugar;5 Blue pea flowers;3 bundles large pandan leaves</t>
+  </si>
+  <si>
+    <t>2 pieces hard tofu (tau kwa);100g sweet corn kernels;1 red bell pepper;8 snow pea pods;1 tablespoon chilly paste;4 shallots;2 cloves garlic;1 tablespoon honey;1 teaspoon salt</t>
+  </si>
+  <si>
+    <t>500g round cabbage ;100g pork belly;10g dried black fungus;5g dried lily buds;10g sweet dried bean curd;20g dried tang hoon;10g dried mushrooms;10g dried prawns;3 cloves fresh garlic;10g tau cheoh paste;1 tablespoon dark soya sauce;5 tablespoons cooking oil;1 teaspoon chicken seasoning powder</t>
+  </si>
+  <si>
+    <t>16 pieces chicken drummets;2 tablespoons ginger juice;1 tablespoon corn flour;1 tablespoon chilly flakes;1 tablespoon oyster sauce;1 teaspoon chicken stock granules;0.25 teaspoon dark soya sauce;10 kaffir lime leaves;2 tablespoons honey;1 tablespoon salt</t>
+  </si>
+  <si>
+    <t>4kg turkey;1 medium-sized onion;1 stalk carrot;1 stick celery;1 small bunch Thai sweet basil;1 small bunch kaffir lime leaves;1 small bunch laksa leaves;1 teaspoon salt;1 tablespoon dried shrimp paste;0.75 cup vegetable or olive oil;2 teaspoons of Pepper;1 spring kaffir lime leaves;1 tablespoon corn flour;1 cup white wine</t>
+  </si>
+  <si>
+    <t>300g sweet potato flesh; 150g coarse sugar; 100ml water; 150g tapioca flour; 250ml thick coconut milk; 0.5 teaspoon of salt; 100g grated coconut flesh</t>
+  </si>
+  <si>
+    <t>500g glutinous rice;1 tablespoon freshly ground turmeric;1 pc tamarind peel;1 teaspoon pepper corns;0.5  teaspoon of salt;32 pcs dried bamboo leaves;5 meters hemp string;118ml cooking oil;35 stalks dried chilly;320 g shallots;4 tablespoons sugar ;1 teaspoon salt;250g dried prawns</t>
+  </si>
+  <si>
+    <t>0.5kg pork belly;3 heaped tablespoons tamarind paste;1 cup water;1 tablespoon salt;2 teaspoons sugar</t>
+  </si>
+  <si>
+    <t>1 skinless chicken breast;2 chicken drumsticks;2 cups rice;2 tablespoons oil;5cm piece of ginger;1 stalk scallion;6 shiitake mushrooms;CHICKEN MARINADE;2 tablespoons oyster sauce;1 tablespoon soy sauce;0.5 teaspoon corn starch;0.5 teaspoon sesame oil;3 dashes white pepper;0.25 teaspoon sugar;1 tablespoon Shaoxing wine;RICE SEASONINGS;2 tablespoons soy sauce;0.5 tablespoon dark soy sauce;2 teaspoons cooking oil;0.5 teaspoon of salt</t>
+  </si>
+  <si>
+    <t>2 tablespoons cooking oil;3 litres water;700g pork ribs;2 teaspoon salt;600g yellow noodles;200g dried vermicelli;FOR THE SPICE PASTE:;10 dried chillies;10 shallots;2 cloves garlic;500g prawn heads and shells;20g rock sugar;CHILLI PASTE:;15 dried chillies;5 red fresh chillies;5 shallots;0.25 teaspoon salt;1 teaspoon sugar</t>
+  </si>
+  <si>
+    <t>1 tablespoon black pepper;4 tablespoons melted unsalted butter;3 cloves garlic;1/8 small onion;1 kilo crab;1 tablespoon oyster sauce;1/2 tablespoon sugar ;2 tablespoons water;Salt</t>
+  </si>
+  <si>
+    <t>500g pork mince;1 large onion;2 potatoes;250g frozen peas;1 teaspoon dark soya sauce;1 teaspoon salt;1 small stick of cinnamon;3 cloves;1 dash of pepper;2 teaspoons vegetable oil</t>
+  </si>
+  <si>
+    <t>0.5 litres water;400g chicken meat or spare ribs;1 piece dried squid;1 tablespoon chicken stock granules;8 red dates;0.25 teaspoon pepper;1 carrot;350g lotus roots;0.5 teaspoon of Salt</t>
+  </si>
+  <si>
+    <t>1 kg clams;1 onion;4 cloves garlic;2 tablespoons vegetable oil;0.5 cup Chinese rice wine;5 slices ginger;2 chilies;0.5 tablespoon sesame oil;1 spring spring onion;1 tablespoon light soya sauce</t>
+  </si>
+  <si>
+    <t>8 large prawns;3 tablespoons butter;0.5 teaspoon of Salt;0.5 teaspoon of pepper;TOPPING:;8 tablespoons nestum;1 handful curry leaves;2 chilly padi;1 teaspoon salt;1 tablespoon sugar;80 g salted butter</t>
+  </si>
+  <si>
+    <t>500g fish fillet;500g fish bones;3 ginger;1 tablespoon Tianjin preserved vegetables;1 teaspoon of Dried seaweed;1 tablespoon light soy sauce;0.5 tablespoon sesame oil;1 teaspoon rice wine;1 teaspoon of Pepper;2 tablespoons hua tiao wine;2 litres water;2 slices ginger;2 stalks spring onions;2 stalks coriander;2 cups cooked rice</t>
+  </si>
+  <si>
+    <t>1kg white glutinous rice;80g Chinese dried mushrooms;200g Chinese sausages;20 g dried prawns;100g shallots;10 g peanuts;0.5 teaspoon of Salt;2 teaspoon of light soya sauce;2 teaspoon of dark soya sauce;2 spring onions</t>
+  </si>
+  <si>
+    <t>2kg glutinous rice;500g pork hock with skin;100g lean pork;30 small dried shiitake mushrooms;30 dried Chinese chestnuts;10 cloves garlic,;2 teaspoon of Soy sauce;5 spice powder;0.5 teaspoon of salt;0.5 teaspoon of pepper;20 salted egg yolks;3 bundles bamboo leaves</t>
+  </si>
+  <si>
+    <t>2 pieces golden snapper fish or ikan jenahak;125ml cooking oil;6 shallots;6 cloves garlic;50g tamarind pulp;10g red chilli padi;2 tablespoons sugar;1 teaspoon salt</t>
+  </si>
+  <si>
+    <t>1 large snapper or pomfret;1 packet salted vegetables (kiamchye);3 pickled plums;1 teaspoon corn flour;2 large tomatoes;1 red chili;2 Coriander;5 teaspoon of Sesame oil</t>
+  </si>
+  <si>
+    <t>300g dried egg noodles ;2 eggs;100g dried shrimps;8 dried shiitake mushrooms;1 teaspoon sugar;1 tablespoon soy sauce;3 tablespoons oyster sauce;3 stalks spring onions;1 spring of coriander;500ml of Water;0.5 teaspoon of Salt;0.5 teaspoon of pepper;5 teaspoon of cooking Oil</t>
+  </si>
+  <si>
+    <t>4 chicken eggs;500ml water;125ml fresh milk;1 teaspoon chicken stock granules;0.5 teaspoon ground pepper;2 century eggs;1 salted egg yolk;2 crabsticks;1 tablespoons chopped spring onions;1 teaspoon sesame oil;0.5 teaspoon salt;GARNISHING:;Garlic crisps;cooking oil</t>
+  </si>
+  <si>
+    <t>60g butter;2 tablespoons cooking oil;3 shallots;6 birds eye chillies;3 sprigs curry leaves;3 salted egg yolks;150ml evaporated milk;3 tablespoons water;500g fresh medium sized prawns;0.5 teaspoon sugar;0.5 teaspoon salt</t>
+  </si>
+  <si>
+    <t>0.5 chicken;2 potatoes;0.5 cup oil;60g chicken curry powder;2 onions;2 lemon grass;2 cups water;0.5 cup coconut milk;0.5 cup evaporated milk;4 teaspoons salt;0.5 teaspoon sugar;5 curry leaves;5 cloves garlic;10 cloves shallot;3 stalks lemon grass</t>
+  </si>
+  <si>
+    <t>2 chicken whole legs;2 potatoes;5 teaspoon of Cooking oil;375ml water;12 ml thick coconut milk;2 whole tomatoes;1 teaspoon salt;1 teaspoon sugar;1 cinnamon stick;3 cloves;3 cardamons;1 bay leaf;1 big onion;2 green chillies;12g young ginger;20g green chillies;60g shallots;3 cloves garlic;6 cashew nuts;0.5 tablespoon coriander seeds;0.5 teaspoon fennel;0.5 tablespoon cumin;0.5 teaspoon turmeric powder;0.5 teaspoon peppercorns;1 sprig coriander leaves;1 tablespoon shallot crisps</t>
+  </si>
+  <si>
+    <t>0.5 cups basmati rice;4 pieces cardamom;5 cloves;1 cinnamon stick;1 good pinch saffron strands;1 cup water;1 teaspoon salt;4 boneless chicken leg;4 heaped tablespoons Indian yoghurt;1 teaspoon smoked paprika;1 tablespoon grated ginger;1 teaspoon cracked black pepper;1 teaspoon turmeric powder;1 tablespoon cumin powder;1 teaspoon sea salt</t>
+  </si>
+  <si>
+    <t>1 teaspoon sugar;0.75 cup warm water;0.25 oz active dry yeast;2 cups all-purpose flour;0.5 cup plain yogurt;1 tablespoon oil;5 teaspoon of Some oil, for greasing the skillet;3 tablespoons melted salted butter</t>
+  </si>
+  <si>
+    <t>1 lb chicken legs;5 teaspoon of Oil, for basting;1 lime, cut into wedges;0.5 cup Greek yogurt;1 teaspoon finely minced ginger;1 teaspoon finely minced garlic;0.5 teaspoon Garam Masala;0.25 teaspoon cayenne pepper;2 tablespoons lime juice;1 tablespoons oil;0.5 teaspoons salt or to taste;0.25 teaspoon turmeric powder;2g Red coloring, optional</t>
+  </si>
+  <si>
+    <t>580g All purpose flour ;1.5 teaspoon Kosher salt;1 teaspoon Granulated sugar;0.75 cup Ghee, room temperature ;1 large Egg, beaten;0.75 cup Whole milk;0.5 cup Water</t>
+  </si>
+  <si>
+    <t>0.5 cup of all-purpose flour (if you are familiar with Indian wheat flour or durum aata you can use that as well);2 teaspoon semolina (cream of wheat);2 teaspoon oil;1 teaspoon salt;0.5 ajwain seeds (optional);0.7 cups of water;2 medium sized potatoes (I use Yukon gold);0.5 cup sweet green peas;1 cup thinly sliced onions;1 teaspoon cumin seeds;1 teaspoon minced green chilly;0.5 teaspoon coriander powder (optional)</t>
+  </si>
+  <si>
+    <t>2 ripe mangoes, peeled and diced, about 1 lb.;5 tablespoons honey or agave nectar, or to taste;1 cup ice;1 heaping cup plain yogurt</t>
+  </si>
+  <si>
+    <t>1 lb shrimp, tiger prawn preferred, shelled and deveined, tails on Bamboo skewers, soaked in water before using Oil, for basting;0.5 tablespoon chopped cilantro;1 lime, cut into wedges;0.3 cup Greek yogurt;1 teaspoon finely minced garlic;0.5 teaspoon Garam Masala;0.25 teaspoon chili powder;2 tablespoons lime juice;1 tablespoons oil;0.5 teaspoons salt or to taste;0.25 teaspoon turmeric powder;5g Red coloring, optional</t>
+  </si>
+  <si>
+    <t>1 lb Tandoori Chicken;4 tablespoons butter;1 teaspoon finely minced ginger;2 teaspoons finely minced garlic;120ml canned tomato paste;2 tablespoons chili powder;0.5 teaspoon Garam Masala;2 tablespoons ketchup;0.5 teaspoon sugar;0.5 teaspoon of Salt, to taste;120ml water;4 tablespoons heavy whipping cream;2 sprigs cilantro, leaves only, roughly chopped</t>
+  </si>
+  <si>
+    <t>2 tablespoons vegetable oil;0.75 teaspoon cumin seeds;1 large onion, minced;2 teaspoons ginger-garlic paste;3 medium sized ripe tomatoes, pureed;0.5 teaspoon coriander powder;0.5 teaspoon cumin powder;0.25 teaspoon turmeric powder;0.25 teaspoon chili powder or according to taste;2 tablespoons dry kasoori methi;2 tablespoons heavy cream, optional;0.5 teaspoon of Salt;15 fresh white button mushrooms;1 large green or red bell pepper, cubed;0.25 teaspoon turmeric;0.25 teaspoon chili powder, or to taste;0.25 cup whole Greek yogurt or strained yogurt;1 tablespoon oil</t>
+  </si>
+  <si>
+    <t>1 medium cauliflower, cut into florets;2 large russet potatoes, cubed;4 tablespoons canola oil;0.5 teaspoon black mustard seeds (or regular if cannot find black);0.5 teaspoon cumin seeds;0.5 teaspoon coriander seeds, crushed in a mortar and pestle;1 medium onion, diced;1 Jalapeno or any hot green pepper, sliced (can use seeded or 1/2 seeded to tone down heat);1 medium tomato, diced;4 garlic cloves, minced;1 small piece of fresh ginger (thin 1 inch), grated on small hole grater or ginger grater;0.5 teaspoon red pepper chili powder;0.5 teaspoon turmeric powder;0.5 teaspoon salt or according to taste;8 tablespoons of water</t>
+  </si>
+  <si>
+    <t>1 pack seafood curry paste;6 large prawns;6 squids;6 scallops;0.5 lb. seabass fillet (cut into small cubes/pieces);1 tomato (cut into wedges);2 tablespoons coconut milk;1 tablespoon tamarind pulp (soaked in 4 tablespoons water and extract the juice);2 shallots (peeled and sliced);0.5 cups water;1 tablespoon oil;0.5 teaspoon of Salt to taste;1 sprig curry leaves (optional)</t>
+  </si>
+  <si>
+    <t>2 lbs chicken (preferably thigh meat, boneless and skinless, cut into 2-3 inch pieces);2 teaspoons ginger paste;0.5 tablespoons garlic paste;1 teaspoons red chilly powder;0.5 teaspoon ground black pepper;0.5 teaspoon of Salt as per taste;3 tablespoon cooking oil;2 teaspoons lime/lemon juice;2 pinches of food color (deep orange, totally optional);4 large tomatoes, quartered;0.5 tablespoons garlic paste;2 teaspoons ginger paste;1 jalapeno;1 2-inch cinnamon piece;1 bay leaf;4 cloves;2 green cardamom;6 whole black pepper;2 tablespoons ketchup;2 teaspoon sugar;0.5 teaspoon red chili powder;0.5 teaspoon dried fenugreek leaves;0.5 teaspoon of Salt as per taste;2 tablespoons cooking oil;2 tablespoon butter;0.5 cup water</t>
+  </si>
+  <si>
+    <t>1 whole chicken, cut up into 8 pieces and skin removed onion, chopped;1 tablespoon tomato paste;0.5 teaspoon of Salt as per taste;0.5 teaspoon of pepper as per taste;3 tablespoons oil;0.5 cup vinegar (white);4 dried red Chile peppers (you can use any moderately hot Chile and adjust the quantity as per you liking);4 cloves;8 garlic cloves, skin removed;1 2inch piece fresh ginger, peeled;1 teaspoon paprika powder;0.25 teaspoon ground cinnamon;0.5 teaspoon ground cumin;0.5 teaspoon dry mustard;1 teaspoon sugar</t>
+  </si>
+  <si>
+    <t>10 oz skinless and boneless chicken breast, cut into 1/2-inch cubes;1 tablespoon butter;2 cloves garlic, minced;1/2 jalapeno, deseeded;0.5 teaspoon of Salt to taste;1 12-inches store-bought pizza crust or three (3) 7-inches mini pizza crusts;1 teaspoon of Olive oil for brushing;0.25 onion, thinly sliced;1 cup mozzarella cheese;2 sprig of coriander leaves/cilantro, chopped, save some for garnish;0.5 teaspoon ground cumin;0.5 teaspoon ground cayenne pepper;0.5 teaspoon ground garam masala;0.5 teaspoon minced fresh ginger;0.25 teaspoon salt;0.25 teaspoon ground black pepper;1 tablespoon lemon juice;2 tablespoons plain yogurt;0.5 teasponn of cinnamon;4oz tomato sauce;2 tablespoons plain yogurt;2 tablespoons heavy cream;0.5 teaspoon cumin;0.5 teaspoon paprika;0.5 teaspoon garam masala</t>
+  </si>
+  <si>
+    <t>600g boneless, skinless chicken breast;4 tablespoons vegetable oil;1 tablespoon minced garlic;1 teaspoon peeled and finely grated fresh ginger;1 onion, grated on the largest grating holes on a box grater or shredded in a food processor;0.75 teaspoon cumin seeds;4 whole green cardamom pods;1 large fully ripe tomato, cut into 4 pieces;0.25 heaping teaspoon ground turmeric;0.75 teaspoon ground red pepper (cayenne);0.75 teaspoon salt;0.75 teaspoon ground black pepper</t>
+  </si>
+  <si>
+    <t>2 cups whole wheat flour (or stone ground drum-wheat also known as Atta);1 cup water (approximately);1 teaspoon salt;2g flour in a shallow plate or pie dish to help with coating and dusting while rolling the chapattis</t>
+  </si>
+  <si>
+    <t>500g ripe but firm green mango;1 sticks cinnamon (about 2 inch);2 whole cloves;1 teaspoon cumin seeds;1 teaspoon coriander seeds;2 cardamom pods, cracked;1 teaspoon ginger, grated;3 whole dry red chilly;1 clove garlic, crushed;0.75 cup demerara sugar;0.5 cup vinegar;0.75 cup water;1 teaspoon salt</t>
+  </si>
+  <si>
+    <t>60 g almonds;100 g icing sugar;50 g aged egg whites;20 g caster sugar;0.5 teaspoon of pink food colouring powder;0.5 teaspoon of rose essence;50 g caster sugar;50 ml water;2  egg yolks  ;125 g butter;2 tablespoons canned lychee</t>
+  </si>
+  <si>
+    <t>2  large onions;1  turmeric root;4  slices of lengkwas (galangal) root;2  stalks lemongrass;4  red chilly;5  candlenuts;1 tablespoon  belacan (shrimp paste);1 teaspoon  chopped garlic;0.5 kg chicken;1 cup coconut milk;1 cup water;2 teaspoons  salt ;0.5 teaspoon of White pepper;1 teaspoon  sugar;5 Fresh kaffir lime leaves;5 Fried shallots;5g  Fried garlic</t>
+  </si>
+  <si>
+    <t>4 tablespoons ghee;13 cm Brass moulds;180 g plain flour;220 g castor sugar;0.25 teaspoon salt;5  eggs;500 ml coconut milk;60 ml pandan juice;0.25 teaspoon pandan colouring</t>
+  </si>
+  <si>
+    <t>1 teaspoon of Oil ;1  fresh chicken;3 tablespoons  garlic powder ;2 teaspoon  salt ;1 teaspoon  ground turmeric ;1 teaspoon  ground nutmeg;12 tablespoons  butter</t>
+  </si>
+  <si>
+    <t>3  large red onions;1  red bell pepper;10  large red chilli;200 g honey red tomatoes;1  bulb garlic;1  stick cinnamon;1 tablespoon fish sauce;4 tablespoons sugar;1 cup oil</t>
+  </si>
+  <si>
+    <t>1  firm beancurd;2 heaped tablespoons chunky peanut butter;2 heaped tablespoons  Hoisin sauce;3 tablespoons water;3 tablespoons vegetable oil;0.5 teaspoon of Salt;0.5 teaspoon of pepper;150 g tinned crabmeat;0.5  lime;1  cucumber;0.5  carrot</t>
+  </si>
+  <si>
+    <t>5  royal gala apples;150 g sugar ;220 g butter;80 g margarine;0.25 teaspoon  salt;250 g castor sugar;0.5 teaspoon  vanilla extract;300 g plain flour;1 tablespoon  baking powder;75 g ground almonds;1 teaspoon  ground cinnamon;5  Grade A eggs;80 ml milk;10 round bundt pan</t>
+  </si>
+  <si>
+    <t>6  sweet ripe bananas;2 tablespoons lemon juice;0.25 cup full cream milk;1 teaspoon vanilla paste;2 teaspoons baking powder;200 g butter;0.5 teaspoon of sugar;3  eggs;1 cup flour;0.5 cup walnuts;0.25 cup chopped candied ginger;100ml of Vanilla ice-cream</t>
+  </si>
+  <si>
+    <t>250 g good quality butter;0.25 teaspoon salt;90 g sugee/ polenta;150 ml fresh milk ;220 g caster sugar;3  Grade A eggs;1  orange;375 g self-raising flour;1 tablespoons  brandy (optional);1  pineapple;20g Extra butter;50 g brown sugar to sprinkle;1 bottle of cream for serving</t>
+  </si>
+  <si>
+    <t>4 piece Chicken;300ml water;2 piece Salam Leaf;5 teaspoon of Oil to fry;5 cloves Garlic;0.5 teaspoon Coriander;3 cm Ginger;3 cm Galangal;3 cloves Shallots;0.5 tomato;1 teaspoon shrimp paste;2 teaspoon salt;1 bunch Lemon Basil (kemangi);2 keylime;11 piece red chili</t>
+  </si>
+  <si>
+    <t>455 g butter;115 g flour;1 teaspoon mixed spice (ground cinnamon, cloves, anise and cardamon);17 egg yolks;5 egg whites;255 g caster sugar;2 teaspoons vanilla essence</t>
+  </si>
+  <si>
+    <t>150 g dried adzuki beans;1.5 can coconut milk;300 ml water;1 cm sliced ginger;130 g brown sugar , to taste;0.5 teaspoon of salt</t>
+  </si>
+  <si>
+    <t>155g plain flour;2 tablespoons caster sugar;0.5 teaspoon vanilla essence;125ml milk;1 egg;40g butter, melted;1 teaspoon rum or imitation rum essence;4 ripe bananas, sliced;500ml (2 cups) oil for frying</t>
+  </si>
+  <si>
+    <t>1 small head iceberg lettuce, leaves separated;2 large potatoes, boiled and sliced;200g green beans, sliced, blanched;0.75 cup bean sprouts, blanched;0.5 cups shredded Chinese cabbage, blanched;2 medium tomatoes, cut into wedges;1 medium red onion, sliced;3 spring onions, cut in short lengths;1 cucumber, thinly sliced;2 fresh red chilly, seeded and thinly sliced;4 medium hard–boiled eggs, sliced;125g fried tofu, cut into cubes;For the peanut sauce;1/2 cup of vegetable oil;1 1/4 cups raw unsalted peanuts;2 garlic cloves;4 spring onions, chopped;salt;1/2 teaspoon chilli powder;1 teaspoon soft brown sugar;1 tablespoon dark soy sauce;2 cups water;juice of 1 lemon</t>
+  </si>
+  <si>
+    <t>4 fresh banana peppers, seeded and chopped;4 shallots, chopped;5 cloves garlic, chopped;2 tablespoon salt;1 teaspoon chilli powder;1 tablespoon vegetable oil;1 kg beef tenderloin, cut into 5 x 2.5 cm cubes;2 cm galangal, thinly sliced;3 stalks lemongrass, chopped;6 lime leaves;1 teaspoon ground turmeric;3 cans coconut milk</t>
+  </si>
+  <si>
+    <t>500 g lean beef, cut into long chunks;2 kaffir lime leaves;1 tablespoon ground coriander;120 ml tamarind juice;250 ml coconut milk;1 tablespoon palm sugar;0.5 teaspoon of salt to taste;Spice blend;8 shallots;3 cloves garlic;1 cm ginger;2 cm galangal;6 dried chillies (deseeded and soaked in warm water to soften);1 lemongrass bulb, roughly chopped</t>
+  </si>
+  <si>
+    <t>300 g cleaned squid, scored;2 shallots;1 clove garlic;1.5 cm ginger;1 teaspoon turmeric powder;1 pinch brown sugar;0.5 teaspoon of salt to taste;0.5 teaspoon of pepper to taste;2 tablespoon lime juice;4 tablespoon kecap manis (dark sweet soy sauce);2 tablespoon cooking oil</t>
+  </si>
+  <si>
+    <t>2 large free range eggs;6 teaspoon single cream or full cream milk;5g of butter</t>
+  </si>
+  <si>
+    <t>6 boneless skinless chicken breasts;cooked rice;0.25 cup Real Lemon juice;8 ounces fresh sliced mushrooms;0.25 cup unsifted flour;1 teaspoon salt;0.5 teaspoon black pepper;0.5 cup butter;1 tablespoon sugar</t>
+  </si>
+  <si>
+    <t>5 slices of salmon fillet;1 teaspoon ground ginger;1 teaspoon garlic powder;0.3 cup reduced sodium soy sauce;0.3 cup orange juice;0.25 cup honey;1 green onion, chopped</t>
+  </si>
+  <si>
+    <t>6 pounds baby back pork ribs;0.5 cups ketchup;3 tablespoons kosher salt;2 tablespoons chili powder;2 tablespoons packed dark brown sugar;2 tablespoons paprika;1 tablespoon garlic powder;2 teaspoons ground mustard;1 teaspoon freshly ground black pepper;2 full racks baby back pork ribs (about 5 to 6 pounds);0.5 cup water;0.3 cup packed dark brown sugar;0.25 cup light or dark molasses (not blackstrap);2 tablespoons cider vinegar;2 tablespoons Worcestershire sauce;1 tablespoon chili powder;2 teaspoons garlic powder;2 teaspoons paprika</t>
+  </si>
+  <si>
+    <t>1 pound ground dark-meat turkey;0.5 teaspoon dried oregano;0.5 teaspoon fennel seeds;0.25 teaspoon red pepper flakes;0.25 cup ricotta cheese;1 large egg, lightly beaten;2 tablespoons finely chopped flat-leaf parsley;28-ounce can crushed tomatoes;1 slice of Freshly grated Parmesan cheese;5 teaspoon of Vegetable oil;3 ounce of fresh white breadcrumbs;0.5 cup milk;0.5 teaspoons kosher salt, plus more to taste;5g of freshly ground black pepper;2 tablespoons olive oil</t>
+  </si>
+  <si>
+    <t>1 pounds manila or littleneck clams;1 pint cherry tomatoes;1 pound linguine;4 anchovy fillets, chopped;0.25 cup finely chopped Italian parsley;0.5 teaspoon of Kosher salt;1 tablespoon olive oil;1 medium yellow onion, coarsely chopped;4 medium garlic cloves, minced;5g of freshly ground black pepper</t>
+  </si>
+  <si>
+    <t>1 teaspoons fresh thyme leaves;1 medium zucchini, small dice;1 medium yellow squash or golden zucchini, small dice;1 small eggplant, small dice;2 tablespoons fresh basil leaves, torn in small pieces;1 pound dried pasta, such as penne, cavatelli, or garganelli;0.5 a lemon (Finely grated zest and juice);1 cup crumbled feta cheese;6 tablespoons extra-virgin olive oil;3 medium garlic cloves, sliced thin;1 cup canned whole tomatoes, cut into 1/2-inch strips, juice reserved;0.5 teaspoon of Kosher salt;5g of freshly ground black pepper;1 small yellow onion, small dice</t>
+  </si>
+  <si>
+    <t>7 ounce skinless salmon fillets;0.25 cup vegetable oil;2 cloves garlic, sliced;3 cups seeded, julienned hothouse cucumbers, soaked in cold water to crisp; drained;0.3 cup chopped Asian basil;3 tablespoons chopped, roasted peanuts;1 teaspoon finely chopped garlic;3 Thai bird chiles or 1 serrano chile, chopped;3 tablespoons sugar;3 tablespoons minced ginger;3 tablespoons fish sauce;3 tablespoons lime juice;3 tablespoons water</t>
+  </si>
+  <si>
+    <t>16 ounce package shredded coleslaw mix;1 cup mayonnaise;2 tablespoons sugar ;0.5 teaspoon salt;0.5 teaspoon pepper;0.5 teaspoon celery seed;0.5 teaspoon garlic powder;0.5 teaspoon onion powder;2 tablespoons cider vinegar</t>
+  </si>
+  <si>
+    <t>knob of butter;2 slices white bread;1/2 ripe avocado;1/2 lemon, plus a wedge to serve;handful watercress;1 large egg; few slices smoked salmon</t>
+  </si>
+  <si>
+    <t>clean the fish and make slashes across the thickest part of the fish.;Rinse and pat dry, dust lightly with corn flour.;Heat up a wok without any oil and dry fry the salted vegetables for a few minutes. Add a little oil and the plums and half the tomatoes.;Whisk together soy sauce, sugar, cornstarch, and ginger in a bowl until the sugar has dissolved and the mixture is smooth. Place the steak slices into the marinade, and stir until well-coated.;Heat 1 tablespoon of vegetable oil in a wok or large skillet over medium-high heat, and place easy of the steak strips into the hot oil. Cook and stir until the beef is well-browned, about 3 minutes, and remove the beef from the wok to a bowl. Repeat twice more, with the remaining beef, and set the cooked beef aside.;Return all the cooked beef to the hot wok, and stir in the onion. Toss the beef and onion together until the onion begins to soften, about 2 minutes, then stir in the green pepper. Cook and stir the mixture until the pepper has turned bright green and started to become tender, about 2 minutes, then add the tomatoes, stir everything together, and serve.</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +1922,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2183,6 +1988,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2473,34 +2283,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="24"/>
-    <col min="4" max="4" width="9.109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="24"/>
-    <col min="6" max="6" width="34.21875" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="24"/>
+    <col min="4" max="4" width="9.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="24"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="255.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.88671875" customWidth="1"/>
-    <col min="14" max="14" width="120.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" customWidth="1"/>
+    <col min="14" max="14" width="120.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
@@ -2521,7 +2331,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>544</v>
+        <v>418</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -2539,12 +2349,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C2" s="24">
         <v>6</v>
@@ -2555,40 +2365,40 @@
       <c r="E2" s="24">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>564</v>
+      <c r="F2" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>611</v>
+        <v>520</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C3" s="24">
         <v>18</v>
@@ -2599,40 +2409,40 @@
       <c r="E3" s="24">
         <v>135</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>563</v>
+      <c r="F3" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>540</v>
+        <v>231</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>612</v>
+        <v>521</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>468</v>
+        <v>367</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C4" s="24">
         <v>4</v>
@@ -2643,40 +2453,40 @@
       <c r="E4" s="24">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>65</v>
+      <c r="F4" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>613</v>
+        <v>522</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C5" s="24">
         <v>6</v>
@@ -2687,40 +2497,40 @@
       <c r="E5" s="24">
         <v>30</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>65</v>
+      <c r="F5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>601</v>
+        <v>523</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C6" s="24">
         <v>10</v>
@@ -2731,40 +2541,40 @@
       <c r="E6" s="24">
         <v>30</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>65</v>
+      <c r="G6" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>540</v>
+        <v>231</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>602</v>
+        <v>524</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C7" s="24">
         <v>10</v>
@@ -2775,40 +2585,40 @@
       <c r="E7" s="24">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>65</v>
+      <c r="G7" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>541</v>
+        <v>231</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>511</v>
+        <v>410</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>603</v>
+        <v>525</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>473</v>
+        <v>372</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C8" s="24">
         <v>4</v>
@@ -2819,37 +2629,40 @@
       <c r="E8" s="24">
         <v>10</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="27" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>542</v>
+        <v>231</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="K8" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="L8" s="10" t="s">
-        <v>604</v>
+        <v>526</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C9" s="24">
         <v>6</v>
@@ -2860,40 +2673,40 @@
       <c r="E9" s="24">
         <v>25</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>25</v>
+      <c r="F9" s="27" t="s">
+        <v>433</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>219</v>
+        <v>444</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>605</v>
+        <v>527</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C10" s="24">
         <v>4</v>
@@ -2904,40 +2717,40 @@
       <c r="E10" s="24">
         <v>30</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>65</v>
+      <c r="F10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>543</v>
+        <v>417</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>291</v>
+        <v>457</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>606</v>
+        <v>528</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C11" s="24">
         <v>10</v>
@@ -2948,40 +2761,40 @@
       <c r="E11" s="24">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>65</v>
+      <c r="F11" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C12" s="24">
         <v>4</v>
@@ -2992,40 +2805,40 @@
       <c r="E12" s="24">
         <v>140</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>65</v>
+      <c r="F12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>607</v>
+        <v>530</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>474</v>
+        <v>373</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C13" s="24">
         <v>6</v>
@@ -3036,40 +2849,40 @@
       <c r="E13" s="24">
         <v>50</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>65</v>
+      <c r="F13" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>296</v>
+        <v>458</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C14" s="24">
         <v>4</v>
@@ -3080,40 +2893,40 @@
       <c r="E14" s="24">
         <v>20</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>65</v>
+      <c r="F14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>569</v>
+        <v>421</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>476</v>
+        <v>375</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C15" s="24">
         <v>6</v>
@@ -3124,40 +2937,40 @@
       <c r="E15" s="24">
         <v>30</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>65</v>
+      <c r="G15" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>477</v>
+        <v>376</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C16" s="24">
         <v>10</v>
@@ -3168,40 +2981,40 @@
       <c r="E16" s="24">
         <v>250</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>71</v>
+      <c r="F16" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>272</v>
+        <v>415</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>301</v>
+        <v>459</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>608</v>
+        <v>533</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>478</v>
+        <v>377</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C17" s="24">
         <v>4</v>
@@ -3212,40 +3025,40 @@
       <c r="E17" s="24">
         <v>10</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>65</v>
+      <c r="F17" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>479</v>
+        <v>378</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C18" s="24">
         <v>6</v>
@@ -3256,40 +3069,40 @@
       <c r="E18" s="24">
         <v>55</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>65</v>
+      <c r="F18" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>542</v>
+        <v>231</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>304</v>
+        <v>61</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>480</v>
+        <v>379</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C19" s="24">
         <v>4</v>
@@ -3300,40 +3113,40 @@
       <c r="E19" s="24">
         <v>20</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>65</v>
+      <c r="G19" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>550</v>
+        <v>219</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>481</v>
+        <v>380</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C20" s="24">
         <v>12</v>
@@ -3344,40 +3157,40 @@
       <c r="E20" s="24">
         <v>120</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>65</v>
+      <c r="F20" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>306</v>
+        <v>514</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>614</v>
+        <v>537</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>482</v>
+        <v>381</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C21" s="24">
         <v>20</v>
@@ -3388,40 +3201,40 @@
       <c r="E21" s="24">
         <v>300</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>559</v>
+      <c r="F21" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>615</v>
+        <v>538</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>483</v>
+        <v>382</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>463</v>
+        <v>362</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C22" s="24">
         <v>15</v>
@@ -3432,40 +3245,40 @@
       <c r="E22" s="24">
         <v>135</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>65</v>
+      <c r="G22" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>545</v>
+        <v>231</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>310</v>
+      <c r="K22" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C23" s="25">
         <v>10</v>
@@ -3476,40 +3289,40 @@
       <c r="E23" s="25">
         <v>50</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>65</v>
+      <c r="G23" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>546</v>
+        <v>236</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>61</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>616</v>
+        <v>540</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>485</v>
+        <v>384</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C24" s="25">
         <v>2</v>
@@ -3520,40 +3333,40 @@
       <c r="E24" s="25">
         <v>30</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="N24" s="15" t="s">
+    </row>
+    <row r="25" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="B25" s="20" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C25" s="24">
         <v>6</v>
@@ -3564,40 +3377,40 @@
       <c r="E25" s="24">
         <v>60</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>561</v>
+      <c r="F25" s="27" t="s">
+        <v>435</v>
       </c>
       <c r="G25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="N25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="N25" s="10" t="s">
+    </row>
+    <row r="26" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="B26" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C26" s="24">
         <v>4</v>
@@ -3608,40 +3421,40 @@
       <c r="E26" s="24">
         <v>20</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>535</v>
+      <c r="F26" s="27" t="s">
+        <v>436</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J26" s="10" t="s">
+    </row>
+    <row r="27" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="B27" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C27" s="24">
         <v>6</v>
@@ -3652,40 +3465,40 @@
       <c r="E27" s="24">
         <v>20</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>535</v>
+      <c r="F27" s="27" t="s">
+        <v>436</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="I27" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>319</v>
+        <v>61</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>618</v>
+        <v>544</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>421</v>
+        <v>321</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C28" s="24">
         <v>4</v>
@@ -3696,40 +3509,40 @@
       <c r="E28" s="24">
         <v>45</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>535</v>
+      <c r="F28" s="27" t="s">
+        <v>433</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>321</v>
+        <v>458</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>320</v>
+        <v>519</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>619</v>
+        <v>545</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>537</v>
+        <v>414</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C29" s="24">
         <v>4</v>
@@ -3740,40 +3553,40 @@
       <c r="E29" s="24">
         <v>5</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>65</v>
+      <c r="F29" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="B30" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C30" s="24">
         <v>4</v>
@@ -3784,40 +3597,40 @@
       <c r="E30" s="24">
         <v>15</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>65</v>
+      <c r="F30" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>486</v>
+        <v>385</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C31" s="24">
         <v>4</v>
@@ -3828,40 +3641,40 @@
       <c r="E31" s="24">
         <v>35</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>65</v>
+      <c r="F31" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>325</v>
+        <v>457</v>
       </c>
       <c r="K31" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>424</v>
-      </c>
       <c r="N31" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C32" s="24">
         <v>4</v>
@@ -3872,40 +3685,40 @@
       <c r="E32" s="24">
         <v>6</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>65</v>
+      <c r="F32" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>547</v>
+        <v>415</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>327</v>
+        <v>457</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>576</v>
+        <v>422</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C33" s="24">
         <v>6</v>
@@ -3916,40 +3729,40 @@
       <c r="E33" s="24">
         <v>55</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>535</v>
+      <c r="F33" s="27" t="s">
+        <v>437</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>547</v>
+        <v>415</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>328</v>
+        <v>513</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>622</v>
+        <v>549</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C34" s="24">
         <v>2</v>
@@ -3960,40 +3773,40 @@
       <c r="E34" s="24">
         <v>8</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>65</v>
+      <c r="F34" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>539</v>
+        <v>415</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C35" s="24">
         <v>10</v>
@@ -4004,40 +3817,40 @@
       <c r="E35" s="24">
         <v>250</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>65</v>
+      <c r="F35" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>539</v>
+        <v>415</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>331</v>
+        <v>61</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>624</v>
+        <v>550</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C36" s="24">
         <v>2</v>
@@ -4048,40 +3861,40 @@
       <c r="E36" s="24">
         <v>10</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>65</v>
+      <c r="F36" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>219</v>
+        <v>450</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>96</v>
+        <v>457</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>625</v>
+        <v>551</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C37" s="24">
         <v>3</v>
@@ -4092,40 +3905,40 @@
       <c r="E37" s="24">
         <v>12</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>65</v>
+      <c r="F37" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>96</v>
+        <v>457</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>626</v>
+        <v>552</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C38" s="24">
         <v>4</v>
@@ -4136,40 +3949,40 @@
       <c r="E38" s="24">
         <v>10</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>65</v>
+      <c r="F38" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>627</v>
+        <v>553</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>431</v>
+        <v>331</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C39" s="24">
         <v>6</v>
@@ -4180,37 +3993,40 @@
       <c r="E39" s="24">
         <v>25</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>65</v>
+      <c r="F39" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>539</v>
+        <v>415</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>460</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C40" s="24">
         <v>4</v>
@@ -4221,40 +4037,40 @@
       <c r="E40" s="24">
         <v>8</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>65</v>
+      <c r="F40" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>628</v>
+        <v>555</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>464</v>
+        <v>363</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C41" s="24">
         <v>1</v>
@@ -4265,40 +4081,40 @@
       <c r="E41" s="24">
         <v>30</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>535</v>
+      <c r="F41" s="27" t="s">
+        <v>436</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>548</v>
+        <v>231</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>338</v>
+        <v>461</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>629</v>
+        <v>446</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C42" s="24">
         <v>4</v>
@@ -4309,40 +4125,40 @@
       <c r="E42" s="24">
         <v>15</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>65</v>
+      <c r="F42" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>630</v>
+        <v>447</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>434</v>
+        <v>602</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C43" s="24">
         <v>12</v>
@@ -4353,37 +4169,40 @@
       <c r="E43" s="24">
         <v>20</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>535</v>
+      <c r="F43" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>539</v>
+        <v>415</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>460</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>340</v>
+        <v>501</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>631</v>
+        <v>448</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>465</v>
+        <v>364</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C44" s="24">
         <v>2</v>
@@ -4394,40 +4213,40 @@
       <c r="E44" s="24">
         <v>20</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>65</v>
+      <c r="F44" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>542</v>
+        <v>416</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>435</v>
+        <v>334</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C45" s="24">
         <v>6</v>
@@ -4438,40 +4257,40 @@
       <c r="E45" s="24">
         <v>30</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>65</v>
+      <c r="F45" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>633</v>
+        <v>557</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>436</v>
+        <v>335</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C46" s="24">
         <v>4</v>
@@ -4482,40 +4301,40 @@
       <c r="E46" s="24">
         <v>20</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>65</v>
+      <c r="F46" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>551</v>
+        <v>216</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>634</v>
+        <v>558</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>487</v>
+        <v>386</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C47" s="24">
         <v>8</v>
@@ -4526,40 +4345,40 @@
       <c r="E47" s="24">
         <v>15</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>65</v>
+      <c r="F47" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>635</v>
+        <v>559</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C48" s="24">
         <v>3</v>
@@ -4570,40 +4389,40 @@
       <c r="E48" s="24">
         <v>40</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>65</v>
+      <c r="F48" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>636</v>
+        <v>560</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>437</v>
+        <v>336</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C49" s="24">
         <v>8</v>
@@ -4614,40 +4433,40 @@
       <c r="E49" s="24">
         <v>20</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>557</v>
+      <c r="F49" s="27" t="s">
+        <v>420</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>348</v>
+        <v>118</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>346</v>
+        <v>503</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>637</v>
+        <v>561</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>471</v>
+        <v>370</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C50" s="24">
         <v>15</v>
@@ -4658,40 +4477,40 @@
       <c r="E50" s="24">
         <v>20</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>557</v>
+      <c r="F50" s="27" t="s">
+        <v>420</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>219</v>
+        <v>450</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>350</v>
+        <v>462</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>349</v>
+        <v>504</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>638</v>
+        <v>562</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>438</v>
+        <v>337</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C51" s="24">
         <v>6</v>
@@ -4702,40 +4521,40 @@
       <c r="E51" s="24">
         <v>10</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>557</v>
+      <c r="F51" s="27" t="s">
+        <v>420</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>553</v>
+        <v>419</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>639</v>
+        <v>563</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>439</v>
+        <v>338</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C52" s="24">
         <v>4</v>
@@ -4746,40 +4565,40 @@
       <c r="E52" s="24">
         <v>10</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>65</v>
+      <c r="F52" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>352</v>
+        <v>516</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>640</v>
+        <v>564</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>489</v>
+        <v>388</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C53" s="24">
         <v>2</v>
@@ -4790,40 +4609,40 @@
       <c r="E53" s="24">
         <v>30</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>65</v>
+      <c r="F53" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>354</v>
+        <v>114</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>552</v>
+        <v>237</v>
       </c>
       <c r="J53" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>641</v>
+        <v>565</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>440</v>
+        <v>339</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C54" s="24">
         <v>3</v>
@@ -4834,40 +4653,40 @@
       <c r="E54" s="24">
         <v>30</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>65</v>
+      <c r="F54" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>552</v>
+        <v>237</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>355</v>
+        <v>505</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>642</v>
+        <v>566</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C55" s="24">
         <v>3</v>
@@ -4878,40 +4697,40 @@
       <c r="E55" s="24">
         <v>20</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>558</v>
+      <c r="F55" s="27" t="s">
+        <v>420</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>356</v>
+        <v>36</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>643</v>
+        <v>567</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>491</v>
+        <v>390</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C56" s="24">
         <v>2</v>
@@ -4922,40 +4741,40 @@
       <c r="E56" s="24">
         <v>20</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>65</v>
+      <c r="F56" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>644</v>
+        <v>568</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C57" s="24">
         <v>4</v>
@@ -4966,40 +4785,40 @@
       <c r="E57" s="24">
         <v>30</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>65</v>
+      <c r="F57" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>357</v>
+        <v>508</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>645</v>
+        <v>569</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C58" s="26">
         <v>6</v>
@@ -5010,40 +4829,40 @@
       <c r="E58" s="24">
         <v>40</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>65</v>
+      <c r="F58" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>359</v>
+        <v>108</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>358</v>
+      <c r="K58" s="10" t="s">
+        <v>509</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>646</v>
+        <v>570</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>494</v>
+        <v>393</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C59" s="24">
         <v>3</v>
@@ -5054,40 +4873,40 @@
       <c r="E59" s="24">
         <v>20</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>65</v>
+      <c r="F59" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>647</v>
+        <v>571</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C60" s="24">
         <v>4</v>
@@ -5098,40 +4917,40 @@
       <c r="E60" s="24">
         <v>30</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>65</v>
+      <c r="F60" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>648</v>
+        <v>572</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>442</v>
+        <v>341</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C61" s="24">
         <v>20</v>
@@ -5142,40 +4961,40 @@
       <c r="E61" s="24">
         <v>10</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>536</v>
+      <c r="F61" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>516</v>
+        <v>475</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>649</v>
+        <v>573</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C62" s="24">
         <v>5</v>
@@ -5186,40 +5005,40 @@
       <c r="E62" s="24">
         <v>45</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>557</v>
+      <c r="F62" s="27" t="s">
+        <v>420</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>363</v>
+        <v>123</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>364</v>
+        <v>128</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>650</v>
+        <v>574</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>444</v>
+        <v>343</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C63" s="22">
         <v>5</v>
@@ -5230,40 +5049,40 @@
       <c r="E63" s="22">
         <v>30</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>212</v>
+      <c r="F63" s="28" t="s">
+        <v>439</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>495</v>
+        <v>394</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C64" s="22">
         <v>12</v>
@@ -5274,40 +5093,40 @@
       <c r="E64" s="22">
         <v>30</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="28" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>545</v>
+        <v>231</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>519</v>
+        <v>411</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C65" s="22">
         <v>6</v>
@@ -5318,40 +5137,40 @@
       <c r="E65" s="22">
         <v>45</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>561</v>
+      <c r="F65" s="28" t="s">
+        <v>433</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>580</v>
+        <v>445</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>496</v>
+        <v>395</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C66" s="22">
         <v>4</v>
@@ -5362,40 +5181,40 @@
       <c r="E66" s="22">
         <v>30</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>561</v>
+      <c r="F66" s="28" t="s">
+        <v>440</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>538</v>
+        <v>236</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>521</v>
+        <v>412</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>466</v>
+        <v>365</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C67" s="22">
         <v>4</v>
@@ -5406,40 +5225,40 @@
       <c r="E67" s="22">
         <v>25</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>561</v>
+      <c r="F67" s="28" t="s">
+        <v>440</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>651</v>
+        <v>578</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>446</v>
+        <v>345</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C68" s="22">
         <v>4</v>
@@ -5450,40 +5269,40 @@
       <c r="E68" s="22">
         <v>10</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>212</v>
+      <c r="F68" s="28" t="s">
+        <v>441</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>555</v>
+        <v>456</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>362</v>
+        <v>510</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>652</v>
+        <v>579</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>497</v>
+        <v>396</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C69" s="22">
         <v>4</v>
@@ -5494,40 +5313,40 @@
       <c r="E69" s="22">
         <v>15</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>535</v>
+      <c r="F69" s="28" t="s">
+        <v>436</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>653</v>
+        <v>580</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>498</v>
+        <v>397</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C70" s="22">
         <v>12</v>
@@ -5538,40 +5357,40 @@
       <c r="E70" s="22">
         <v>60</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>212</v>
+      <c r="F70" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>542</v>
+        <v>231</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>376</v>
+        <v>156</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>654</v>
+        <v>581</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>447</v>
+        <v>346</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C71" s="22">
         <v>10</v>
@@ -5582,40 +5401,40 @@
       <c r="E71" s="22">
         <v>60</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>212</v>
+      <c r="F71" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>376</v>
+        <v>156</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>655</v>
+        <v>582</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>499</v>
+        <v>398</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C72" s="22">
         <v>10</v>
@@ -5626,40 +5445,40 @@
       <c r="E72" s="22">
         <v>90</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>561</v>
+      <c r="F72" s="28" t="s">
+        <v>433</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>376</v>
+        <v>156</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>370</v>
+        <v>478</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>656</v>
+        <v>583</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>500</v>
+        <v>399</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C73" s="24">
         <v>2</v>
@@ -5670,40 +5489,40 @@
       <c r="E73" s="22">
         <v>30</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>561</v>
+      <c r="F73" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>501</v>
+        <v>400</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C74" s="24">
         <v>10</v>
@@ -5714,40 +5533,40 @@
       <c r="E74" s="22">
         <v>120</v>
       </c>
-      <c r="F74" s="10" t="s">
-        <v>561</v>
+      <c r="F74" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>348</v>
+        <v>460</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>372</v>
+        <v>479</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>657</v>
+        <v>585</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>502</v>
+        <v>401</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C75" s="24">
         <v>6</v>
@@ -5758,40 +5577,40 @@
       <c r="E75" s="22">
         <v>60</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>561</v>
+      <c r="F75" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>542</v>
+        <v>231</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>658</v>
+        <v>586</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>503</v>
+        <v>402</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C76" s="24">
         <v>8</v>
@@ -5802,40 +5621,40 @@
       <c r="E76" s="22">
         <v>30</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>561</v>
+      <c r="F76" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>549</v>
+        <v>450</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>384</v>
+        <v>465</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>583</v>
+        <v>423</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>467</v>
+        <v>366</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C77" s="24">
         <v>4</v>
@@ -5846,40 +5665,40 @@
       <c r="E77" s="22">
         <v>15</v>
       </c>
-      <c r="F77" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>113</v>
+      <c r="F77" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>549</v>
+        <v>450</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>386</v>
+        <v>466</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>504</v>
+        <v>403</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C78" s="24">
         <v>6</v>
@@ -5890,40 +5709,40 @@
       <c r="E78" s="22">
         <v>15</v>
       </c>
-      <c r="F78" s="10" t="s">
-        <v>561</v>
+      <c r="F78" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>549</v>
+        <v>444</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>378</v>
+        <v>304</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C79" s="24">
         <v>8</v>
@@ -5934,40 +5753,40 @@
       <c r="E79" s="24">
         <v>180</v>
       </c>
-      <c r="F79" s="10" t="s">
-        <v>561</v>
+      <c r="F79" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>506</v>
+        <v>405</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C80" s="24">
         <v>6</v>
@@ -5978,40 +5797,40 @@
       <c r="E80" s="22">
         <v>90</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>561</v>
+      <c r="F80" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>507</v>
+        <v>406</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C81" s="24">
         <v>4</v>
@@ -6022,40 +5841,40 @@
       <c r="E81" s="22">
         <v>20</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>561</v>
+      <c r="F81" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>381</v>
+        <v>307</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C82" s="24">
         <v>4</v>
@@ -6066,40 +5885,40 @@
       <c r="E82" s="24">
         <v>30</v>
       </c>
-      <c r="F82" s="10" t="s">
-        <v>212</v>
+      <c r="F82" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>383</v>
+        <v>480</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>589</v>
+        <v>424</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>448</v>
+        <v>347</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C83" s="24">
         <v>2</v>
@@ -6110,40 +5929,40 @@
       <c r="E83" s="24">
         <v>20</v>
       </c>
-      <c r="F83" s="10" t="s">
-        <v>212</v>
+      <c r="F83" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>395</v>
+        <v>219</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>396</v>
+        <v>468</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>385</v>
+        <v>512</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>590</v>
+        <v>425</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>469</v>
+        <v>368</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C84" s="24">
         <v>2</v>
@@ -6154,40 +5973,40 @@
       <c r="E84" s="24">
         <v>10</v>
       </c>
-      <c r="F84" s="10" t="s">
-        <v>212</v>
+      <c r="F84" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>219</v>
+        <v>444</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>220</v>
+        <v>460</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>387</v>
+        <v>303</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>449</v>
+        <v>348</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C85" s="24">
         <v>2</v>
@@ -6198,40 +6017,40 @@
       <c r="E85" s="24">
         <v>25</v>
       </c>
-      <c r="F85" s="10" t="s">
-        <v>212</v>
+      <c r="F85" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>223</v>
+        <v>444</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>659</v>
+        <v>429</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>450</v>
+        <v>349</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C86" s="24">
         <v>1</v>
@@ -6242,40 +6061,40 @@
       <c r="E86" s="24">
         <v>10</v>
       </c>
-      <c r="F86" s="10" t="s">
-        <v>212</v>
+      <c r="F86" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>223</v>
+        <v>444</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="N86" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C87" s="24">
         <v>2</v>
@@ -6286,40 +6105,40 @@
       <c r="E87" s="24">
         <v>30</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G87" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="L87" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="M87" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="N87" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="B88" s="17" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C88" s="24">
         <v>8</v>
@@ -6330,40 +6149,40 @@
       <c r="E88" s="24">
         <v>90</v>
       </c>
-      <c r="F88" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>65</v>
+      <c r="F88" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>392</v>
+        <v>484</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>660</v>
+        <v>430</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>453</v>
+        <v>352</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C89" s="24">
         <v>6</v>
@@ -6374,40 +6193,40 @@
       <c r="E89" s="24">
         <v>25</v>
       </c>
-      <c r="F89" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>65</v>
+      <c r="F89" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>454</v>
+        <v>353</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C90" s="24">
         <v>4</v>
@@ -6418,40 +6237,40 @@
       <c r="E90" s="24">
         <v>15</v>
       </c>
-      <c r="F90" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>65</v>
+      <c r="F90" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>455</v>
+        <v>354</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C91" s="24">
         <v>4</v>
@@ -6462,40 +6281,40 @@
       <c r="E91" s="24">
         <v>120</v>
       </c>
-      <c r="F91" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>65</v>
+      <c r="F91" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>401</v>
+        <v>236</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>472</v>
+        <v>371</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C92" s="24">
         <v>6</v>
@@ -6506,40 +6325,40 @@
       <c r="E92" s="24">
         <v>30</v>
       </c>
-      <c r="F92" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>65</v>
+      <c r="F92" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>597</v>
+        <v>427</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>509</v>
+        <v>408</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C93" s="24">
         <v>4</v>
@@ -6550,40 +6369,40 @@
       <c r="E93" s="24">
         <v>20</v>
       </c>
-      <c r="F93" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>65</v>
+      <c r="F93" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>402</v>
+        <v>236</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>510</v>
+        <v>409</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C94" s="24">
         <v>4</v>
@@ -6594,40 +6413,40 @@
       <c r="E94" s="24">
         <v>30</v>
       </c>
-      <c r="F94" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>65</v>
+      <c r="F94" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>456</v>
+        <v>355</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C95" s="24">
         <v>4</v>
@@ -6638,40 +6457,40 @@
       <c r="E95" s="24">
         <v>20</v>
       </c>
-      <c r="F95" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>65</v>
+      <c r="F95" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H95" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="N95" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="I95" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J95" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="L95" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="M95" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="N95" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
+      <c r="B96" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>277</v>
       </c>
       <c r="C96" s="24">
         <v>4</v>
@@ -6682,40 +6501,40 @@
       <c r="E96" s="24">
         <v>15</v>
       </c>
-      <c r="F96" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>65</v>
+      <c r="F96" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>470</v>
+        <v>369</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C97" s="24">
         <v>4</v>
@@ -6726,40 +6545,40 @@
       <c r="E97" s="24">
         <v>15</v>
       </c>
-      <c r="F97" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>65</v>
+      <c r="F97" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="L97" s="11" t="s">
-        <v>664</v>
+        <v>431</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C98" s="24">
         <v>8</v>
@@ -6770,40 +6589,40 @@
       <c r="E98" s="24">
         <v>15</v>
       </c>
-      <c r="F98" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>113</v>
+      <c r="F98" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>667</v>
+        <v>231</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>260</v>
+        <v>470</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>599</v>
+        <v>428</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>459</v>
+        <v>358</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C99" s="24">
         <v>4</v>
@@ -6814,40 +6633,40 @@
       <c r="E99" s="24">
         <v>15</v>
       </c>
-      <c r="F99" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>65</v>
+      <c r="F99" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>667</v>
+        <v>231</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>665</v>
+        <v>432</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>460</v>
+        <v>359</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C100" s="24">
         <v>8</v>
@@ -6858,40 +6677,40 @@
       <c r="E100" s="24">
         <v>10</v>
       </c>
-      <c r="F100" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>113</v>
+      <c r="F100" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>667</v>
+        <v>231</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>666</v>
+        <v>477</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>461</v>
+        <v>360</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C101" s="24">
         <v>8</v>
@@ -6902,32 +6721,32 @@
       <c r="E101" s="24">
         <v>60</v>
       </c>
-      <c r="F101" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>113</v>
+      <c r="F101" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>270</v>
+        <v>472</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>534</v>
+        <v>497</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>600</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>462</v>
+        <v>361</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6985,13 +6804,23 @@
     <hyperlink ref="N79" r:id="rId50"/>
     <hyperlink ref="N80" r:id="rId51"/>
     <hyperlink ref="N81" r:id="rId52"/>
+    <hyperlink ref="N86" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008391A78A96E52D49B7547661E7A4BF06" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f85b5808450112fb8a7ca44957bb917">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40cda520-8ac8-43fb-9853-1ab640917454" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4771e6a9242bec3fb156c39d4a4cbe5" ns2:_="">
     <xsd:import namespace="40cda520-8ac8-43fb-9853-1ab640917454"/>
@@ -7139,15 +6968,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7155,6 +6975,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF8687-F08D-4160-94B0-189397DE676C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7168,14 +6996,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/recipeData/CombineRecipes.xlsx
+++ b/recipeData/CombineRecipes.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Nonya and Vege" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nonya and Vege'!$A$1:$N$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nonya and Vege'!$A$1:$O$101</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="616">
   <si>
     <t>Name</t>
   </si>
@@ -641,9 +641,6 @@
     <t>scrambled eggs</t>
   </si>
   <si>
-    <t>fry</t>
-  </si>
-  <si>
     <t>http://www.bbcgoodfood.com/recipes/1720/perfect-scrambled-eggs</t>
   </si>
   <si>
@@ -854,15 +851,6 @@
     <t>sweet potato flesh;coarse sugar;water;tapioca flour;thick coconut milk;salt;coconut flesh</t>
   </si>
   <si>
-    <t>glutinous rice;freshly ground turmeric;tamarind peel;pepper corn;salt;dried bamboo leave;hemp string;cooking oil;dried chilly;shallot;sugar;salt;dried prawn</t>
-  </si>
-  <si>
-    <t>pork belly;tamarind paste;water;salt;sugar</t>
-  </si>
-  <si>
-    <t>skinless chicken breast;chicken drumsticks;rice;corn oil;ginger;scallion;mushroom;oyster sauce;soy sauce;corn starch;sesame oil;white pepper;sugar;shaoxing wine;dark soy sauce;salt</t>
-  </si>
-  <si>
     <t>pork mince;onion;patato;frozen peas;dark soya sauce;salt;stick of cinnamon;clovea;pepper;vegetable oil</t>
   </si>
   <si>
@@ -1265,9 +1253,6 @@
     <t>tomato paste; Salt; pepper; oil; white vinegar; red Chilly peppers; cloves; garlic; fresh ginger; paprika powder; cinnamon; cumin; dry mustard; sugar</t>
   </si>
   <si>
-    <t xml:space="preserve">paprika; garam masala; </t>
-  </si>
-  <si>
     <t>Chinese</t>
   </si>
   <si>
@@ -1547,9 +1532,6 @@
     <t>vegetable oil; cumin seeds; large onion; ginger-garlic paste; medium sized ripe tomatoes; coriander powder; cumin powder; turmeric powder; chili powder; dry kasoori methi; heavy cream; Salt; white button mushrooms;  large green or red bell pepper; turmeric; chili powder;greek yogurt</t>
   </si>
   <si>
-    <t>cauliflower;potatoes;canola oil;black mustard seeds;cumin seeds;coriander seeds;medium onion, diced;Jalapeno;hot green pepper;tomato;garlic cloves;ginger;red pepper chili powder;turmeric powder;salt;water</t>
-  </si>
-  <si>
     <t>seafood curry paste;prawns;squids;scallops;seabass fillet;tomato; coconut milk;tamarind pulp;shallots;water;oil;Salt;curry leaves</t>
   </si>
   <si>
@@ -1559,9 +1541,6 @@
     <t>chicken;tomato paste;Salt;pepper;oil;vinegar;dried red Chile peppers;cloves;garlic cloves;ginger, peeled;paprika powder;ground cinnamon;ground cumin;dry mustard;sugar</t>
   </si>
   <si>
-    <t>wheat flour; water; salt</t>
-  </si>
-  <si>
     <t>boneless skinless chicken breast; vegetable oil; minced garlic; fresh ginger; onion; cumin seeds; green cardamom; ripe tomato; turmeric; red pepper;cayenne; salt; black pepper</t>
   </si>
   <si>
@@ -1836,6 +1815,66 @@
   </si>
   <si>
     <t>clean the fish and make slashes across the thickest part of the fish.;Rinse and pat dry, dust lightly with corn flour.;Heat up a wok without any oil and dry fry the salted vegetables for a few minutes. Add a little oil and the plums and half the tomatoes.;Whisk together soy sauce, sugar, cornstarch, and ginger in a bowl until the sugar has dissolved and the mixture is smooth. Place the steak slices into the marinade, and stir until well-coated.;Heat 1 tablespoon of vegetable oil in a wok or large skillet over medium-high heat, and place easy of the steak strips into the hot oil. Cook and stir until the beef is well-browned, about 3 minutes, and remove the beef from the wok to a bowl. Repeat twice more, with the remaining beef, and set the cooked beef aside.;Return all the cooked beef to the hot wok, and stir in the onion. Toss the beef and onion together until the onion begins to soften, about 2 minutes, then stir in the green pepper. Cook and stir the mixture until the pepper has turned bright green and started to become tender, about 2 minutes, then add the tomatoes, stir everything together, and serve.</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>ghee; flour; castor sugar; salt; eggs; coconut milk; pandan juice; pandan colouring</t>
+  </si>
+  <si>
+    <t>red onions;red bell pepper;red chilli;honey red tomatoes;garlic;cinnamon;fish sauce;sugar;oil</t>
+  </si>
+  <si>
+    <t>cauliflower;potatoes;canola oil;black mustard seeds;cumin seeds;coriander seeds;onion;Jalapeno;hot green pepper;tomato;garlic cloves;ginger;red pepper chili powder;turmeric powder;salt;water</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>Halal; NoNuts</t>
+  </si>
+  <si>
+    <t>Vegetarian; Healthy; NoNuts</t>
+  </si>
+  <si>
+    <t>Halal; Vegetarian; NoNuts</t>
+  </si>
+  <si>
+    <t>NoNuts</t>
+  </si>
+  <si>
+    <t>glutinous rice;turmeric;tamarind peel;pepper corn;salt;dried bamboo leave;hemp string;cooking oil;dried chilly;shallot;sugar;salt;dried prawn</t>
+  </si>
+  <si>
+    <t>pork;tamarind paste;water;salt;sugar</t>
+  </si>
+  <si>
+    <t>chicken;rice;corn oil;ginger;scallion;mushroom;oyster sauce;soy sauce;corn starch;sesame oil;white pepper;sugar;shaoxing wine;dark soy sauce;salt</t>
+  </si>
+  <si>
+    <t>Healthy; NoNuts</t>
+  </si>
+  <si>
+    <t>Vegetarian; NoNuts</t>
+  </si>
+  <si>
+    <t>Halal; NoNuts; Spicy</t>
+  </si>
+  <si>
+    <t>Halal; Spicy</t>
+  </si>
+  <si>
+    <t>Healthy; Spicy</t>
+  </si>
+  <si>
+    <t>Vegetarian; NoNuts; Spicy</t>
+  </si>
+  <si>
+    <t>NoNuts; Spicy</t>
   </si>
 </sst>
 </file>
@@ -2281,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="I78" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2294,23 +2333,24 @@
     <col min="3" max="3" width="8.85546875" style="24"/>
     <col min="4" max="4" width="9.140625" style="24" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="24"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="255.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.85546875" customWidth="1"/>
-    <col min="14" max="14" width="120.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="100.7109375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
@@ -2331,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -2346,15 +2386,18 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="24">
         <v>6</v>
@@ -2372,33 +2415,36 @@
         <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="N2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="24">
         <v>18</v>
@@ -2419,30 +2465,33 @@
         <v>71</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="N3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="24">
         <v>4</v>
@@ -2454,39 +2503,42 @@
         <v>25</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="N4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5" s="24">
         <v>6</v>
@@ -2507,30 +2559,33 @@
         <v>71</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="N5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="24">
         <v>10</v>
@@ -2551,30 +2606,33 @@
         <v>71</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="N6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" s="24">
         <v>10</v>
@@ -2595,30 +2653,33 @@
         <v>76</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="N7" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="24">
         <v>4</v>
@@ -2639,30 +2700,33 @@
         <v>76</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="N8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="24">
         <v>6</v>
@@ -2674,7 +2738,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>28</v>
@@ -2683,30 +2747,33 @@
         <v>71</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="N9" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="24">
         <v>4</v>
@@ -2727,30 +2794,33 @@
         <v>76</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="N10" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="24">
         <v>10</v>
@@ -2762,7 +2832,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>159</v>
@@ -2771,30 +2841,33 @@
         <v>71</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="N11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="24">
         <v>4</v>
@@ -2815,30 +2888,33 @@
         <v>71</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>156</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="N12" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" s="24">
         <v>6</v>
@@ -2859,30 +2935,33 @@
         <v>71</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="N13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C14" s="24">
         <v>4</v>
@@ -2903,30 +2982,33 @@
         <v>71</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="N14" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="24">
         <v>6</v>
@@ -2947,30 +3029,33 @@
         <v>71</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="N15" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="24">
         <v>10</v>
@@ -2991,30 +3076,33 @@
         <v>76</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="N16" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="24">
         <v>4</v>
@@ -3026,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>159</v>
@@ -3035,30 +3123,33 @@
         <v>71</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="N17" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="24">
         <v>6</v>
@@ -3070,7 +3161,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>159</v>
@@ -3079,30 +3170,33 @@
         <v>76</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>61</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="N18" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C19" s="24">
         <v>4</v>
@@ -3120,33 +3214,36 @@
         <v>159</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="N19" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C20" s="24">
         <v>12</v>
@@ -3158,39 +3255,42 @@
         <v>120</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="N20" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C21" s="24">
         <v>20</v>
@@ -3208,33 +3308,36 @@
         <v>28</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="N21" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C22" s="24">
         <v>15</v>
@@ -3255,30 +3358,33 @@
         <v>71</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>58</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>275</v>
+        <v>606</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="N22" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C23" s="25">
         <v>10</v>
@@ -3296,33 +3402,36 @@
         <v>159</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>61</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>276</v>
+        <v>607</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="N23" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O23" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" s="25">
         <v>2</v>
@@ -3334,39 +3443,42 @@
         <v>30</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>277</v>
+        <v>608</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="N24" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="O24" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="24">
         <v>6</v>
@@ -3378,39 +3490,42 @@
         <v>60</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>67</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N25" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="24">
         <v>4</v>
@@ -3422,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>70</v>
@@ -3431,30 +3546,33 @@
         <v>71</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="N26" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O26" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C27" s="24">
         <v>6</v>
@@ -3466,7 +3584,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>70</v>
@@ -3475,30 +3593,33 @@
         <v>71</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>61</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N27" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O27" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" s="24">
         <v>4</v>
@@ -3510,7 +3631,7 @@
         <v>45</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>67</v>
@@ -3519,30 +3640,33 @@
         <v>76</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N28" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="24">
         <v>4</v>
@@ -3554,7 +3678,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>159</v>
@@ -3563,30 +3687,33 @@
         <v>76</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N29" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O29" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" s="24">
         <v>4</v>
@@ -3598,7 +3725,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>159</v>
@@ -3607,30 +3734,33 @@
         <v>71</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N30" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O30" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="24">
         <v>4</v>
@@ -3642,7 +3772,7 @@
         <v>35</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>159</v>
@@ -3651,30 +3781,33 @@
         <v>76</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N31" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="O31" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="24">
         <v>4</v>
@@ -3686,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>159</v>
@@ -3695,30 +3828,33 @@
         <v>71</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N32" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C33" s="24">
         <v>6</v>
@@ -3730,7 +3866,7 @@
         <v>55</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>123</v>
@@ -3739,30 +3875,33 @@
         <v>71</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>58</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N33" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O33" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" s="24">
         <v>2</v>
@@ -3774,39 +3913,42 @@
         <v>8</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N34" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O34" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C35" s="24">
         <v>10</v>
@@ -3818,39 +3960,39 @@
         <v>250</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>61</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="N35" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="O35" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C36" s="24">
         <v>2</v>
@@ -3862,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>159</v>
@@ -3871,30 +4013,33 @@
         <v>71</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N36" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O36" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37" s="24">
         <v>3</v>
@@ -3906,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>159</v>
@@ -3915,30 +4060,33 @@
         <v>71</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N37" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O37" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C38" s="24">
         <v>4</v>
@@ -3950,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>159</v>
@@ -3959,30 +4107,33 @@
         <v>71</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N38" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O38" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="24">
         <v>6</v>
@@ -3994,39 +4145,42 @@
         <v>25</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N39" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O39" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C40" s="24">
         <v>4</v>
@@ -4038,7 +4192,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>159</v>
@@ -4047,30 +4201,33 @@
         <v>71</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N40" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O40" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="24">
         <v>1</v>
@@ -4082,7 +4239,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>67</v>
@@ -4091,30 +4248,33 @@
         <v>76</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N41" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O41" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="24">
         <v>4</v>
@@ -4126,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>159</v>
@@ -4135,30 +4295,33 @@
         <v>71</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>162</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="N42" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O42" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="24">
         <v>12</v>
@@ -4170,39 +4333,42 @@
         <v>20</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N43" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O43" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C44" s="24">
         <v>2</v>
@@ -4214,7 +4380,7 @@
         <v>20</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>159</v>
@@ -4223,30 +4389,33 @@
         <v>108</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="N44" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="24">
         <v>6</v>
@@ -4258,7 +4427,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>159</v>
@@ -4267,30 +4436,30 @@
         <v>111</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="N45" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C46" s="24">
         <v>4</v>
@@ -4302,7 +4471,7 @@
         <v>20</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>159</v>
@@ -4311,30 +4480,33 @@
         <v>114</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="N46" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47" s="24">
         <v>8</v>
@@ -4346,7 +4518,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>159</v>
@@ -4355,30 +4527,33 @@
         <v>117</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>118</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="N47" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="24">
         <v>3</v>
@@ -4390,7 +4565,7 @@
         <v>40</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>159</v>
@@ -4399,30 +4574,33 @@
         <v>114</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="N48" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C49" s="24">
         <v>8</v>
@@ -4434,7 +4612,7 @@
         <v>20</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>123</v>
@@ -4443,30 +4621,33 @@
         <v>198</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J49" s="10" t="s">
         <v>118</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="N49" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C50" s="24">
         <v>15</v>
@@ -4478,7 +4659,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>28</v>
@@ -4487,30 +4668,33 @@
         <v>111</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="N50" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C51" s="24">
         <v>6</v>
@@ -4522,7 +4706,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>28</v>
@@ -4531,30 +4715,33 @@
         <v>108</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>128</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="N51" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O51" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C52" s="24">
         <v>4</v>
@@ -4566,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>159</v>
@@ -4575,30 +4762,33 @@
         <v>114</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="N52" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>132</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C53" s="24">
         <v>2</v>
@@ -4610,7 +4800,7 @@
         <v>30</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>159</v>
@@ -4619,30 +4809,33 @@
         <v>114</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J53" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="N53" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O53" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C54" s="24">
         <v>3</v>
@@ -4654,39 +4847,42 @@
         <v>30</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H54" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>135</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="N54" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O54" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C55" s="24">
         <v>3</v>
@@ -4698,7 +4894,7 @@
         <v>20</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>138</v>
@@ -4707,30 +4903,33 @@
         <v>198</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>506</v>
+        <v>600</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="N55" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C56" s="24">
         <v>2</v>
@@ -4742,7 +4941,7 @@
         <v>20</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>159</v>
@@ -4751,30 +4950,33 @@
         <v>141</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="N56" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C57" s="24">
         <v>4</v>
@@ -4786,7 +4988,7 @@
         <v>30</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>159</v>
@@ -4795,30 +4997,33 @@
         <v>198</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="N57" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C58" s="26">
         <v>6</v>
@@ -4830,7 +5035,7 @@
         <v>40</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>159</v>
@@ -4839,30 +5044,33 @@
         <v>108</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="N58" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>147</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C59" s="24">
         <v>3</v>
@@ -4874,39 +5082,42 @@
         <v>20</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H59" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I59" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="J59" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="N59" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>149</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C60" s="24">
         <v>4</v>
@@ -4918,7 +5129,7 @@
         <v>30</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>159</v>
@@ -4927,30 +5138,33 @@
         <v>198</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="N60" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C61" s="24">
         <v>20</v>
@@ -4962,7 +5176,7 @@
         <v>10</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>159</v>
@@ -4971,30 +5185,33 @@
         <v>198</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>118</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="N61" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O61" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C62" s="24">
         <v>5</v>
@@ -5006,7 +5223,7 @@
         <v>45</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>123</v>
@@ -5015,30 +5232,33 @@
         <v>198</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>128</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="N62" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63" s="22">
         <v>5</v>
@@ -5050,39 +5270,42 @@
         <v>30</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H63" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="N63" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O63" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C64" s="22">
         <v>12</v>
@@ -5100,33 +5323,36 @@
         <v>159</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="N64" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="O64" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C65" s="22">
         <v>6</v>
@@ -5138,7 +5364,7 @@
         <v>45</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>159</v>
@@ -5147,30 +5373,33 @@
         <v>198</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>162</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N65" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="O65" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C66" s="22">
         <v>4</v>
@@ -5182,39 +5411,42 @@
         <v>30</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H66" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I66" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>118</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>412</v>
+        <v>598</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N66" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="O66" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C67" s="22">
         <v>4</v>
@@ -5226,7 +5458,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>159</v>
@@ -5235,30 +5467,33 @@
         <v>198</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="N67" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O67" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C68" s="22">
         <v>4</v>
@@ -5270,39 +5505,42 @@
         <v>10</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>111</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>510</v>
+        <v>599</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N68" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="O68" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C69" s="22">
         <v>4</v>
@@ -5314,7 +5552,7 @@
         <v>15</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>159</v>
@@ -5323,30 +5561,31 @@
         <v>71</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="N69" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C70" s="22">
         <v>12</v>
@@ -5364,33 +5603,36 @@
         <v>28</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="N70" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="O70" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71" s="22">
         <v>10</v>
@@ -5408,33 +5650,36 @@
         <v>28</v>
       </c>
       <c r="H71" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="N71" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="O71" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="22">
         <v>10</v>
@@ -5446,39 +5691,42 @@
         <v>90</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H72" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="N72" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O72" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C73" s="24">
         <v>2</v>
@@ -5490,7 +5738,7 @@
         <v>30</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>159</v>
@@ -5499,30 +5747,33 @@
         <v>198</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="N73" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O73" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" s="24">
         <v>10</v>
@@ -5534,7 +5785,7 @@
         <v>120</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>28</v>
@@ -5543,30 +5794,33 @@
         <v>114</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="N74" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="O74" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C75" s="24">
         <v>6</v>
@@ -5578,7 +5832,7 @@
         <v>60</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>28</v>
@@ -5587,30 +5841,33 @@
         <v>76</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="N75" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="O75" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C76" s="24">
         <v>8</v>
@@ -5622,39 +5879,42 @@
         <v>30</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="N76" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O76" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C77" s="24">
         <v>4</v>
@@ -5666,39 +5926,42 @@
         <v>15</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="N77" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="O77" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C78" s="24">
         <v>6</v>
@@ -5710,7 +5973,7 @@
         <v>15</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>28</v>
@@ -5719,30 +5982,33 @@
         <v>198</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="N78" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="N78" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="O78" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C79" s="24">
         <v>8</v>
@@ -5754,7 +6020,7 @@
         <v>180</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>159</v>
@@ -5763,30 +6029,33 @@
         <v>76</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>162</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="N79" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="N79" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O79" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C80" s="24">
         <v>6</v>
@@ -5798,7 +6067,7 @@
         <v>90</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>159</v>
@@ -5807,30 +6076,33 @@
         <v>76</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>162</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="N80" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O80" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C81" s="24">
         <v>4</v>
@@ -5842,7 +6114,7 @@
         <v>20</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>138</v>
@@ -5851,30 +6123,33 @@
         <v>198</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>194</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="N81" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="O81" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>196</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C82" s="24">
         <v>4</v>
@@ -5895,30 +6170,33 @@
         <v>198</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J82" s="10" t="s">
         <v>199</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N82" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O82" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>201</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C83" s="24">
         <v>2</v>
@@ -5936,33 +6214,36 @@
         <v>123</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N83" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O83" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>203</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C84" s="24">
         <v>2</v>
@@ -5983,30 +6264,33 @@
         <v>198</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N84" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="B85" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C85" s="24">
         <v>2</v>
@@ -6027,30 +6311,33 @@
         <v>198</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J85" s="10" t="s">
         <v>118</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N85" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="B86" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C86" s="24">
         <v>1</v>
@@ -6071,30 +6358,33 @@
         <v>198</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="N86" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="N86" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="B87" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C87" s="24">
         <v>2</v>
@@ -6112,33 +6402,36 @@
         <v>159</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J87" s="10" t="s">
         <v>162</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N87" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O87" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="B88" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88" s="24">
         <v>8</v>
@@ -6156,33 +6449,33 @@
         <v>159</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J88" s="10" t="s">
         <v>162</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="N88" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="O88" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="B89" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C89" s="24">
         <v>6</v>
@@ -6200,33 +6493,36 @@
         <v>159</v>
       </c>
       <c r="H89" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I89" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="J89" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N89" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O89" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="B90" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C90" s="24">
         <v>4</v>
@@ -6244,33 +6540,36 @@
         <v>159</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>199</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N90" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="O90" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="B91" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C91" s="24">
         <v>4</v>
@@ -6288,33 +6587,36 @@
         <v>159</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J91" s="10" t="s">
         <v>61</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N91" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="B92" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92" s="24">
         <v>6</v>
@@ -6332,33 +6634,36 @@
         <v>159</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J92" s="10" t="s">
         <v>61</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N92" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O92" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>225</v>
-      </c>
       <c r="B93" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C93" s="24">
         <v>4</v>
@@ -6376,33 +6681,36 @@
         <v>159</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J93" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="N93" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O93" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K93" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="L93" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="M93" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="N93" s="10" t="s">
+    </row>
+    <row r="94" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>228</v>
-      </c>
       <c r="B94" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C94" s="24">
         <v>4</v>
@@ -6420,33 +6728,36 @@
         <v>159</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N94" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O94" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="B95" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C95" s="24">
         <v>4</v>
@@ -6464,33 +6775,36 @@
         <v>159</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J95" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N95" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O95" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="B96" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C96" s="24">
         <v>4</v>
@@ -6511,30 +6825,30 @@
         <v>198</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>204</v>
+        <v>439</v>
       </c>
       <c r="J96" s="10" t="s">
         <v>199</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="N96" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="O96" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="B97" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C97" s="24">
         <v>4</v>
@@ -6552,33 +6866,36 @@
         <v>159</v>
       </c>
       <c r="H97" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I97" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="J97" s="10" t="s">
         <v>199</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L97" s="11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N97" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="O97" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="B98" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C98" s="24">
         <v>8</v>
@@ -6599,30 +6916,33 @@
         <v>76</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N98" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O98" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="B99" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C99" s="24">
         <v>4</v>
@@ -6643,30 +6963,33 @@
         <v>76</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N99" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="O99" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="B100" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C100" s="24">
         <v>8</v>
@@ -6687,30 +7010,33 @@
         <v>76</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N100" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O100" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="B101" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" s="24">
         <v>8</v>
@@ -6728,83 +7054,86 @@
         <v>28</v>
       </c>
       <c r="H101" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I101" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="J101" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="N101" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="O101" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J101" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K101" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="L101" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="M101" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="N101" s="10" t="s">
-        <v>248</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N101"/>
+  <autoFilter ref="A1:O101"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N11" r:id="rId9"/>
-    <hyperlink ref="N10" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
-    <hyperlink ref="N13" r:id="rId12"/>
-    <hyperlink ref="N14" r:id="rId13"/>
-    <hyperlink ref="N15" r:id="rId14"/>
-    <hyperlink ref="N16" r:id="rId15"/>
-    <hyperlink ref="N17" r:id="rId16"/>
-    <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="N19" r:id="rId18"/>
-    <hyperlink ref="N20" r:id="rId19"/>
-    <hyperlink ref="N23" r:id="rId20"/>
-    <hyperlink ref="N21" r:id="rId21"/>
-    <hyperlink ref="N22" r:id="rId22"/>
-    <hyperlink ref="N24" r:id="rId23"/>
-    <hyperlink ref="N26" r:id="rId24"/>
-    <hyperlink ref="N44" r:id="rId25"/>
-    <hyperlink ref="N45" r:id="rId26"/>
-    <hyperlink ref="N46" r:id="rId27"/>
-    <hyperlink ref="N47" r:id="rId28" location="edYoxZpMdyC7YitD.99"/>
-    <hyperlink ref="N48" r:id="rId29" location="DxITCuT7rMBHUetd.99"/>
-    <hyperlink ref="N49" r:id="rId30"/>
-    <hyperlink ref="N50" r:id="rId31" location="pRUDskAryXq8twqY.99"/>
-    <hyperlink ref="N51" r:id="rId32" location="HpJJrMMkrRudrscF.99"/>
-    <hyperlink ref="N53" r:id="rId33"/>
-    <hyperlink ref="N52" r:id="rId34" location="zGyebefiZFJGPyFI.99"/>
-    <hyperlink ref="N54" r:id="rId35" location="LspqxhLwwr5i7pye.99"/>
-    <hyperlink ref="N55" r:id="rId36" location="AsSGyyIvhh4B0i1V.99"/>
-    <hyperlink ref="N56" r:id="rId37" location="myyyVlMEijOZHghW.99"/>
-    <hyperlink ref="N57" r:id="rId38" location="tfpfO4qPJy1qg6qG.99"/>
-    <hyperlink ref="N58" r:id="rId39" location="uB1ec4YEdzLZ2q6u.99"/>
-    <hyperlink ref="N59" r:id="rId40" location="0dfRC7bzwKLIcJWm.99"/>
-    <hyperlink ref="N60" r:id="rId41" location="WL0rE7evQ8sJvZmu.99"/>
-    <hyperlink ref="N61" r:id="rId42" location="C6eM47yGmxqF8a5I.99"/>
-    <hyperlink ref="N62" r:id="rId43" location="OKbGTeK4EGwGfuIt.99"/>
-    <hyperlink ref="N73" r:id="rId44"/>
-    <hyperlink ref="N74" r:id="rId45"/>
-    <hyperlink ref="N75" r:id="rId46"/>
-    <hyperlink ref="N76" r:id="rId47"/>
-    <hyperlink ref="N77" r:id="rId48"/>
-    <hyperlink ref="N78" r:id="rId49"/>
-    <hyperlink ref="N79" r:id="rId50"/>
-    <hyperlink ref="N80" r:id="rId51"/>
-    <hyperlink ref="N81" r:id="rId52"/>
-    <hyperlink ref="N86" r:id="rId53"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O11" r:id="rId9"/>
+    <hyperlink ref="O10" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
+    <hyperlink ref="O23" r:id="rId20"/>
+    <hyperlink ref="O21" r:id="rId21"/>
+    <hyperlink ref="O22" r:id="rId22"/>
+    <hyperlink ref="O24" r:id="rId23"/>
+    <hyperlink ref="O26" r:id="rId24"/>
+    <hyperlink ref="O44" r:id="rId25"/>
+    <hyperlink ref="O45" r:id="rId26"/>
+    <hyperlink ref="O46" r:id="rId27"/>
+    <hyperlink ref="O47" r:id="rId28" location="edYoxZpMdyC7YitD.99"/>
+    <hyperlink ref="O48" r:id="rId29" location="DxITCuT7rMBHUetd.99"/>
+    <hyperlink ref="O49" r:id="rId30"/>
+    <hyperlink ref="O50" r:id="rId31" location="pRUDskAryXq8twqY.99"/>
+    <hyperlink ref="O51" r:id="rId32" location="HpJJrMMkrRudrscF.99"/>
+    <hyperlink ref="O53" r:id="rId33"/>
+    <hyperlink ref="O52" r:id="rId34" location="zGyebefiZFJGPyFI.99"/>
+    <hyperlink ref="O54" r:id="rId35" location="LspqxhLwwr5i7pye.99"/>
+    <hyperlink ref="O55" r:id="rId36" location="AsSGyyIvhh4B0i1V.99"/>
+    <hyperlink ref="O56" r:id="rId37" location="myyyVlMEijOZHghW.99"/>
+    <hyperlink ref="O57" r:id="rId38" location="tfpfO4qPJy1qg6qG.99"/>
+    <hyperlink ref="O58" r:id="rId39" location="uB1ec4YEdzLZ2q6u.99"/>
+    <hyperlink ref="O59" r:id="rId40" location="0dfRC7bzwKLIcJWm.99"/>
+    <hyperlink ref="O60" r:id="rId41" location="WL0rE7evQ8sJvZmu.99"/>
+    <hyperlink ref="O61" r:id="rId42" location="C6eM47yGmxqF8a5I.99"/>
+    <hyperlink ref="O62" r:id="rId43" location="OKbGTeK4EGwGfuIt.99"/>
+    <hyperlink ref="O73" r:id="rId44"/>
+    <hyperlink ref="O74" r:id="rId45"/>
+    <hyperlink ref="O75" r:id="rId46"/>
+    <hyperlink ref="O76" r:id="rId47"/>
+    <hyperlink ref="O77" r:id="rId48"/>
+    <hyperlink ref="O78" r:id="rId49"/>
+    <hyperlink ref="O79" r:id="rId50"/>
+    <hyperlink ref="O80" r:id="rId51"/>
+    <hyperlink ref="O81" r:id="rId52"/>
+    <hyperlink ref="O86" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>
@@ -6821,6 +7150,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008391A78A96E52D49B7547661E7A4BF06" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f85b5808450112fb8a7ca44957bb917">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40cda520-8ac8-43fb-9853-1ab640917454" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4771e6a9242bec3fb156c39d4a4cbe5" ns2:_="">
     <xsd:import namespace="40cda520-8ac8-43fb-9853-1ab640917454"/>
@@ -6968,12 +7303,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC7F45C-4F37-4DFF-BDAF-78C0D0B5C911}">
   <ds:schemaRefs>
@@ -6983,6 +7312,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="40cda520-8ac8-43fb-9853-1ab640917454"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF8687-F08D-4160-94B0-189397DE676C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6998,20 +7343,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416110E1-8220-4910-BAF6-7757097D35BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="40cda520-8ac8-43fb-9853-1ab640917454"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>